--- a/data/hotels_by_city/Dallas/Dallas_shard_623.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_623.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="755">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2171 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r584524909-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>30183</t>
+  </si>
+  <si>
+    <t>98389</t>
+  </si>
+  <si>
+    <t>584524909</t>
+  </si>
+  <si>
+    <t>06/02/2018</t>
+  </si>
+  <si>
+    <t>I like the idea of being able to park in front of the door.</t>
+  </si>
+  <si>
+    <t>Room location was next to the lobby and I was able to park in front of my door. Perfect condition due to the fact I was traveling along. Everyone was extremely friendly. I only needed to call for one thing (hangers) and they were right there to bring them.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>QIGM2017, General Manager at Quality Inn at Arlington Highlands, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>Room location was next to the lobby and I was able to park in front of my door. Perfect condition due to the fact I was traveling along. Everyone was extremely friendly. I only needed to call for one thing (hangers) and they were right there to bring them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r583758660-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>583758660</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Facility needs some upgrading</t>
+  </si>
+  <si>
+    <t>This property provides an adequate place to rest and an adequate breakfast.  I have stayed at the same place several times 7 or 8 years ago.  The service was generally good, but there is a need for some maintenance.  It appeared there is some exterior painting being done, but there was no work going on during the 4 days I was there. The WiFi was undependable in my room.  The maid who knocked at my door 2 days spoke no English and could not understand me when I asked her to come back later, so one day no one cleaned my room. On the second day she called someone on a radio to translate.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>This property provides an adequate place to rest and an adequate breakfast.  I have stayed at the same place several times 7 or 8 years ago.  The service was generally good, but there is a need for some maintenance.  It appeared there is some exterior painting being done, but there was no work going on during the 4 days I was there. The WiFi was undependable in my room.  The maid who knocked at my door 2 days spoke no English and could not understand me when I asked her to come back later, so one day no one cleaned my room. On the second day she called someone on a radio to translate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r581763533-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>581763533</t>
+  </si>
+  <si>
+    <t>05/21/2018</t>
+  </si>
+  <si>
+    <t>Met our needs, and then some.</t>
+  </si>
+  <si>
+    <t>Stayed a week here in May 2018 while visiting family.  Rates are great.  This is our second time to stay at this establishment.  The staff/management seem to go out of their way to help in any way they can.  Our king room was clean.  It was at one end of the building, so there was not a lot of foot traffic going by.  Room doors all open to the outside.  There is ample parking.  It is a great location with a lot of things very close and many other venues not too far.  Breakfast is standard fare; some sort of meat (we did not get bacon for any breakfast meal), SOS, sausage, or ham seemed to be the standard.  The juice machine was not working, but they had orange juice available.  Wish they had diabetic friendly choices such as syrup and plain cereal, not a bunch of sugar coated cereal like Honey Nut Cheerios.  Community coffee was served in the lobby, room coffee was from a one serving at a time mini coffee maker.  The room was clean and the bed was comfy.   The bathroom fixtures were properly maintained; i.e.  I didn’t get any unexpected showers from leaking fixtures, plenty of hot water.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed a week here in May 2018 while visiting family.  Rates are great.  This is our second time to stay at this establishment.  The staff/management seem to go out of their way to help in any way they can.  Our king room was clean.  It was at one end of the building, so there was not a lot of foot traffic going by.  Room doors all open to the outside.  There is ample parking.  It is a great location with a lot of things very close and many other venues not too far.  Breakfast is standard fare; some sort of meat (we did not get bacon for any breakfast meal), SOS, sausage, or ham seemed to be the standard.  The juice machine was not working, but they had orange juice available.  Wish they had diabetic friendly choices such as syrup and plain cereal, not a bunch of sugar coated cereal like Honey Nut Cheerios.  Community coffee was served in the lobby, room coffee was from a one serving at a time mini coffee maker.  The room was clean and the bed was comfy.   The bathroom fixtures were properly maintained; i.e.  I didn’t get any unexpected showers from leaking fixtures, plenty of hot water.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r579513435-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>579513435</t>
+  </si>
+  <si>
+    <t>05/11/2018</t>
+  </si>
+  <si>
+    <t>Graduation visit</t>
+  </si>
+  <si>
+    <t>Came in for graduation at UTA and needed someplace close to school and with a variety of close by eating options.  This.place fit the bill and had a great complimentary breakfast! Staff was incredible in service and smiles. Very welcoming! Currently going through some upgrades so some parts looked a bit sketchy from the road, and no elevator to 2nd floor. But our rooms were just fine. Pricing was wonderful. Nearby WIDE selection of eating establishments,  many open late for accommodating late diners after graduation. I'd stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>QIGM2017, General Manager at Quality Inn at Arlington Highlands, responded to this reviewResponded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>Came in for graduation at UTA and needed someplace close to school and with a variety of close by eating options.  This.place fit the bill and had a great complimentary breakfast! Staff was incredible in service and smiles. Very welcoming! Currently going through some upgrades so some parts looked a bit sketchy from the road, and no elevator to 2nd floor. But our rooms were just fine. Pricing was wonderful. Nearby WIDE selection of eating establishments,  many open late for accommodating late diners after graduation. I'd stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r578118613-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>578118613</t>
+  </si>
+  <si>
+    <t>05/05/2018</t>
+  </si>
+  <si>
+    <t>Nice room</t>
+  </si>
+  <si>
+    <t>Nice hotel in the absolute perfect location for our needs. The beds in our 2 bed room, while comfortable, were more along full sized instead of queen sized. The rooms could use a bit of updating throughout. The only issue we had was the size of the beds. Nice, hot shower and plenty of room for our 2 night stay. Had a refrigerator and a microwave that worked great. Easy in and out off the freeway. Front desk attendant who checked us in was extremely polite. Breakfast was excellent and had lots of options available for us to enjoy.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>QIGM2017, General Manager at Quality Inn at Arlington Highlands, responded to this reviewResponded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Nice hotel in the absolute perfect location for our needs. The beds in our 2 bed room, while comfortable, were more along full sized instead of queen sized. The rooms could use a bit of updating throughout. The only issue we had was the size of the beds. Nice, hot shower and plenty of room for our 2 night stay. Had a refrigerator and a microwave that worked great. Easy in and out off the freeway. Front desk attendant who checked us in was extremely polite. Breakfast was excellent and had lots of options available for us to enjoy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r576982837-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>576982837</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Nice bed, good breakfast, weak shower flow</t>
+  </si>
+  <si>
+    <t>Positives: the location is great, the bed was super comfy and the breakfast was excellent.  Bonus, everyone was super friendly. We went to breakfast near closing time and the clerk was very nice to come and let everyone know in case they wanted to get something else. The only issue we had was the water flow in the shower, but it was hot and I expect some new shower heads would resolve the issue.MoreShow less</t>
+  </si>
+  <si>
+    <t>Positives: the location is great, the bed was super comfy and the breakfast was excellent.  Bonus, everyone was super friendly. We went to breakfast near closing time and the clerk was very nice to come and let everyone know in case they wanted to get something else. The only issue we had was the water flow in the shower, but it was hot and I expect some new shower heads would resolve the issue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r575804823-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>575804823</t>
+  </si>
+  <si>
+    <t>04/26/2018</t>
+  </si>
+  <si>
+    <t>Overnight stay, convenient location</t>
+  </si>
+  <si>
+    <t>I only stayed overnight at this hotel for a family function.  Front desk personnel were always present and very helpful, attentive and engaging. I needed a 3AM wakeup, and it was right on time. Spanish is spoken if needed.
+The biggest problem I had was that the internet did not work in my room.  I was in a back room distant from the front desk.  I had to go to the front desk area to utilize the internet.
+The room was clean, although the carpet was a little worn.  Refrigerator was small.  Room was spacious for me. Queen-sized bed was firm, not hard, and I slept well. If you prefer a soft bed, this is not for you.  All linen and towels, etc. were clean and not worn.  Closet space was quite adequate.
+I only looked at the television briefly for the news, so cannot comment much about selection quality.  I do not even remember what size it was now.
+Heating/AC worked well.  Noise was about average for a hotel in this rank.  I was able to sleep without a problem.
+Hotel is located right next to I-20, easy on, easy off. It is also next door to a large shopping center.  I did not see any big box stores, though.  Shopping center is quite modern, safe and clean.
+When I come back to this area I would definitely look to staying in this hotel again, but much closer to...I only stayed overnight at this hotel for a family function.  Front desk personnel were always present and very helpful, attentive and engaging. I needed a 3AM wakeup, and it was right on time. Spanish is spoken if needed.The biggest problem I had was that the internet did not work in my room.  I was in a back room distant from the front desk.  I had to go to the front desk area to utilize the internet.The room was clean, although the carpet was a little worn.  Refrigerator was small.  Room was spacious for me. Queen-sized bed was firm, not hard, and I slept well. If you prefer a soft bed, this is not for you.  All linen and towels, etc. were clean and not worn.  Closet space was quite adequate.I only looked at the television briefly for the news, so cannot comment much about selection quality.  I do not even remember what size it was now.Heating/AC worked well.  Noise was about average for a hotel in this rank.  I was able to sleep without a problem.Hotel is located right next to I-20, easy on, easy off. It is also next door to a large shopping center.  I did not see any big box stores, though.  Shopping center is quite modern, safe and clean.When I come back to this area I would definitely look to staying in this hotel again, but much closer to the front desk for the internet.Two notes: 1) the hotel is applying for a liquor license, in case that makes a difference to you; 2) I left so early that I did not have a chance to try the free breakfast, so I cannot comment on it.MoreShow less</t>
+  </si>
+  <si>
+    <t>I only stayed overnight at this hotel for a family function.  Front desk personnel were always present and very helpful, attentive and engaging. I needed a 3AM wakeup, and it was right on time. Spanish is spoken if needed.
+The biggest problem I had was that the internet did not work in my room.  I was in a back room distant from the front desk.  I had to go to the front desk area to utilize the internet.
+The room was clean, although the carpet was a little worn.  Refrigerator was small.  Room was spacious for me. Queen-sized bed was firm, not hard, and I slept well. If you prefer a soft bed, this is not for you.  All linen and towels, etc. were clean and not worn.  Closet space was quite adequate.
+I only looked at the television briefly for the news, so cannot comment much about selection quality.  I do not even remember what size it was now.
+Heating/AC worked well.  Noise was about average for a hotel in this rank.  I was able to sleep without a problem.
+Hotel is located right next to I-20, easy on, easy off. It is also next door to a large shopping center.  I did not see any big box stores, though.  Shopping center is quite modern, safe and clean.
+When I come back to this area I would definitely look to staying in this hotel again, but much closer to...I only stayed overnight at this hotel for a family function.  Front desk personnel were always present and very helpful, attentive and engaging. I needed a 3AM wakeup, and it was right on time. Spanish is spoken if needed.The biggest problem I had was that the internet did not work in my room.  I was in a back room distant from the front desk.  I had to go to the front desk area to utilize the internet.The room was clean, although the carpet was a little worn.  Refrigerator was small.  Room was spacious for me. Queen-sized bed was firm, not hard, and I slept well. If you prefer a soft bed, this is not for you.  All linen and towels, etc. were clean and not worn.  Closet space was quite adequate.I only looked at the television briefly for the news, so cannot comment much about selection quality.  I do not even remember what size it was now.Heating/AC worked well.  Noise was about average for a hotel in this rank.  I was able to sleep without a problem.Hotel is located right next to I-20, easy on, easy off. It is also next door to a large shopping center.  I did not see any big box stores, though.  Shopping center is quite modern, safe and clean.When I come back to this area I would definitely look to staying in this hotel again, but much closer to the front desk for the internet.Two notes: 1) the hotel is applying for a liquor license, in case that makes a difference to you; 2) I left so early that I did not have a chance to try the free breakfast, so I cannot comment on it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r573595570-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>573595570</t>
+  </si>
+  <si>
+    <t>04/15/2018</t>
+  </si>
+  <si>
+    <t>Amy at the desk made the stay special.</t>
+  </si>
+  <si>
+    <t>Amy was the desk clerk when I stayed there on Friday 4-13-18.  She was extremely helpful, friendly, competent and fun, always smiling and took care of my few needs.  Quality Inn is very lucky to have her.  The room was neat and clean and comfortable. I only needed a quick 5 hour nap then back on the road home to a 18 inch snowfall in Wisconsin.I would recommend the Quality Inn here for your stay.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>QIGM2017, General Manager at Quality Inn at Arlington Highlands, responded to this reviewResponded April 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2018</t>
+  </si>
+  <si>
+    <t>Amy was the desk clerk when I stayed there on Friday 4-13-18.  She was extremely helpful, friendly, competent and fun, always smiling and took care of my few needs.  Quality Inn is very lucky to have her.  The room was neat and clean and comfortable. I only needed a quick 5 hour nap then back on the road home to a 18 inch snowfall in Wisconsin.I would recommend the Quality Inn here for your stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r573374711-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>573374711</t>
+  </si>
+  <si>
+    <t>04/14/2018</t>
+  </si>
+  <si>
+    <t>Good overall experience</t>
+  </si>
+  <si>
+    <t>Very good customer service. When the light wasn't working over the sink area, I was upgraded to another room without additional charge. I thought that was exceptional customer service. Thank you so much for generous hospitality.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Very good customer service. When the light wasn't working over the sink area, I was upgraded to another room without additional charge. I thought that was exceptional customer service. Thank you so much for generous hospitality.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r551633866-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>551633866</t>
+  </si>
+  <si>
+    <t>01/04/2018</t>
+  </si>
+  <si>
+    <t>Overnight stay for myself for a Doctor visit.</t>
+  </si>
+  <si>
+    <t>The hotel itself was average, two story detached buildings and no elevators. The staff that I had interaction with weren't very attentive or friendly. the breakfast was so-so, best part was the hot waffles. i was never able to find an ice machine. The absolute worst part was a $20 dollar charge that I found on my credit card statement the following months.After three calls to the hotel I could not get the manager on the phone or to return my call. I was told by the desk clerk the charge was for damaged or missing items. I know for a fact Nothing was damaged or taken by me. I will never stay at this location again! I tried to file a complaint with customer service but they contacted the hotel and they would not refund the charge, I was told it had been too long to file a complaint.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>The hotel itself was average, two story detached buildings and no elevators. The staff that I had interaction with weren't very attentive or friendly. the breakfast was so-so, best part was the hot waffles. i was never able to find an ice machine. The absolute worst part was a $20 dollar charge that I found on my credit card statement the following months.After three calls to the hotel I could not get the manager on the phone or to return my call. I was told by the desk clerk the charge was for damaged or missing items. I know for a fact Nothing was damaged or taken by me. I will never stay at this location again! I tried to file a complaint with customer service but they contacted the hotel and they would not refund the charge, I was told it had been too long to file a complaint.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r548409307-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>548409307</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>Very good value for the money.  No real complaints.  Was comfortable, well maintained, and friendly and helpful staff.  Have stayed here on three separate occasions, experience has been consistent. Location was ideal for our needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Very good value for the money.  No real complaints.  Was comfortable, well maintained, and friendly and helpful staff.  Have stayed here on three separate occasions, experience has been consistent. Location was ideal for our needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r547215627-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>547215627</t>
+  </si>
+  <si>
+    <t>12/14/2017</t>
+  </si>
+  <si>
+    <t>Great Stay!!</t>
+  </si>
+  <si>
+    <t>I was in town for a Cowboys Game at AT&amp;T stadium. This was my first stay at this property. The room was clean and comfy. The staff at front desk was friendly, courteous, and professional. Location was conveinant. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>QIGM2017, General Manager at Quality Inn at Arlington Highlands, responded to this reviewResponded December 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2017</t>
+  </si>
+  <si>
+    <t>I was in town for a Cowboys Game at AT&amp;T stadium. This was my first stay at this property. The room was clean and comfy. The staff at front desk was friendly, courteous, and professional. Location was conveinant. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r526394277-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>526394277</t>
+  </si>
+  <si>
+    <t>09/21/2017</t>
+  </si>
+  <si>
+    <t>Overnight Business</t>
+  </si>
+  <si>
+    <t>The only good thing about this Quality Inn was the breakfast.  Glad that I had made reservations as the place was full.  When we went into the room EVERY LIGHT PLUS THE TV was on.  I had to call the front desk as the smoke alarm was constantly beeping, when she got there she checked the alarm and found that there wasn't a battery in it, so we had no smoke alarm.  The room was on the end but that wasn't a problem, we just weren't comfortable in the room at all.  Would you ask me if I'd recommend this inn my answer would be, NO.MoreShow less</t>
+  </si>
+  <si>
+    <t>QIGM2017, General Manager at Quality Inn at Arlington Highlands, responded to this reviewResponded September 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2017</t>
+  </si>
+  <si>
+    <t>The only good thing about this Quality Inn was the breakfast.  Glad that I had made reservations as the place was full.  When we went into the room EVERY LIGHT PLUS THE TV was on.  I had to call the front desk as the smoke alarm was constantly beeping, when she got there she checked the alarm and found that there wasn't a battery in it, so we had no smoke alarm.  The room was on the end but that wasn't a problem, we just weren't comfortable in the room at all.  Would you ask me if I'd recommend this inn my answer would be, NO.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r526325068-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>526325068</t>
+  </si>
+  <si>
+    <t>Garrison Family Summer vacation</t>
+  </si>
+  <si>
+    <t>We had a great stay at this hotel, the staff was great and handled everything we had a problem with. The only problems I felt bad about is, out of the three( (3) days we were there, the pool was only open the first day and was close the two days after. I also feel the wi-fi to the room was not good, I always had to go to the office for using the wi-fi.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>We had a great stay at this hotel, the staff was great and handled everything we had a problem with. The only problems I felt bad about is, out of the three( (3) days we were there, the pool was only open the first day and was close the two days after. I also feel the wi-fi to the room was not good, I always had to go to the office for using the wi-fi.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r526150730-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>526150730</t>
+  </si>
+  <si>
+    <t>09/20/2017</t>
+  </si>
+  <si>
+    <t>Express Escapade</t>
+  </si>
+  <si>
+    <t>The facilities were the least scenic and the service especially in terms of morning breakfast was quite satisfactory. Aside from all of that. my stay was considered "simply standardized." Nonetheless, I've sincerely enjoyed the stays at this particular hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>The facilities were the least scenic and the service especially in terms of morning breakfast was quite satisfactory. Aside from all of that. my stay was considered "simply standardized." Nonetheless, I've sincerely enjoyed the stays at this particular hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r488051805-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>488051805</t>
+  </si>
+  <si>
+    <t>05/26/2017</t>
+  </si>
+  <si>
+    <t>Nice folks comfortable room</t>
+  </si>
+  <si>
+    <t>We've enjoyed staying at this Quality Inn for 3 years! Great staff and a very good breakfast. Maids are careful and always willing to help out. Each year they remember us and try their best to accommodate all our needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>QIGM2017, General Manager at Quality Inn at Arlington Highlands, responded to this reviewResponded May 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2017</t>
+  </si>
+  <si>
+    <t>We've enjoyed staying at this Quality Inn for 3 years! Great staff and a very good breakfast. Maids are careful and always willing to help out. Each year they remember us and try their best to accommodate all our needs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r487374566-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>487374566</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>Visiting family</t>
+  </si>
+  <si>
+    <t>The trip was great! The breakfast was good and I loved the Texas shaped waffle maker. The room was always clean and the bed was always made when we returned each evening. The staff at the front counter was very helpful and friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>The trip was great! The breakfast was good and I loved the Texas shaped waffle maker. The room was always clean and the bed was always made when we returned each evening. The staff at the front counter was very helpful and friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r485292256-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>485292256</t>
+  </si>
+  <si>
+    <t>05/18/2017</t>
+  </si>
+  <si>
+    <t>Stayed here multiple times</t>
+  </si>
+  <si>
+    <t>We have stayed at Quality Inn at Arlington Highlands multiple times over the pastseveral years. It is easy to access from the 20 and the location has good for access to nearby eateries. There are lots of sit down and fast food restaurants very close by. Our  rooms have always been clean and cozy. We have always felt safe here. The beds have always slept well. Also it is dog friendly which is very Important to us b/c we don’t travel without our fur-kid. The staff there has always been friendly and professional.This is always our hotel of choice when we travel back east. They have an awesome breakfast with a wide variety to suit most tastes. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>QIGM2017, General Manager at Quality Inn at Arlington Highlands, responded to this reviewResponded May 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2017</t>
+  </si>
+  <si>
+    <t>We have stayed at Quality Inn at Arlington Highlands multiple times over the pastseveral years. It is easy to access from the 20 and the location has good for access to nearby eateries. There are lots of sit down and fast food restaurants very close by. Our  rooms have always been clean and cozy. We have always felt safe here. The beds have always slept well. Also it is dog friendly which is very Important to us b/c we don’t travel without our fur-kid. The staff there has always been friendly and professional.This is always our hotel of choice when we travel back east. They have an awesome breakfast with a wide variety to suit most tastes. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r485152009-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>485152009</t>
+  </si>
+  <si>
+    <t>05/17/2017</t>
+  </si>
+  <si>
+    <t>Excellent Staff --rooms ready for update</t>
+  </si>
+  <si>
+    <t>I have stayed here several times and while the Rooms need an update, and I understand it is in the Process Currently, the staff is always friendly and polite. I would stay here each and every time I am in the DFW area, MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed here several times and while the Rooms need an update, and I understand it is in the Process Currently, the staff is always friendly and polite. I would stay here each and every time I am in the DFW area, More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r485138873-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>485138873</t>
+  </si>
+  <si>
+    <t>Weary traveler</t>
+  </si>
+  <si>
+    <t>Starkville, Ms to Ft Stockton TexasFrom Miss to Dallas there seemed to be solid road repair, creating slowdowns and congestion I had hoped to get further than Arlington but better safe than sorryFront desk staff was superb and I will certainly stay there on my next occasion MoreShow less</t>
+  </si>
+  <si>
+    <t>Starkville, Ms to Ft Stockton TexasFrom Miss to Dallas there seemed to be solid road repair, creating slowdowns and congestion I had hoped to get further than Arlington but better safe than sorryFront desk staff was superb and I will certainly stay there on my next occasion More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r485134319-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>485134319</t>
+  </si>
+  <si>
+    <t>Frequent customer</t>
+  </si>
+  <si>
+    <t>I frequently stay at your hotel. I only had 1 bad experience and the manager was very apologetic.  It is closer to all I need. It would be nice if I rec. a complementary room for the amount of times I have stayed there. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>I frequently stay at your hotel. I only had 1 bad experience and the manager was very apologetic.  It is closer to all I need. It would be nice if I rec. a complementary room for the amount of times I have stayed there. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r458715621-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>458715621</t>
+  </si>
+  <si>
+    <t>02/11/2017</t>
+  </si>
+  <si>
+    <t>Front Desk Service</t>
+  </si>
+  <si>
+    <t>Wonderful staff. All friendly and helpful. Jamie at front desk was professional and helpful made us feel right at home very, presentable agent . The breakfast food was good with decent choices. Rooms could use a bit of modernization, location is great with many restaurants and shopping storesMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>ML2014, General Manager at Quality Inn at Arlington Highlands, responded to this reviewResponded March 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2017</t>
+  </si>
+  <si>
+    <t>Wonderful staff. All friendly and helpful. Jamie at front desk was professional and helpful made us feel right at home very, presentable agent . The breakfast food was good with decent choices. Rooms could use a bit of modernization, location is great with many restaurants and shopping storesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r457473077-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>457473077</t>
+  </si>
+  <si>
+    <t>02/05/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Door knob &amp; lock assembly needed to be replaced </t>
+  </si>
+  <si>
+    <t>We stayed in room 202.  It took multiple tries to get the door open on arrival.  Same issue when leaving the room.  The whole assembly was coming apart.  After being gone most of the day and evening, our door was open.  I notified the clerk at the front desk, he was very attentive to the issue, but of course the door knob could not be replaced at that hour.  Hopefully management will replace the door knob &amp; lock before booking anyone else in that room.  It is a fire and safety hazard, I could not open the door at all, my husband had to use a lot of force to get it open.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed in room 202.  It took multiple tries to get the door open on arrival.  Same issue when leaving the room.  The whole assembly was coming apart.  After being gone most of the day and evening, our door was open.  I notified the clerk at the front desk, he was very attentive to the issue, but of course the door knob could not be replaced at that hour.  Hopefully management will replace the door knob &amp; lock before booking anyone else in that room.  It is a fire and safety hazard, I could not open the door at all, my husband had to use a lot of force to get it open.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r449347325-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>449347325</t>
+  </si>
+  <si>
+    <t>01/04/2017</t>
+  </si>
+  <si>
+    <t>Cheap Rooms</t>
+  </si>
+  <si>
+    <t>If you want a cheap room that is near a lot of restaurants, this is the hotel for you.  If you want a nice, quiet room with a comfortable bed, this is not the hotel for you.  I will say that the young man checking us in was very polite and knowledgable about the area.  He also was very accommodating when we requested to change rooms because of a horrible odor.  He also was the same one who came to bring us a plunger when our toilet would not flush.  The plunger barely solved the problem and our toilet took 2 minutes to flush each time.  The beds were hard and uncomfortable and the shower had barely any water pressure.  The light in the bathroom flickered and my husband sometimes had to tap it to even get it to turn on!  Thank goodness he was there because I wouldn't have been able to reach it!  The walls are paper thin and we could hear our neighbor's television for most of our stay. We also had a 2 night stay and our room was not cleaned at all during the second day!Although all the staff we encountered were wonderful, I would definitely spend a little more money to stay at a nicer quality hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>If you want a cheap room that is near a lot of restaurants, this is the hotel for you.  If you want a nice, quiet room with a comfortable bed, this is not the hotel for you.  I will say that the young man checking us in was very polite and knowledgable about the area.  He also was very accommodating when we requested to change rooms because of a horrible odor.  He also was the same one who came to bring us a plunger when our toilet would not flush.  The plunger barely solved the problem and our toilet took 2 minutes to flush each time.  The beds were hard and uncomfortable and the shower had barely any water pressure.  The light in the bathroom flickered and my husband sometimes had to tap it to even get it to turn on!  Thank goodness he was there because I wouldn't have been able to reach it!  The walls are paper thin and we could hear our neighbor's television for most of our stay. We also had a 2 night stay and our room was not cleaned at all during the second day!Although all the staff we encountered were wonderful, I would definitely spend a little more money to stay at a nicer quality hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r433347771-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>433347771</t>
+  </si>
+  <si>
+    <t>10/31/2016</t>
+  </si>
+  <si>
+    <t>Big rooms but...</t>
+  </si>
+  <si>
+    <t>I was shuttled out here in the middle of the night as a result of a flight delay and missed connection. My experience of this hotel wasn't at all pretty, it felt like the hotel was located in the middle of no where and stuck in a 1970s time warp. The room was extremely large with two double beds and a sitting area, but that's about all it had going for it. It felt grotty, bathroom was old and water pressure was interesting. Room was musty and smelt like it had been previously occupied by a heavy smoker as the smell of smoke lingered. I was greaful my stay was very brief.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Ken A, Manager at Quality Inn at Arlington Highlands, responded to this reviewResponded November 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2016</t>
+  </si>
+  <si>
+    <t>I was shuttled out here in the middle of the night as a result of a flight delay and missed connection. My experience of this hotel wasn't at all pretty, it felt like the hotel was located in the middle of no where and stuck in a 1970s time warp. The room was extremely large with two double beds and a sitting area, but that's about all it had going for it. It felt grotty, bathroom was old and water pressure was interesting. Room was musty and smelt like it had been previously occupied by a heavy smoker as the smell of smoke lingered. I was greaful my stay was very brief.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r427180473-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>427180473</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>Ugh</t>
+  </si>
+  <si>
+    <t>Cons. No water pressure. Spotty cell reception in the room. Stained and torn shower curtain. Carpet was very old and felt dirty. Pros.  Location. Cheap. Sheets were okay. Wish I had stayed somewhere else. MoreShow less</t>
+  </si>
+  <si>
+    <t>Cons. No water pressure. Spotty cell reception in the room. Stained and torn shower curtain. Carpet was very old and felt dirty. Pros.  Location. Cheap. Sheets were okay. Wish I had stayed somewhere else. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r425374757-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>425374757</t>
+  </si>
+  <si>
+    <t>10/05/2016</t>
+  </si>
+  <si>
+    <t>An improvement over my previous visit</t>
+  </si>
+  <si>
+    <t>The main improvement was the replacement of the snooty young woman desk clerk I dealt with last year.  My room was clean and came equipped with a luggage rack.  Hand towels were back on the rack rather than just wash clothes, and there no reefer truck left running all night, unlike last time.  Location is very convenient just off I20, easy on and off but without any road noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>The main improvement was the replacement of the snooty young woman desk clerk I dealt with last year.  My room was clean and came equipped with a luggage rack.  Hand towels were back on the rack rather than just wash clothes, and there no reefer truck left running all night, unlike last time.  Location is very convenient just off I20, easy on and off but without any road noise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r418402361-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>418402361</t>
+  </si>
+  <si>
+    <t>09/14/2016</t>
+  </si>
+  <si>
+    <t>Enjoyed Our Stay</t>
+  </si>
+  <si>
+    <t>We stayed at the Quality Inn at Arlington Highlands on our way to square dances in Texas.  Everything was great.  We encountered no problems while there.  Our room was clean and the breakfasts were adequate  to get us going in the mornings.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>ML2014, General Manager at Quality Inn at Arlington Highlands, responded to this reviewResponded September 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 15, 2016</t>
+  </si>
+  <si>
+    <t>We stayed at the Quality Inn at Arlington Highlands on our way to square dances in Texas.  Everything was great.  We encountered no problems while there.  Our room was clean and the breakfasts were adequate  to get us going in the mornings.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r417558652-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>417558652</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>I had the opportunity to stay the property recently. I notified "Trent" the morning of my check out that my vehicle had been broken into. I asked him to inform the Hotel General Manager to contact me and he stated there was nothing that could be done because it was private property. I called the next day to follow up with the General Manager Shannon and he told me she was not on property and he hung the phone up in my face. I am questioning this hotels professionalism and if "Trent" had something to do with the break in to my vehicle. There was nothing taken out of my vehicle because I left no merchandise visible. Before someone speaks on behalf of the General Manager they need to give the manager an opportunity to speak for themselves. Truly unhappy with this hotel and will NEVER stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had the opportunity to stay the property recently. I notified "Trent" the morning of my check out that my vehicle had been broken into. I asked him to inform the Hotel General Manager to contact me and he stated there was nothing that could be done because it was private property. I called the next day to follow up with the General Manager Shannon and he told me she was not on property and he hung the phone up in my face. I am questioning this hotels professionalism and if "Trent" had something to do with the break in to my vehicle. There was nothing taken out of my vehicle because I left no merchandise visible. Before someone speaks on behalf of the General Manager they need to give the manager an opportunity to speak for themselves. Truly unhappy with this hotel and will NEVER stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r415811059-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>415811059</t>
+  </si>
+  <si>
+    <t>09/07/2016</t>
+  </si>
+  <si>
+    <t>My stay</t>
+  </si>
+  <si>
+    <t>The staff was wonderful.  They went out of their way to make sure everything was fine. If there was any problems with anything they tried to make it right.  This is the second time I have stayed there and the service was great both times.MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff was wonderful.  They went out of their way to make sure everything was fine. If there was any problems with anything they tried to make it right.  This is the second time I have stayed there and the service was great both times.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r397023173-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>397023173</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What a Location!</t>
+  </si>
+  <si>
+    <t>Came here for a conference at ATT Stadium which was easily accessible from the hotel. The front desk was very friendly and even printed some documents for me. They were able to adjust receipts without any hassle. The room was pretty standard, but you can't find a better location in Arlington if your looking for access to dining and shopping. They also have free continental breakfast if you don't feel like leaving in the morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>ML2014, General Manager at Quality Inn at Arlington Highlands, responded to this reviewResponded August 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2016</t>
+  </si>
+  <si>
+    <t>Came here for a conference at ATT Stadium which was easily accessible from the hotel. The front desk was very friendly and even printed some documents for me. They were able to adjust receipts without any hassle. The room was pretty standard, but you can't find a better location in Arlington if your looking for access to dining and shopping. They also have free continental breakfast if you don't feel like leaving in the morning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r383304179-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>383304179</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t>Very outdated</t>
+  </si>
+  <si>
+    <t>The location is great, tons of of restaurants, shops, but the hotel is very outdated. We were in town for a funeral. We stayed 5 nights and our room was cleaned only once. The grounds itself is not maintained. The landscaping is not well kept as a matter fact, grass looks a mess. Cigarette butts everywhere, not swept. My husband and I was so surprised at the condition of this facility because it is in a very nice location. After one night stay we lnquired at other hotels in the area but unfortunately they were all booked. However, there was a young white male that worked at the front desk that was very friendly, it his friendly service is the only nice thing I can say about this place. They say you pay for what you get. Personally, this hotel is overpriced based on the overall facilities. Please re-model in the near future and in the interim, hire a landscaper, a maintenance crew, and install pop and ice vending machines. Would not stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>ML2014, General Manager at Quality Inn at Arlington Highlands, responded to this reviewResponded July 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2016</t>
+  </si>
+  <si>
+    <t>The location is great, tons of of restaurants, shops, but the hotel is very outdated. We were in town for a funeral. We stayed 5 nights and our room was cleaned only once. The grounds itself is not maintained. The landscaping is not well kept as a matter fact, grass looks a mess. Cigarette butts everywhere, not swept. My husband and I was so surprised at the condition of this facility because it is in a very nice location. After one night stay we lnquired at other hotels in the area but unfortunately they were all booked. However, there was a young white male that worked at the front desk that was very friendly, it his friendly service is the only nice thing I can say about this place. They say you pay for what you get. Personally, this hotel is overpriced based on the overall facilities. Please re-model in the near future and in the interim, hire a landscaper, a maintenance crew, and install pop and ice vending machines. Would not stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r382935205-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>382935205</t>
+  </si>
+  <si>
+    <t>06/15/2016</t>
+  </si>
+  <si>
+    <t>Great visit with family!</t>
+  </si>
+  <si>
+    <t>The location is close to our family and is an easy to commute to our family's home. Reasonable rate. There were not enough towels in room. No place to put suitcase except floor.The breakfast leaves a lot to be desired! Lots of room for improvement re: the breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>The location is close to our family and is an easy to commute to our family's home. Reasonable rate. There were not enough towels in room. No place to put suitcase except floor.The breakfast leaves a lot to be desired! Lots of room for improvement re: the breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r365654045-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>365654045</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>Dog friendly nice hotel</t>
+  </si>
+  <si>
+    <t>I booked this hotel as I was travelling with my dog. I had a comfortable room with a descent breakfast. The outdoor pool had a nasty film on the water. Room was quiet and had a microwave and refrigerator.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>I booked this hotel as I was travelling with my dog. I had a comfortable room with a descent breakfast. The outdoor pool had a nasty film on the water. Room was quiet and had a microwave and refrigerator.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r362809639-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>362809639</t>
+  </si>
+  <si>
+    <t>04/09/2016</t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>When you stay at a Quality Inn off a highway in Texas at this kind of room rate you pretty much get what you pay for.
+My expectations were low and as such I didn't feel disappointed or "ripped off" if you're expecting great service, "Disney esque" customer service from the Desk staff and state of the art room amenities and soft plush towels then maybe you should expand your budget.
+A friend and I had booked this hotel because we were in town for WrestleMania weekend and it's fairly conveniently placed to get to Dallas and ATT Stadium ( although Dallas traffic Is always terrible so there is never a good time to get into Dallas ) it's also cheap and we weren't planning on spending much time in the room..it really was a place to rest our heads and that's exactly what it was.
+Check-in was easy and parking was decent for the amount of rooms they have. We were on the second floor and the room was clean but certainly dated with some of the thinnest towels I've seen in a hotel in quite some time. 
+Everything worked though, TV was good with easy access to Cable and the Heat and AC unites worked as expected.
+Again, if I had paid more for this room then I would be critical and I'm not going to give it glowing reviews. It's average rating fits in with a distinctly...When you stay at a Quality Inn off a highway in Texas at this kind of room rate you pretty much get what you pay for.My expectations were low and as such I didn't feel disappointed or "ripped off" if you're expecting great service, "Disney esque" customer service from the Desk staff and state of the art room amenities and soft plush towels then maybe you should expand your budget.A friend and I had booked this hotel because we were in town for WrestleMania weekend and it's fairly conveniently placed to get to Dallas and ATT Stadium ( although Dallas traffic Is always terrible so there is never a good time to get into Dallas ) it's also cheap and we weren't planning on spending much time in the room..it really was a place to rest our heads and that's exactly what it was.Check-in was easy and parking was decent for the amount of rooms they have. We were on the second floor and the room was clean but certainly dated with some of the thinnest towels I've seen in a hotel in quite some time. Everything worked though, TV was good with easy access to Cable and the Heat and AC unites worked as expected.Again, if I had paid more for this room then I would be critical and I'm not going to give it glowing reviews. It's average rating fits in with a distinctly average place to stay. If you want more...then pay more !MoreShow less</t>
+  </si>
+  <si>
+    <t>When you stay at a Quality Inn off a highway in Texas at this kind of room rate you pretty much get what you pay for.
+My expectations were low and as such I didn't feel disappointed or "ripped off" if you're expecting great service, "Disney esque" customer service from the Desk staff and state of the art room amenities and soft plush towels then maybe you should expand your budget.
+A friend and I had booked this hotel because we were in town for WrestleMania weekend and it's fairly conveniently placed to get to Dallas and ATT Stadium ( although Dallas traffic Is always terrible so there is never a good time to get into Dallas ) it's also cheap and we weren't planning on spending much time in the room..it really was a place to rest our heads and that's exactly what it was.
+Check-in was easy and parking was decent for the amount of rooms they have. We were on the second floor and the room was clean but certainly dated with some of the thinnest towels I've seen in a hotel in quite some time. 
+Everything worked though, TV was good with easy access to Cable and the Heat and AC unites worked as expected.
+Again, if I had paid more for this room then I would be critical and I'm not going to give it glowing reviews. It's average rating fits in with a distinctly...When you stay at a Quality Inn off a highway in Texas at this kind of room rate you pretty much get what you pay for.My expectations were low and as such I didn't feel disappointed or "ripped off" if you're expecting great service, "Disney esque" customer service from the Desk staff and state of the art room amenities and soft plush towels then maybe you should expand your budget.A friend and I had booked this hotel because we were in town for WrestleMania weekend and it's fairly conveniently placed to get to Dallas and ATT Stadium ( although Dallas traffic Is always terrible so there is never a good time to get into Dallas ) it's also cheap and we weren't planning on spending much time in the room..it really was a place to rest our heads and that's exactly what it was.Check-in was easy and parking was decent for the amount of rooms they have. We were on the second floor and the room was clean but certainly dated with some of the thinnest towels I've seen in a hotel in quite some time. Everything worked though, TV was good with easy access to Cable and the Heat and AC unites worked as expected.Again, if I had paid more for this room then I would be critical and I'm not going to give it glowing reviews. It's average rating fits in with a distinctly average place to stay. If you want more...then pay more !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r362030833-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>362030833</t>
+  </si>
+  <si>
+    <t>04/06/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get what you pay for. </t>
+  </si>
+  <si>
+    <t>I personally liked this hotel. Yeah it's dated but it's a decent price. Breakfast is incredible and its bang in the middle of the business park. I would stop here again. But I could see why people wouldn't. I wouldn't swim in the pool though. That's for sure. That looked pretty grim. MoreShow less</t>
+  </si>
+  <si>
+    <t>I personally liked this hotel. Yeah it's dated but it's a decent price. Breakfast is incredible and its bang in the middle of the business park. I would stop here again. But I could see why people wouldn't. I wouldn't swim in the pool though. That's for sure. That looked pretty grim. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r340331801-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>340331801</t>
+  </si>
+  <si>
+    <t>01/15/2016</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>I was here this past week for work. Rooms were clean, free breakfast was a nice feature. Staff is Excellent!! I had no issues with my room and the manager seemed genuinely interested about my opinion of my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>I was here this past week for work. Rooms were clean, free breakfast was a nice feature. Staff is Excellent!! I had no issues with my room and the manager seemed genuinely interested about my opinion of my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r336952623-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>336952623</t>
+  </si>
+  <si>
+    <t>01/03/2016</t>
+  </si>
+  <si>
+    <t>Best Football Weekend Ever!</t>
+  </si>
+  <si>
+    <t>The check in was fast and friendly. The manager called down to check to see if we were satisfied with the our stay. The room was clean, and Danny made breakfast a great experience. I will definitely be back : )MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>ML2014, Manager at Quality Inn at Arlington Highlands, responded to this reviewResponded January 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2016</t>
+  </si>
+  <si>
+    <t>The check in was fast and friendly. The manager called down to check to see if we were satisfied with the our stay. The room was clean, and Danny made breakfast a great experience. I will definitely be back : )More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r332077992-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>332077992</t>
+  </si>
+  <si>
+    <t>12/11/2015</t>
+  </si>
+  <si>
+    <t>Not a pleasant stay</t>
+  </si>
+  <si>
+    <t>My stay there wasn't very pleasant. First, the room was not very clean, we even found french fries laying behind our night stand lamp. There were no face towels, just wash rags, the bathroom exhaustion was not working, we had no comforter on our bed and the only two pillows that were available were the size of sofa pillows.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>ML2014, Manager at Quality Inn at Arlington Highlands, responded to this reviewResponded December 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2015</t>
+  </si>
+  <si>
+    <t>My stay there wasn't very pleasant. First, the room was not very clean, we even found french fries laying behind our night stand lamp. There were no face towels, just wash rags, the bathroom exhaustion was not working, we had no comforter on our bed and the only two pillows that were available were the size of sofa pillows.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r312475125-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>312475125</t>
+  </si>
+  <si>
+    <t>09/21/2015</t>
+  </si>
+  <si>
+    <t>Change of opinion</t>
+  </si>
+  <si>
+    <t>Management must have changed.  1.  Motel no longer provides suitcase rests.  2.  Hand towels at basin have been replaced by extra wash cloths.  3.  In spite of my telling the desk clerk about a missing coffee carafe, it was not replaced during my stay.  4.  At check-in the desk clerk told me the smoking room I'd reserved and paid in advance was not available.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Management must have changed.  1.  Motel no longer provides suitcase rests.  2.  Hand towels at basin have been replaced by extra wash cloths.  3.  In spite of my telling the desk clerk about a missing coffee carafe, it was not replaced during my stay.  4.  At check-in the desk clerk told me the smoking room I'd reserved and paid in advance was not available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r290561366-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>290561366</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>Center of an exciting location!</t>
+  </si>
+  <si>
+    <t>I stayed at this property June 28-July 4 2015.  Right off I-20.  Room 150, poolside.  Check in was effortless, a gentleman named Rydiah was very courteous.  Room was a bit dated, but sufficient for my stay.  This property ranks very, very, high for me as far as proximity to shopping and restaurants, I mean crawling distance and variety!  I had an issue with my door key and I think Tammy (PM front desk) did all she could do to help up until the problem was solved.  Decent breakfast each AM.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>I stayed at this property June 28-July 4 2015.  Right off I-20.  Room 150, poolside.  Check in was effortless, a gentleman named Rydiah was very courteous.  Room was a bit dated, but sufficient for my stay.  This property ranks very, very, high for me as far as proximity to shopping and restaurants, I mean crawling distance and variety!  I had an issue with my door key and I think Tammy (PM front desk) did all she could do to help up until the problem was solved.  Decent breakfast each AM.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r278630391-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>278630391</t>
+  </si>
+  <si>
+    <t>06/07/2015</t>
+  </si>
+  <si>
+    <t>enjoyable stay</t>
+  </si>
+  <si>
+    <t>my daughter and i stayed at this hotel last night. we were attending the rolling stones concert there. room was clean and comfortable. unforunatley i dont remember the desk clerks name. he was very friendly and helpful. the hotel is not a new hotel, but clean,and beds were comfortable. the only thing i could complain about was all the ice machines were broken,and soda machine wasnt working at this time. Have a nice pool. we felt safe and secure even coming in very late after concert. would stay there again. they did have a complimentary breakfast, but didnt try it. there are many places to eat nearby, and shopping.MoreShow less</t>
+  </si>
+  <si>
+    <t>my daughter and i stayed at this hotel last night. we were attending the rolling stones concert there. room was clean and comfortable. unforunatley i dont remember the desk clerks name. he was very friendly and helpful. the hotel is not a new hotel, but clean,and beds were comfortable. the only thing i could complain about was all the ice machines were broken,and soda machine wasnt working at this time. Have a nice pool. we felt safe and secure even coming in very late after concert. would stay there again. they did have a complimentary breakfast, but didnt try it. there are many places to eat nearby, and shopping.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r260636795-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>260636795</t>
+  </si>
+  <si>
+    <t>03/19/2015</t>
+  </si>
+  <si>
+    <t>Excellent Extended Stay</t>
+  </si>
+  <si>
+    <t>This property has the nicest hotel staff. We appreciate the quality breakfast, good parking, and location to restaurants and shopping. We were here for business but because we had to stay through the weekend it was terrific to be within walking distance of excellent food and entertainment..MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Shannon S, Director of Sales at Quality Inn at Arlington Highlands, responded to this reviewResponded March 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2015</t>
+  </si>
+  <si>
+    <t>This property has the nicest hotel staff. We appreciate the quality breakfast, good parking, and location to restaurants and shopping. We were here for business but because we had to stay through the weekend it was terrific to be within walking distance of excellent food and entertainment..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r255284403-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>255284403</t>
+  </si>
+  <si>
+    <t>02/19/2015</t>
+  </si>
+  <si>
+    <t>very nice older place</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay very nice older property we will be going back . Bed was comfy nice 24 hour coffee bar nice breakfast very friendly front desk staff management was very friendly . Was a great stay thank you</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r253366845-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>253366845</t>
+  </si>
+  <si>
+    <t>02/09/2015</t>
+  </si>
+  <si>
+    <t>Great if You Want to be Close to Restaurant &amp; Shopping!</t>
+  </si>
+  <si>
+    <t>The hotel offers a 24 hour coffee bar and also fruit infused water in the lobby. Our room also had a single serve coffee maker, a microwave and a small fridge.The wi-fi was pretty sketchy, but we were in the back so it was expected. We tried to use the laundry room our first night, but nobody at the front desk knew if there new machines had been installed or how much they were...it was kinda cold so we didn't bother with walking around to find out. It wasn't a huge deal though.This hotel is located within spitting distance of all kinds of restaurant, shopping and activities and that was helpful because we didn't need to go far for anything and could walk.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kevin M, Director of Sales at Quality Inn at Arlington Highlands, responded to this reviewResponded February 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2015</t>
+  </si>
+  <si>
+    <t>The hotel offers a 24 hour coffee bar and also fruit infused water in the lobby. Our room also had a single serve coffee maker, a microwave and a small fridge.The wi-fi was pretty sketchy, but we were in the back so it was expected. We tried to use the laundry room our first night, but nobody at the front desk knew if there new machines had been installed or how much they were...it was kinda cold so we didn't bother with walking around to find out. It wasn't a huge deal though.This hotel is located within spitting distance of all kinds of restaurant, shopping and activities and that was helpful because we didn't need to go far for anything and could walk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r240979989-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>240979989</t>
+  </si>
+  <si>
+    <t>11/22/2014</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>Older motel well maintained and very clean.  Two great restaurants right there.  Fair internet and plenty of tv stations.  Coffee and Microfridge with iron in room.  Good nights sleep on a comfortable bed.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r240133781-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>240133781</t>
+  </si>
+  <si>
+    <t>11/16/2014</t>
+  </si>
+  <si>
+    <t>Really Surprised!!!</t>
+  </si>
+  <si>
+    <t>My wife and  I stayed here this past weekend visiting some friends. We came in around 10.30 Friday night and at first we were both very skeptical but from the time we walked in, the place was really nice for a Quality Inn. The guy checking us in was really nice, the room was really clean to our surprise. Breakfast was not bad but it was really crowded with kids the next morning.There is so much to eat in the area that we really didn't care much.The girl who gave the receipt this morning was also very pleasant. Overall, we will return to this place in January when we come back to Arlington. Hope we can get the same great rate!MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and  I stayed here this past weekend visiting some friends. We came in around 10.30 Friday night and at first we were both very skeptical but from the time we walked in, the place was really nice for a Quality Inn. The guy checking us in was really nice, the room was really clean to our surprise. Breakfast was not bad but it was really crowded with kids the next morning.There is so much to eat in the area that we really didn't care much.The girl who gave the receipt this morning was also very pleasant. Overall, we will return to this place in January when we come back to Arlington. Hope we can get the same great rate!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r233824969-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>233824969</t>
+  </si>
+  <si>
+    <t>10/11/2014</t>
+  </si>
+  <si>
+    <t>A Quality Surprise</t>
+  </si>
+  <si>
+    <t>I will admit that I booked this room through a third-party booking service and, therefore, did not pay the full price listed on the Quality Inn site.That being said, I was well received when I arrived a bit early in the afternoon. I found the room clean, although it smelled of disinfectant (at least I knew it had been cleaned) and the smell went away after a few hours. All of the appliances worked and the water was extremely hot. The tv had an abundance of channels and the mattress was very comfortable, even though I have a bad back. The only complaint about the room was the noise from the air conditioner compressor, which I reported, but the unit did keep the room as cold as I wanted. A hot breakfast was provided in the morning and was plentiful, although the warming trays did not keep it very hot, but the waffle machine did work very well and was simple to use. The pool, which I used after my arrival, was clean and well maintained. I have read several negative reviews of this property and it is older, but freshly painted and my room appeared to have new carpeting. I would stay here again for a reasonable rate as the location is convenient to all kinds of attractions and shopping.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>I will admit that I booked this room through a third-party booking service and, therefore, did not pay the full price listed on the Quality Inn site.That being said, I was well received when I arrived a bit early in the afternoon. I found the room clean, although it smelled of disinfectant (at least I knew it had been cleaned) and the smell went away after a few hours. All of the appliances worked and the water was extremely hot. The tv had an abundance of channels and the mattress was very comfortable, even though I have a bad back. The only complaint about the room was the noise from the air conditioner compressor, which I reported, but the unit did keep the room as cold as I wanted. A hot breakfast was provided in the morning and was plentiful, although the warming trays did not keep it very hot, but the waffle machine did work very well and was simple to use. The pool, which I used after my arrival, was clean and well maintained. I have read several negative reviews of this property and it is older, but freshly painted and my room appeared to have new carpeting. I would stay here again for a reasonable rate as the location is convenient to all kinds of attractions and shopping.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r219387081-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>219387081</t>
+  </si>
+  <si>
+    <t>08/04/2014</t>
+  </si>
+  <si>
+    <t>Clean room</t>
+  </si>
+  <si>
+    <t>Decided on a spur of the moment to go to Arlington. Room was clean plenty of food choices. Big complaint seriously time to update the bathroom area. Grout was a little nasty. An the refrigerator was practically stuck to the floor because the microwave was so heavy. Nice room for the cost. Did not check out the pool or breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Kevin M, General Manager at Quality Inn at Arlington Highlands, responded to this reviewResponded August 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2014</t>
+  </si>
+  <si>
+    <t>Decided on a spur of the moment to go to Arlington. Room was clean plenty of food choices. Big complaint seriously time to update the bathroom area. Grout was a little nasty. An the refrigerator was practically stuck to the floor because the microwave was so heavy. Nice room for the cost. Did not check out the pool or breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r213672538-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>213672538</t>
+  </si>
+  <si>
+    <t>07/04/2014</t>
+  </si>
+  <si>
+    <t>Economical stay at a great location</t>
+  </si>
+  <si>
+    <t>I stayed here four nights.  This is really a motel that has been refurbed into a Quality Inn with all exterior facing rooms.  The rooms were fine, with enough room for a desk, king bed, and chair/ottoman.  I wasn't expecting the small fridge &amp; microwave in my room, they were added bonuses.  The carpet and furnishings could use an upgrade, but I had no complaints, especially given the price I was paying.  The free breakfast was little more than a continental breakfast, although they did have a waffle making station, but I stuck to cereals and pre-packaged items.  The biggest thing this hotel has going for it is its location.  It is very conveniently located next to I-20 and the hospital, as well as the Arlington Highlands area next door with dozens of restaurants, shopping and entertainment locations, many of which were within walking distance.  Overall, it was a good stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>I stayed here four nights.  This is really a motel that has been refurbed into a Quality Inn with all exterior facing rooms.  The rooms were fine, with enough room for a desk, king bed, and chair/ottoman.  I wasn't expecting the small fridge &amp; microwave in my room, they were added bonuses.  The carpet and furnishings could use an upgrade, but I had no complaints, especially given the price I was paying.  The free breakfast was little more than a continental breakfast, although they did have a waffle making station, but I stuck to cereals and pre-packaged items.  The biggest thing this hotel has going for it is its location.  It is very conveniently located next to I-20 and the hospital, as well as the Arlington Highlands area next door with dozens of restaurants, shopping and entertainment locations, many of which were within walking distance.  Overall, it was a good stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r212223082-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>212223082</t>
+  </si>
+  <si>
+    <t>06/26/2014</t>
+  </si>
+  <si>
+    <t>Motel Quality at Hotel Price</t>
+  </si>
+  <si>
+    <t>Our AC went out at home and couldn't be fixed until Monday, so my husband &amp; I needed a room for a couple of nights. All of the hotels in Mansfield were booked due to soccer and softball tournaments. We decided on this "hotel" because of the location and I had a discount code (that the guy at the front desk would not allow me to use for some reason). It was not what we expected for the Arlington Highlands area and is more of a motel than a hotel and it is WAY overpriced. The bed was as hard as a table - we would have been better off sleeping on the floor. We were going to stay 2 nights, but decided against the 2nd night after our 1st night and reserved another room  in Mansfield at a real hotel (which was $40 less than here). The girl at the front desk the following morning was really rude - probably because we interrupted her conversation with the girl in the grey shirt (housekeeping perhaps?) on the guest side of the desk. Not my first choice and won't be my last choice either. Should anything happen like this again, we will choose my ex-husbands house over this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Kevin M, Manager at Quality Inn at Arlington Highlands, responded to this reviewResponded June 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2014</t>
+  </si>
+  <si>
+    <t>Our AC went out at home and couldn't be fixed until Monday, so my husband &amp; I needed a room for a couple of nights. All of the hotels in Mansfield were booked due to soccer and softball tournaments. We decided on this "hotel" because of the location and I had a discount code (that the guy at the front desk would not allow me to use for some reason). It was not what we expected for the Arlington Highlands area and is more of a motel than a hotel and it is WAY overpriced. The bed was as hard as a table - we would have been better off sleeping on the floor. We were going to stay 2 nights, but decided against the 2nd night after our 1st night and reserved another room  in Mansfield at a real hotel (which was $40 less than here). The girl at the front desk the following morning was really rude - probably because we interrupted her conversation with the girl in the grey shirt (housekeeping perhaps?) on the guest side of the desk. Not my first choice and won't be my last choice either. Should anything happen like this again, we will choose my ex-husbands house over this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r197028815-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>197028815</t>
+  </si>
+  <si>
+    <t>03/11/2014</t>
+  </si>
+  <si>
+    <t>Good hotel in great location</t>
+  </si>
+  <si>
+    <t>We stayed here last September for three nights. The hotel is in an excellent location between two Malls.  The Parks Mall for shopping but the Arlington Highlands Mall that the hotel is in was great for shopping and an excellent night life.  Amazing restaurants and bars within walking distance.  The place to be at night and right on the hotel’s doorstep!!  We had the best nights out here throughout our month’s tour.Whilst we were staying the hotel was being refurbished and we had a lovely refurbished room.  However, there was no safe in the room despite it saying there was one on the hotel’s website.  The air conditioning in the room was nowhere near cold enough!The hot breakfast was good with a big choice and 24 hour coffee.  Outside swimming pool and area needed a bit of attention.  It was situated near to the non refurbished rooms so maybe this will be cleaned up in time.  We had a good time in Arlington. The hotel was not too far away from the Texas Rangers Stadium and Six Flags over Texas.We were very disappointed with Fort Worth Stock Yards. Ok for a quick visit - extremely tacky.  Instead go to the Texas Civil War Museum for a very interesting perspective on the Civil War!  We would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Kevin M, General Manager at Quality Inn at Arlington Highlands, responded to this reviewResponded March 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here last September for three nights. The hotel is in an excellent location between two Malls.  The Parks Mall for shopping but the Arlington Highlands Mall that the hotel is in was great for shopping and an excellent night life.  Amazing restaurants and bars within walking distance.  The place to be at night and right on the hotel’s doorstep!!  We had the best nights out here throughout our month’s tour.Whilst we were staying the hotel was being refurbished and we had a lovely refurbished room.  However, there was no safe in the room despite it saying there was one on the hotel’s website.  The air conditioning in the room was nowhere near cold enough!The hot breakfast was good with a big choice and 24 hour coffee.  Outside swimming pool and area needed a bit of attention.  It was situated near to the non refurbished rooms so maybe this will be cleaned up in time.  We had a good time in Arlington. The hotel was not too far away from the Texas Rangers Stadium and Six Flags over Texas.We were very disappointed with Fort Worth Stock Yards. Ok for a quick visit - extremely tacky.  Instead go to the Texas Civil War Museum for a very interesting perspective on the Civil War!  We would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r196069917-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>196069917</t>
+  </si>
+  <si>
+    <t>03/03/2014</t>
+  </si>
+  <si>
+    <t>Waited 5 hours to get room ready.</t>
+  </si>
+  <si>
+    <t>I made reservation in January for March stay. Arrived at 4:00pm, check out was at 11:00am, room was ready at 9:00pm, gave front desk cell number twice to let us know when room was ready, NEVER got a call. Then had toilet problem @ 4:00am &amp; NO to help. Front desk clerk was going to let toilet run over. My husband had to go to Walmart at 4:30am in freezing weather for a plunger because no one could open the maintenance closet. I will say we stayed for 2 nights &amp; was given 1 night free. We will NOT be staying there again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Kevin M, General Manager at Quality Inn at Arlington Highlands, responded to this reviewResponded March 6, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 6, 2014</t>
+  </si>
+  <si>
+    <t>I made reservation in January for March stay. Arrived at 4:00pm, check out was at 11:00am, room was ready at 9:00pm, gave front desk cell number twice to let us know when room was ready, NEVER got a call. Then had toilet problem @ 4:00am &amp; NO to help. Front desk clerk was going to let toilet run over. My husband had to go to Walmart at 4:30am in freezing weather for a plunger because no one could open the maintenance closet. I will say we stayed for 2 nights &amp; was given 1 night free. We will NOT be staying there again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r195430095-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>195430095</t>
+  </si>
+  <si>
+    <t>02/26/2014</t>
+  </si>
+  <si>
+    <t>The stay was very nice.</t>
+  </si>
+  <si>
+    <t>Had a nice stay at the Quality Inn in Arlington Texas. It is right by the mall and has alot of shopping areas. A couple of nice places to eat at also. Love the location. We come there alot when we visit the Improv comedy shows.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kevin M, General Manager at Quality Inn at Arlington Highlands, responded to this reviewResponded February 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2014</t>
+  </si>
+  <si>
+    <t>Had a nice stay at the Quality Inn in Arlington Texas. It is right by the mall and has alot of shopping areas. A couple of nice places to eat at also. Love the location. We come there alot when we visit the Improv comedy shows.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r180507788-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>180507788</t>
+  </si>
+  <si>
+    <t>10/10/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel for the price! Helpful staff.</t>
+  </si>
+  <si>
+    <t>Looks like they are near the end of remodeling this hotel so the updates make it almost like new.Staff had some good recommendations for drinks and dinner. ( there are literally 100 places to go in this area) Nice clean room, parking area well lit and hotel pretty easy to get to. One of the nicer Quality Inns I have stayed at.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kevin M, Manager at Quality Inn at Arlington Highlands, responded to this reviewResponded November 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2013</t>
+  </si>
+  <si>
+    <t>Looks like they are near the end of remodeling this hotel so the updates make it almost like new.Staff had some good recommendations for drinks and dinner. ( there are literally 100 places to go in this area) Nice clean room, parking area well lit and hotel pretty easy to get to. One of the nicer Quality Inns I have stayed at.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r178985754-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>178985754</t>
+  </si>
+  <si>
+    <t>09/28/2013</t>
+  </si>
+  <si>
+    <t>Quality Inn, Not Quality Staff</t>
+  </si>
+  <si>
+    <t>They are remodeling this hotel--new carpet and paint.  In terms of a place to stay, it is not bad.  Lots of restaurants nearby, a mall just beside it.  However, when you check in, you will be asked to sign for the room, then they ask to run your credit card again for $100 for "incidentals."  The promise is that amount will be refunded if the room is left undamaged.
+This was a first for me in all my years of traveling.  Our room was an average room (still old carpet and kinda dingy) and the breakfast was average.
+When I got my credit card statement, I found they kept the $100 incidentals fee they made me sign when I checked in.  To my surprise, the hotel kept the $100 fee because a family member who lives nearby came over as we were checking out.  She brought her small dog with her and the dog did come into the room a moment.  When we checked out, they charged me the $76 for the room (not worth that much, I surmise) but that was all at that time.  AFTER I left, they added in the $100.    
+This review is a follow up to my earlier review, in light of that development.  Now that I see what they have done, I am revising my review.
+I have to wonder how often this is done...,how many others are billed after departure..
+I called motel,...They are remodeling this hotel--new carpet and paint.  In terms of a place to stay, it is not bad.  Lots of restaurants nearby, a mall just beside it.  However, when you check in, you will be asked to sign for the room, then they ask to run your credit card again for $100 for "incidentals."  The promise is that amount will be refunded if the room is left undamaged.This was a first for me in all my years of traveling.  Our room was an average room (still old carpet and kinda dingy) and the breakfast was average.When I got my credit card statement, I found they kept the $100 incidentals fee they made me sign when I checked in.  To my surprise, the hotel kept the $100 fee because a family member who lives nearby came over as we were checking out.  She brought her small dog with her and the dog did come into the room a moment.  When we checked out, they charged me the $76 for the room (not worth that much, I surmise) but that was all at that time.  AFTER I left, they added in the $100.    This review is a follow up to my earlier review, in light of that development.  Now that I see what they have done, I am revising my review.I have to wonder how often this is done...,how many others are billed after departure..I called motel, was told, in essence, "Too bad."  I had credit card company call on my behalf, and the person on duty hung up on us.I am in the Choice Hotels club and this is the first and only time there has been an experience this disappointing.  Now that this has happened, my review can be condensed to three words:  Don't stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>They are remodeling this hotel--new carpet and paint.  In terms of a place to stay, it is not bad.  Lots of restaurants nearby, a mall just beside it.  However, when you check in, you will be asked to sign for the room, then they ask to run your credit card again for $100 for "incidentals."  The promise is that amount will be refunded if the room is left undamaged.
+This was a first for me in all my years of traveling.  Our room was an average room (still old carpet and kinda dingy) and the breakfast was average.
+When I got my credit card statement, I found they kept the $100 incidentals fee they made me sign when I checked in.  To my surprise, the hotel kept the $100 fee because a family member who lives nearby came over as we were checking out.  She brought her small dog with her and the dog did come into the room a moment.  When we checked out, they charged me the $76 for the room (not worth that much, I surmise) but that was all at that time.  AFTER I left, they added in the $100.    
+This review is a follow up to my earlier review, in light of that development.  Now that I see what they have done, I am revising my review.
+I have to wonder how often this is done...,how many others are billed after departure..
+I called motel,...They are remodeling this hotel--new carpet and paint.  In terms of a place to stay, it is not bad.  Lots of restaurants nearby, a mall just beside it.  However, when you check in, you will be asked to sign for the room, then they ask to run your credit card again for $100 for "incidentals."  The promise is that amount will be refunded if the room is left undamaged.This was a first for me in all my years of traveling.  Our room was an average room (still old carpet and kinda dingy) and the breakfast was average.When I got my credit card statement, I found they kept the $100 incidentals fee they made me sign when I checked in.  To my surprise, the hotel kept the $100 fee because a family member who lives nearby came over as we were checking out.  She brought her small dog with her and the dog did come into the room a moment.  When we checked out, they charged me the $76 for the room (not worth that much, I surmise) but that was all at that time.  AFTER I left, they added in the $100.    This review is a follow up to my earlier review, in light of that development.  Now that I see what they have done, I am revising my review.I have to wonder how often this is done...,how many others are billed after departure..I called motel, was told, in essence, "Too bad."  I had credit card company call on my behalf, and the person on duty hung up on us.I am in the Choice Hotels club and this is the first and only time there has been an experience this disappointing.  Now that this has happened, my review can be condensed to three words:  Don't stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r178699393-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>178699393</t>
+  </si>
+  <si>
+    <t>09/26/2013</t>
+  </si>
+  <si>
+    <t>Love this place</t>
+  </si>
+  <si>
+    <t>I have to come to Arlington about twice a month for work and keep bouncing through different hotels to switch things up and find one I like that fits within my budget. I had never stayed at the Quality Inn before but being a rewards member, figured I should try it out. Needless to say, I was pleasantly surprised. It is not the newest hotel around but it is a great price, very clean, the staff was very quick and efficient and a literally perfect location. After driving all day to Arlington it is nice not to have to drive to find somewhere to eat or do something. The hotel is literally walking distance from a bunch of cool shops, restaurants and bars. I love it. I will definitely be returning.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have to come to Arlington about twice a month for work and keep bouncing through different hotels to switch things up and find one I like that fits within my budget. I had never stayed at the Quality Inn before but being a rewards member, figured I should try it out. Needless to say, I was pleasantly surprised. It is not the newest hotel around but it is a great price, very clean, the staff was very quick and efficient and a literally perfect location. After driving all day to Arlington it is nice not to have to drive to find somewhere to eat or do something. The hotel is literally walking distance from a bunch of cool shops, restaurants and bars. I love it. I will definitely be returning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r166988569-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>166988569</t>
+  </si>
+  <si>
+    <t>07/09/2013</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>The location is fantastic. It is located within walking distance of the Highland Mall. There are a lot of stores and restaurants to choose from. Now to the hotel, the room was okay and the breakfast was edible. You have to pay a 100 dollar cash deposit for incidentals. The only complaint is we could not get any soap to bathe and they did not have enough towels and blankets. I ask to different housekeeping ladies with no response. So I called the front desk and was told it was some soap on order. I must say the hotel was full so that may have been the reason. Overall for the price it was okay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mark G, General Manager at Quality Inn at Arlington Highlands, responded to this reviewResponded July 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2013</t>
+  </si>
+  <si>
+    <t>The location is fantastic. It is located within walking distance of the Highland Mall. There are a lot of stores and restaurants to choose from. Now to the hotel, the room was okay and the breakfast was edible. You have to pay a 100 dollar cash deposit for incidentals. The only complaint is we could not get any soap to bathe and they did not have enough towels and blankets. I ask to different housekeeping ladies with no response. So I called the front desk and was told it was some soap on order. I must say the hotel was full so that may have been the reason. Overall for the price it was okay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r166553267-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>166553267</t>
+  </si>
+  <si>
+    <t>07/06/2013</t>
+  </si>
+  <si>
+    <t>A little on the trashy side.</t>
+  </si>
+  <si>
+    <t>Colton at the Front Desk was the best thing about this "motel". The kid was totally overwhelmed at check in as he was the only person on duty. It went downhill from there. The room we were assigned, Room 167, not only had a party going on next door, but it also had a defective door lock. After having to trek back and forth to the front desk with two separate keys (to no avail), we were moved to room 230. There were definite signs of wear and tear throughout the property. I counted at least 20 car haulers parked about the building, putting parking at a premium. So, as soon as we finally get into Room 230 we are met by pounding and drilling next door where construction was obviously taking place. (This thankfully stopped a short time after we loaded in.) The room itself was a mish-mash of a variety of furniture styles (no "wow" factor) and there was a hundred feet of coaxial cable rolled up behind the door (?). AC worked okay, but never got really cold. Wifi was virtually non-existent. Bed was firmer than most (not a plus), linens were okay. When we finally laid down for a quick nap, somebody from housekeeping (?) knocked then entered the room before realizing it was occupied. There are signs that they are trying to bring this place up to modern standards, but it's still a little on...Colton at the Front Desk was the best thing about this "motel". The kid was totally overwhelmed at check in as he was the only person on duty. It went downhill from there. The room we were assigned, Room 167, not only had a party going on next door, but it also had a defective door lock. After having to trek back and forth to the front desk with two separate keys (to no avail), we were moved to room 230. There were definite signs of wear and tear throughout the property. I counted at least 20 car haulers parked about the building, putting parking at a premium. So, as soon as we finally get into Room 230 we are met by pounding and drilling next door where construction was obviously taking place. (This thankfully stopped a short time after we loaded in.) The room itself was a mish-mash of a variety of furniture styles (no "wow" factor) and there was a hundred feet of coaxial cable rolled up behind the door (?). AC worked okay, but never got really cold. Wifi was virtually non-existent. Bed was firmer than most (not a plus), linens were okay. When we finally laid down for a quick nap, somebody from housekeeping (?) knocked then entered the room before realizing it was occupied. There are signs that they are trying to bring this place up to modern standards, but it's still a little on the trashy side. I guess that's what a $80 will get you in DFW as we've had little luck finding anything respectable under $100 in the area. MoreShow less</t>
+  </si>
+  <si>
+    <t>Colton at the Front Desk was the best thing about this "motel". The kid was totally overwhelmed at check in as he was the only person on duty. It went downhill from there. The room we were assigned, Room 167, not only had a party going on next door, but it also had a defective door lock. After having to trek back and forth to the front desk with two separate keys (to no avail), we were moved to room 230. There were definite signs of wear and tear throughout the property. I counted at least 20 car haulers parked about the building, putting parking at a premium. So, as soon as we finally get into Room 230 we are met by pounding and drilling next door where construction was obviously taking place. (This thankfully stopped a short time after we loaded in.) The room itself was a mish-mash of a variety of furniture styles (no "wow" factor) and there was a hundred feet of coaxial cable rolled up behind the door (?). AC worked okay, but never got really cold. Wifi was virtually non-existent. Bed was firmer than most (not a plus), linens were okay. When we finally laid down for a quick nap, somebody from housekeeping (?) knocked then entered the room before realizing it was occupied. There are signs that they are trying to bring this place up to modern standards, but it's still a little on...Colton at the Front Desk was the best thing about this "motel". The kid was totally overwhelmed at check in as he was the only person on duty. It went downhill from there. The room we were assigned, Room 167, not only had a party going on next door, but it also had a defective door lock. After having to trek back and forth to the front desk with two separate keys (to no avail), we were moved to room 230. There were definite signs of wear and tear throughout the property. I counted at least 20 car haulers parked about the building, putting parking at a premium. So, as soon as we finally get into Room 230 we are met by pounding and drilling next door where construction was obviously taking place. (This thankfully stopped a short time after we loaded in.) The room itself was a mish-mash of a variety of furniture styles (no "wow" factor) and there was a hundred feet of coaxial cable rolled up behind the door (?). AC worked okay, but never got really cold. Wifi was virtually non-existent. Bed was firmer than most (not a plus), linens were okay. When we finally laid down for a quick nap, somebody from housekeeping (?) knocked then entered the room before realizing it was occupied. There are signs that they are trying to bring this place up to modern standards, but it's still a little on the trashy side. I guess that's what a $80 will get you in DFW as we've had little luck finding anything respectable under $100 in the area. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r165906369-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>165906369</t>
+  </si>
+  <si>
+    <t>07/01/2013</t>
+  </si>
+  <si>
+    <t>Bad Choice</t>
+  </si>
+  <si>
+    <t>I waited until the last minute to book and that won't happen again as this is what you get.This is really a truckers motel (there is nothing wrong with that)  as there were at least 4 auto transports parked there.Had two rooms, we were going to an event very close. Even my 10 year old granddaughter knew this was not good. Not very clean.A/C did not really cool the place until well after we went to bed.The room my daughter was in had no soap.  She went to the desk and the girl simply said they were out but had some on order. The young man was much more helpful and at least gave her a few bottles of shampoo.The exterior was a mess.  Many dead roaches.Lots of cigarette butts.The faucet handle came off as there was no screw in the top.There was daylight coming under the door. (Probably let insects in also.)I cant really say enough bad things about this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>I waited until the last minute to book and that won't happen again as this is what you get.This is really a truckers motel (there is nothing wrong with that)  as there were at least 4 auto transports parked there.Had two rooms, we were going to an event very close. Even my 10 year old granddaughter knew this was not good. Not very clean.A/C did not really cool the place until well after we went to bed.The room my daughter was in had no soap.  She went to the desk and the girl simply said they were out but had some on order. The young man was much more helpful and at least gave her a few bottles of shampoo.The exterior was a mess.  Many dead roaches.Lots of cigarette butts.The faucet handle came off as there was no screw in the top.There was daylight coming under the door. (Probably let insects in also.)I cant really say enough bad things about this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r163621338-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>163621338</t>
+  </si>
+  <si>
+    <t>06/10/2013</t>
+  </si>
+  <si>
+    <t>Above and Beyond!</t>
+  </si>
+  <si>
+    <t>Recently, I stayed at this hotel for 3 days while attending the Hot Rod Power Tour.  My wife convinced me to take my personal pillow, which I promptly left on the bed when I checked out!  Thanks to the extra diligent efforts of Kevin from the hotel, who called me, boxed up the pillow and Fed-Ex'd it to my home on his own time (!!!) the pillow arrived at my home before I completed my trip.  Thus, saving me an embarrassing situation and keeping our bedding set intact!  My hat is off to Kevin and the Quality Inn.  You will continue to thrive with employees like Kevin and you have my repeat business, wherever I travel!MoreShow less</t>
+  </si>
+  <si>
+    <t>Recently, I stayed at this hotel for 3 days while attending the Hot Rod Power Tour.  My wife convinced me to take my personal pillow, which I promptly left on the bed when I checked out!  Thanks to the extra diligent efforts of Kevin from the hotel, who called me, boxed up the pillow and Fed-Ex'd it to my home on his own time (!!!) the pillow arrived at my home before I completed my trip.  Thus, saving me an embarrassing situation and keeping our bedding set intact!  My hat is off to Kevin and the Quality Inn.  You will continue to thrive with employees like Kevin and you have my repeat business, wherever I travel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r162473205-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>162473205</t>
+  </si>
+  <si>
+    <t>05/30/2013</t>
+  </si>
+  <si>
+    <t>Another Great Stay</t>
+  </si>
+  <si>
+    <t>My second stay here, even more pleasant than the first.  Room was clean, comfortable, and damage-free.  Receptionists and maids were extremely helpful and friendly.  They couldn't do enough to help.  Their attitudes were entirely refreshing.  My only regret is that I didn't have time to stay longer.  There's a very comfortable area in the lobby for doing your computer work and having a cup of nice coffee.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r158798265-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>158798265</t>
+  </si>
+  <si>
+    <t>04/25/2013</t>
+  </si>
+  <si>
+    <t>Not a good experience</t>
+  </si>
+  <si>
+    <t>First off we had to wait 2 1/2 hours past check in time for our room to be ready. We we first arrived they told us an hour, we came back after 1 1/2 hours and it still wasn't ready. So we waited in the lobby. We were given a $10.00 discount. When we got to the room instead of it smelling clean it smelled musty and moldy. The wi-fi didn't work in the lobby or in the room. We were given a password for it, but it would NEVER even give us the option of wi fi. The bed was very hard so needless to say we didn't get much sleep. The breakfast the next morning wasn't all that good. The sausage was awful and the gravy was very thin...so we just had fruit and danish.We will not be staying there again or recommending it to anyone else.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>First off we had to wait 2 1/2 hours past check in time for our room to be ready. We we first arrived they told us an hour, we came back after 1 1/2 hours and it still wasn't ready. So we waited in the lobby. We were given a $10.00 discount. When we got to the room instead of it smelling clean it smelled musty and moldy. The wi-fi didn't work in the lobby or in the room. We were given a password for it, but it would NEVER even give us the option of wi fi. The bed was very hard so needless to say we didn't get much sleep. The breakfast the next morning wasn't all that good. The sausage was awful and the gravy was very thin...so we just had fruit and danish.We will not be staying there again or recommending it to anyone else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r155758621-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>155758621</t>
+  </si>
+  <si>
+    <t>03/26/2013</t>
+  </si>
+  <si>
+    <t>Great cost and location</t>
+  </si>
+  <si>
+    <t>For the price and location, this hotel is a great deal. We were there in March, so the pool was not filled, but other than that it was exactly as advertised. It is right next to a huge number of stores and restaurants along Curtis Mathes way, and right off I-20, so location is great. Rooms were average - no issues with cleanliness and beds were comfortable. Having a fridge and microwave was a plus. My only issue with the rooms was that the TV didn't get many channels and it seemed very dark, but no big issue. Nice breakfast with eggs, sausage, biscuits and gravy, cereals, fruits, coffee and juices. Being able to check out as late as noon was also a bonus. I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Mark G, Director of Sales at Quality Inn at Arlington Highlands, responded to this reviewResponded April 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2013</t>
+  </si>
+  <si>
+    <t>For the price and location, this hotel is a great deal. We were there in March, so the pool was not filled, but other than that it was exactly as advertised. It is right next to a huge number of stores and restaurants along Curtis Mathes way, and right off I-20, so location is great. Rooms were average - no issues with cleanliness and beds were comfortable. Having a fridge and microwave was a plus. My only issue with the rooms was that the TV didn't get many channels and it seemed very dark, but no big issue. Nice breakfast with eggs, sausage, biscuits and gravy, cereals, fruits, coffee and juices. Being able to check out as late as noon was also a bonus. I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r153652389-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>153652389</t>
+  </si>
+  <si>
+    <t>03/03/2013</t>
+  </si>
+  <si>
+    <t>Puts the "Q" in Quality!</t>
+  </si>
+  <si>
+    <t>A motel with hotel perks. It's located just of I-20, so it's surronded by good restaurants, shopping, and various venues. The free, full hot breakfast was great, especially since I didn't have to spent extra money driving to a restaurant. The staff was very friendly and answered all my questions with a smile. Our room was clean, in good condition and priced right. My only suggestion would be to add more kid friendly channels to the cable line-up. Thank you to the staff at Quality Inn...keep up the good work!MoreShow less</t>
+  </si>
+  <si>
+    <t>Mark G, General Manager at Quality Inn at Arlington Highlands, responded to this reviewResponded April 2, 2013</t>
+  </si>
+  <si>
+    <t>A motel with hotel perks. It's located just of I-20, so it's surronded by good restaurants, shopping, and various venues. The free, full hot breakfast was great, especially since I didn't have to spent extra money driving to a restaurant. The staff was very friendly and answered all my questions with a smile. Our room was clean, in good condition and priced right. My only suggestion would be to add more kid friendly channels to the cable line-up. Thank you to the staff at Quality Inn...keep up the good work!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r143785449-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>143785449</t>
+  </si>
+  <si>
+    <t>10/26/2012</t>
+  </si>
+  <si>
+    <t>Awesome Breakfast</t>
+  </si>
+  <si>
+    <t>I stayed at this quality inn for 3 nights. I was very pleased with their services. I like food and I never skip breakfast, I was very pleased with choices I had at the breakfast in the morning. It was delicious of course free. I felt like I am having hot served breakfast at restaurant. Front desk lady was friendly too. If you are food lover you will enjoy breakfast for sure. As far as other services goes. Room was clean and it is very close to all variety of restaurants where I can just walk. I would recommend this place for anyone who is visiting Arlington, TX. I will definitely be here next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>SQualityInn, Manager at Quality Inn at Arlington Highlands, responded to this reviewResponded November 30, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2012</t>
+  </si>
+  <si>
+    <t>I stayed at this quality inn for 3 nights. I was very pleased with their services. I like food and I never skip breakfast, I was very pleased with choices I had at the breakfast in the morning. It was delicious of course free. I felt like I am having hot served breakfast at restaurant. Front desk lady was friendly too. If you are food lover you will enjoy breakfast for sure. As far as other services goes. Room was clean and it is very close to all variety of restaurants where I can just walk. I would recommend this place for anyone who is visiting Arlington, TX. I will definitely be here next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r143070686-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>143070686</t>
+  </si>
+  <si>
+    <t>10/17/2012</t>
+  </si>
+  <si>
+    <t>Free pizza!!!</t>
+  </si>
+  <si>
+    <t>Not the greatest rooms, but well worth the price. They have a reception in the lobby with free beer, wine, and pizza from some local restaurant. A lot of fun and great staff service! Definitely will be back soon. Thanks!MoreShow less</t>
+  </si>
+  <si>
+    <t>Not the greatest rooms, but well worth the price. They have a reception in the lobby with free beer, wine, and pizza from some local restaurant. A lot of fun and great staff service! Definitely will be back soon. Thanks!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r142435642-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>142435642</t>
+  </si>
+  <si>
+    <t>10/09/2012</t>
+  </si>
+  <si>
+    <t>Friendly and smiling front desk</t>
+  </si>
+  <si>
+    <t>Front desk service was fantastic. So welcoming and very helpful. Answered all questipns, guided us about the town. Managers reception was the best part. Free food and free alcohol drinks. Would always stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Front desk service was fantastic. So welcoming and very helpful. Answered all questipns, guided us about the town. Managers reception was the best part. Free food and free alcohol drinks. Would always stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r142215713-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>142215713</t>
+  </si>
+  <si>
+    <t>10/07/2012</t>
+  </si>
+  <si>
+    <t>Close to everything fun.</t>
+  </si>
+  <si>
+    <t>Excellent rates and easy access to the rooms, you can still park close to your door and no having to wag your bags through a lobby and then wait for the elevator!  We will be back next year for more Ranger baseball.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>SQualityInn, General Manager at Quality Inn at Arlington Highlands, responded to this reviewResponded October 10, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2012</t>
+  </si>
+  <si>
+    <t>Excellent rates and easy access to the rooms, you can still park close to your door and no having to wag your bags through a lobby and then wait for the elevator!  We will be back next year for more Ranger baseball.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r140602683-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>140602683</t>
+  </si>
+  <si>
+    <t>09/18/2012</t>
+  </si>
+  <si>
+    <t>Amazing value!!!</t>
+  </si>
+  <si>
+    <t>Friendly staff and delicious breakfast! Rooms may not be the best, but for the price they are great. There were a lot of places to eat within walking distance, but I didn't try any of them because I was too busy with work. :(. Will definitely come back soon!MoreShow less</t>
+  </si>
+  <si>
+    <t>Friendly staff and delicious breakfast! Rooms may not be the best, but for the price they are great. There were a lot of places to eat within walking distance, but I didn't try any of them because I was too busy with work. :(. Will definitely come back soon!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r139374908-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>139374908</t>
+  </si>
+  <si>
+    <t>09/04/2012</t>
+  </si>
+  <si>
+    <t>Clean, spacious, good rates, would probably use again.</t>
+  </si>
+  <si>
+    <t>We stayed here for one night while attending a funeral.  The room was comfortable (though my wife felt the bed was a little hard).  My wife said that the room suffered slightly from what she considers to be a common problem with most motel/hotel rooms -- too much light outside with light blocking curtains which don't fit window opening quite well enough to keep room totally dark at night.  We both actually slept reasonably well though.  Although we did not eat the complimentary breakfast because of a breakfast appointment with friends, it appeared, from a distance, that what was there was minimal and the eating area was kind of small.  Probably the biggest gripe that I would make is the fact that the office staff insisted on making a photo copy of my driver's license.  This makes me uncomfortable and would probably be my biggest reason for not staying here again.  I have stayed at other Quality Inn Motels and don't remember ever being asked for a photo copy of my DL before.  In this era of identify theft, this is a practice that should be terminated!  Check the DL for ID but don't copy it!!!  I understand from one other review of this motel that they have also taken copies of credit cards from some customers.  This is rediculous!!! I am glad they did not try this with me.  There is another Quality Inn in Taos, NM at which...We stayed here for one night while attending a funeral.  The room was comfortable (though my wife felt the bed was a little hard).  My wife said that the room suffered slightly from what she considers to be a common problem with most motel/hotel rooms -- too much light outside with light blocking curtains which don't fit window opening quite well enough to keep room totally dark at night.  We both actually slept reasonably well though.  Although we did not eat the complimentary breakfast because of a breakfast appointment with friends, it appeared, from a distance, that what was there was minimal and the eating area was kind of small.  Probably the biggest gripe that I would make is the fact that the office staff insisted on making a photo copy of my driver's license.  This makes me uncomfortable and would probably be my biggest reason for not staying here again.  I have stayed at other Quality Inn Motels and don't remember ever being asked for a photo copy of my DL before.  In this era of identify theft, this is a practice that should be terminated!  Check the DL for ID but don't copy it!!!  I understand from one other review of this motel that they have also taken copies of credit cards from some customers.  This is rediculous!!! I am glad they did not try this with me.  There is another Quality Inn in Taos, NM at which we have stayed repeatedly.  That one earned a rating of 5 from me.  This one in Arilington is O.K. but not nearly up to the Taos Quality Inn.  Our experiences at the Taos Quality Inn are probably the main reason we stayed at this one in Arlington.MoreShow less</t>
+  </si>
+  <si>
+    <t>SQualityInn, Director of Sales at Quality Inn at Arlington Highlands, responded to this reviewResponded September 6, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2012</t>
+  </si>
+  <si>
+    <t>We stayed here for one night while attending a funeral.  The room was comfortable (though my wife felt the bed was a little hard).  My wife said that the room suffered slightly from what she considers to be a common problem with most motel/hotel rooms -- too much light outside with light blocking curtains which don't fit window opening quite well enough to keep room totally dark at night.  We both actually slept reasonably well though.  Although we did not eat the complimentary breakfast because of a breakfast appointment with friends, it appeared, from a distance, that what was there was minimal and the eating area was kind of small.  Probably the biggest gripe that I would make is the fact that the office staff insisted on making a photo copy of my driver's license.  This makes me uncomfortable and would probably be my biggest reason for not staying here again.  I have stayed at other Quality Inn Motels and don't remember ever being asked for a photo copy of my DL before.  In this era of identify theft, this is a practice that should be terminated!  Check the DL for ID but don't copy it!!!  I understand from one other review of this motel that they have also taken copies of credit cards from some customers.  This is rediculous!!! I am glad they did not try this with me.  There is another Quality Inn in Taos, NM at which...We stayed here for one night while attending a funeral.  The room was comfortable (though my wife felt the bed was a little hard).  My wife said that the room suffered slightly from what she considers to be a common problem with most motel/hotel rooms -- too much light outside with light blocking curtains which don't fit window opening quite well enough to keep room totally dark at night.  We both actually slept reasonably well though.  Although we did not eat the complimentary breakfast because of a breakfast appointment with friends, it appeared, from a distance, that what was there was minimal and the eating area was kind of small.  Probably the biggest gripe that I would make is the fact that the office staff insisted on making a photo copy of my driver's license.  This makes me uncomfortable and would probably be my biggest reason for not staying here again.  I have stayed at other Quality Inn Motels and don't remember ever being asked for a photo copy of my DL before.  In this era of identify theft, this is a practice that should be terminated!  Check the DL for ID but don't copy it!!!  I understand from one other review of this motel that they have also taken copies of credit cards from some customers.  This is rediculous!!! I am glad they did not try this with me.  There is another Quality Inn in Taos, NM at which we have stayed repeatedly.  That one earned a rating of 5 from me.  This one in Arilington is O.K. but not nearly up to the Taos Quality Inn.  Our experiences at the Taos Quality Inn are probably the main reason we stayed at this one in Arlington.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r136903169-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>136903169</t>
+  </si>
+  <si>
+    <t>08/11/2012</t>
+  </si>
+  <si>
+    <t>Thumbs UP =)</t>
+  </si>
+  <si>
+    <t>Very pleasantly surprised, did not expect microwave and frigde in the room, we brought a cooler with hotdogs and lunchmeat for the 3 days, so had a great time for snacks at night after swimming in the wonderful TEXAS WEATHER heated pool =)))LOVED the shower, had such great pressure, could have stayed in it all day, clean and professional service on towels and sheets, drained a little slow, but what do you expect in a place with so many people ^^Enjoyed the first, second and third breakfast, way MORE than we expected, loved the healthy fruit and yoghurt options next to hot sausage links, bisquits and gravy, prettiest thing for our kids was the BIG TEXAS WAFFLE maker, fun AND yummy =)Hotel.com showed pictures of a fitness center and an inside pool + whirlpool, didnt see none of that, but we were gone on tours all day anyway. . would have been curious if they had it?We enjoyed our stay very much, payed a dream price for a fam vacation and a safe goodnight sleep, were thankful for the pretty and well made beds every night we came in from our daytrip, trash was taken out, we felt spoiled rotten, hotel staff was very nice everywhere we met them on the property THANK YOU THANK YOU THANK YOU =)MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>SQualityInn, Director of Sales at Quality Inn at Arlington Highlands, responded to this reviewResponded August 14, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2012</t>
+  </si>
+  <si>
+    <t>Very pleasantly surprised, did not expect microwave and frigde in the room, we brought a cooler with hotdogs and lunchmeat for the 3 days, so had a great time for snacks at night after swimming in the wonderful TEXAS WEATHER heated pool =)))LOVED the shower, had such great pressure, could have stayed in it all day, clean and professional service on towels and sheets, drained a little slow, but what do you expect in a place with so many people ^^Enjoyed the first, second and third breakfast, way MORE than we expected, loved the healthy fruit and yoghurt options next to hot sausage links, bisquits and gravy, prettiest thing for our kids was the BIG TEXAS WAFFLE maker, fun AND yummy =)Hotel.com showed pictures of a fitness center and an inside pool + whirlpool, didnt see none of that, but we were gone on tours all day anyway. . would have been curious if they had it?We enjoyed our stay very much, payed a dream price for a fam vacation and a safe goodnight sleep, were thankful for the pretty and well made beds every night we came in from our daytrip, trash was taken out, we felt spoiled rotten, hotel staff was very nice everywhere we met them on the property THANK YOU THANK YOU THANK YOU =)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r133803536-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>133803536</t>
+  </si>
+  <si>
+    <t>07/08/2012</t>
+  </si>
+  <si>
+    <t>If you like stale smoke &amp; LOUD AC wall units</t>
+  </si>
+  <si>
+    <t>If you like stale smoke infested rooms &amp; AC wall units that are so loud when they kick in you have to more than double the volume of the television, then you would give this place four stars.  I used extra strength Febreeze with several treatments to try to diffuse the odor in my non-smoking room to no avail.  Not only was the AC unit loud enough to wake you each time it turned on, the room was muggy and never really actually cooled the room.  I had to use the freezer section of the refrigerator just to keep my drinks almost cold.  Basically, the room was about $60, so I guess you get what you pay for.  Just know that when I unpacked all of the clothes that I did not wear smelled so much of smoke, they had to go straight back into the laundry.Next time I decide to stay in town to work a weekend, I will fork over the additional cash for a place with "QUALITY" in something more than it's name.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>SQualityInn, Director of Sales at Quality Inn at Arlington Highlands, responded to this reviewResponded August 23, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2012</t>
+  </si>
+  <si>
+    <t>If you like stale smoke infested rooms &amp; AC wall units that are so loud when they kick in you have to more than double the volume of the television, then you would give this place four stars.  I used extra strength Febreeze with several treatments to try to diffuse the odor in my non-smoking room to no avail.  Not only was the AC unit loud enough to wake you each time it turned on, the room was muggy and never really actually cooled the room.  I had to use the freezer section of the refrigerator just to keep my drinks almost cold.  Basically, the room was about $60, so I guess you get what you pay for.  Just know that when I unpacked all of the clothes that I did not wear smelled so much of smoke, they had to go straight back into the laundry.Next time I decide to stay in town to work a weekend, I will fork over the additional cash for a place with "QUALITY" in something more than it's name.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r133553424-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>133553424</t>
+  </si>
+  <si>
+    <t>07/05/2012</t>
+  </si>
+  <si>
+    <t>Good value in great location</t>
+  </si>
+  <si>
+    <t>Reservation on web site. All correct, just sign the form. Outside doors and close parking. Clogged bathroom sink, worn &amp; torn carpet,  and refrig freezer almost solid with ice.  Otherwise everything worked.  Bathroom a little beat up. Good wifi. Above average breakfast, full strength coffee and OJ. Friendly, engaging staff.  Next to outdoor mall, easy interstate access.  Would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Reservation on web site. All correct, just sign the form. Outside doors and close parking. Clogged bathroom sink, worn &amp; torn carpet,  and refrig freezer almost solid with ice.  Otherwise everything worked.  Bathroom a little beat up. Good wifi. Above average breakfast, full strength coffee and OJ. Friendly, engaging staff.  Next to outdoor mall, easy interstate access.  Would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r132581042-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>132581042</t>
+  </si>
+  <si>
+    <t>06/23/2012</t>
+  </si>
+  <si>
+    <t>LOVE THIS HOTEL!!!!!!!</t>
+  </si>
+  <si>
+    <t>I love this hotel, my room was nice and clean the staff was excellant and they had free wifi and a continental breakfast, i will definately stay here again:)MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>I love this hotel, my room was nice and clean the staff was excellant and they had free wifi and a continental breakfast, i will definately stay here again:)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r129491170-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>129491170</t>
+  </si>
+  <si>
+    <t>05/06/2012</t>
+  </si>
+  <si>
+    <t>Stay away - roach-infested!</t>
+  </si>
+  <si>
+    <t>We checked in on 5/4/12 to attend the Texas Scottish Festival as vendors. The bathtub is so slippery that I fell while taking a shower, injuring my left leg and right foot. The worst things were the live cockroaches that crawled out of both beds, and the dead ones we saw on the floor. The attitude of the staff was that they couldn't care less. They only said that they would notify maintenance. Stay away from this roach-infested, nasty motel!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2012</t>
+  </si>
+  <si>
+    <t>We checked in on 5/4/12 to attend the Texas Scottish Festival as vendors. The bathtub is so slippery that I fell while taking a shower, injuring my left leg and right foot. The worst things were the live cockroaches that crawled out of both beds, and the dead ones we saw on the floor. The attitude of the staff was that they couldn't care less. They only said that they would notify maintenance. Stay away from this roach-infested, nasty motel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r128496148-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>128496148</t>
+  </si>
+  <si>
+    <t>04/23/2012</t>
+  </si>
+  <si>
+    <t>Extended stay was great.</t>
+  </si>
+  <si>
+    <t>I have stayed here off and on for an extended stay on business.  The staff is great and the rooms are clean and cleaned daily.  I have stayed in four star hotels but for the age of this hotel, the rooms are great and the surrounding shopping areas are a plus for this property.  Never have had an issue with security and I like that the police are always cruising through property as part of their patrol of the surrounding shopping center.The property is ideally located for alot of activities with easy access to Interstate 20 and the service roads offer quick and easy access to several major roads in Arlington.  All types of restaurants and entertainment are literally within minutes of this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>I have stayed here off and on for an extended stay on business.  The staff is great and the rooms are clean and cleaned daily.  I have stayed in four star hotels but for the age of this hotel, the rooms are great and the surrounding shopping areas are a plus for this property.  Never have had an issue with security and I like that the police are always cruising through property as part of their patrol of the surrounding shopping center.The property is ideally located for alot of activities with easy access to Interstate 20 and the service roads offer quick and easy access to several major roads in Arlington.  All types of restaurants and entertainment are literally within minutes of this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r124339257-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>124339257</t>
+  </si>
+  <si>
+    <t>02/09/2012</t>
+  </si>
+  <si>
+    <t>Getting Old but Good Value</t>
+  </si>
+  <si>
+    <t>There are some very good rates offered here. The place is older so it has outside entries which I happen to prefer if I can get lower level to put the car in front of so that works for me. Inside the rooms are spacious with all the usual items (frig, micro, coffee pot etc). Also clean but again the place shows its age in things like few and poorly placed electrical outlets (that also don't hold a plug too well). Very minor quibble - the coffee envelopes seem scientifically designed so you can open them without tearing the filter.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>There are some very good rates offered here. The place is older so it has outside entries which I happen to prefer if I can get lower level to put the car in front of so that works for me. Inside the rooms are spacious with all the usual items (frig, micro, coffee pot etc). Also clean but again the place shows its age in things like few and poorly placed electrical outlets (that also don't hold a plug too well). Very minor quibble - the coffee envelopes seem scientifically designed so you can open them without tearing the filter.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r117462387-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>117462387</t>
+  </si>
+  <si>
+    <t>08/30/2011</t>
+  </si>
+  <si>
+    <t>great location and value</t>
+  </si>
+  <si>
+    <t>we stayed here because it was not to close to the amusment clutter but still close. it was also right by a mall and lots of resturants. it was clean friendly and quiet. great customer service.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>SQualityInn, Director of Sales at Quality Inn at Arlington Highlands, responded to this reviewResponded September 23, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2011</t>
+  </si>
+  <si>
+    <t>we stayed here because it was not to close to the amusment clutter but still close. it was also right by a mall and lots of resturants. it was clean friendly and quiet. great customer service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r116466539-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>116466539</t>
+  </si>
+  <si>
+    <t>08/09/2011</t>
+  </si>
+  <si>
+    <t>Close to great shopping!</t>
+  </si>
+  <si>
+    <t>Right of of I20 and right beside Arlington Highlands, great shopping. 2 miles to shopping mall. Easy access to area attractions.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>Right of of I20 and right beside Arlington Highlands, great shopping. 2 miles to shopping mall. Easy access to area attractions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r116189208-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>116189208</t>
+  </si>
+  <si>
+    <t>08/02/2011</t>
+  </si>
+  <si>
+    <t>Great Hotel in nice area</t>
+  </si>
+  <si>
+    <t>We stayed here for 3 nights during the USATF Regionals. The rooms were clean and there was a fridge. Overall a good experience. Restaurants and stores are within walking distance if you can stand the 100+F.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for 3 nights during the USATF Regionals. The rooms were clean and there was a fridge. Overall a good experience. Restaurants and stores are within walking distance if you can stand the 100+F.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r115298147-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>115298147</t>
+  </si>
+  <si>
+    <t>07/12/2011</t>
+  </si>
+  <si>
+    <t>Perfect location and the most amazing breakfast!!</t>
+  </si>
+  <si>
+    <t>We were looking for something close to the Arlington Tennis Center. This Hotel was right around the corner. This hotel is very clean and the staff were very professional. The best part of the hotel was the breakfast. It was the best continental breakfast we've ever had. Fresh hot waffles, hot fluffy biscuits, gravy, sausage, boiled eggs, fruit, cereal, pastries, juice, and coffee. We were so impressed with the ammenities that we opted to return to the same hotel for the following night after advancing in the tennis tournament. The only downside was the wifi reception was not very good unless you were in a room located near the lobby.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were looking for something close to the Arlington Tennis Center. This Hotel was right around the corner. This hotel is very clean and the staff were very professional. The best part of the hotel was the breakfast. It was the best continental breakfast we've ever had. Fresh hot waffles, hot fluffy biscuits, gravy, sausage, boiled eggs, fruit, cereal, pastries, juice, and coffee. We were so impressed with the ammenities that we opted to return to the same hotel for the following night after advancing in the tennis tournament. The only downside was the wifi reception was not very good unless you were in a room located near the lobby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r115253190-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>115253190</t>
+  </si>
+  <si>
+    <t>07/11/2011</t>
+  </si>
+  <si>
+    <t>Interesting</t>
+  </si>
+  <si>
+    <t>My overall stay was ok.  Had an incident with a gecko &amp; a cricket, but nothing to get upset about.  Seems housekeeping was short on towels on day #2 and the face towels and the floor mat were not replaced in my room on that day.  The front desk staff was very helpful in getting me some though.  My room was near the pool, that could get a bit loud.  The breakfast was pretty good.  Shopping &amp; restaraunts close by as well as a mall.MoreShow less</t>
+  </si>
+  <si>
+    <t>My overall stay was ok.  Had an incident with a gecko &amp; a cricket, but nothing to get upset about.  Seems housekeeping was short on towels on day #2 and the face towels and the floor mat were not replaced in my room on that day.  The front desk staff was very helpful in getting me some though.  My room was near the pool, that could get a bit loud.  The breakfast was pretty good.  Shopping &amp; restaraunts close by as well as a mall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r114871203-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>114871203</t>
+  </si>
+  <si>
+    <t>06/29/2011</t>
+  </si>
+  <si>
+    <t>great motel with a great loaction</t>
+  </si>
+  <si>
+    <t>My family and I stayed there for the price so we didnt expect much, but, then wow were in for a pleasent suprise. the room was very clean. the staff was very helpful and pleasent. and the location makes this motel the whole package there is a bunch resturants. shops within walking distance. If im in Arlington again this is going to be the place I rest my head........ Thanks Guys...MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>My family and I stayed there for the price so we didnt expect much, but, then wow were in for a pleasent suprise. the room was very clean. the staff was very helpful and pleasent. and the location makes this motel the whole package there is a bunch resturants. shops within walking distance. If im in Arlington again this is going to be the place I rest my head........ Thanks Guys...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r83368653-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>83368653</t>
+  </si>
+  <si>
+    <t>10/13/2010</t>
+  </si>
+  <si>
+    <t>Great place easy access close to Cowboys Stadium</t>
+  </si>
+  <si>
+    <t>This place is old, but clean.  The staff was excellent and extremely friendly.  There is also a hot breakfast each morning.  Late checkout was a plus.  We stayed here for the Cowboy Titan game.  The hotel was crowded and there were lots of parties going on.  The staff recommended dinner and helped us get a taxi to and from the game.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>SQualityInn, Director of Sales at Quality Inn at Arlington Highlands, responded to this reviewResponded February 19, 2011</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2011</t>
+  </si>
+  <si>
+    <t>This place is old, but clean.  The staff was excellent and extremely friendly.  There is also a hot breakfast each morning.  Late checkout was a plus.  We stayed here for the Cowboy Titan game.  The hotel was crowded and there were lots of parties going on.  The staff recommended dinner and helped us get a taxi to and from the game.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r40220207-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>40220207</t>
+  </si>
+  <si>
+    <t>09/08/2009</t>
+  </si>
+  <si>
+    <t>We had no major problems here....good for a short visit.</t>
+  </si>
+  <si>
+    <t>My husband and I spent the night here after a late night flight arrival at DFW.  We found the room to be be adequate for a 1 night stay.  The front desk was very friendly and the breakfast provided was amazing for a economy motel.  It is located in Arlington Heights with restaurants galore.  The motel could do with some sprucing up.  We did not have a drain stopper in our bathtub, but I am sure if I had called the front desk, they might have helped us out.  I just opted for a shower and left them a note.  No big deal.  I was very glad that they had coffee in the lobby, because the little coffee maker had horrible coffee in the room.  But again, I give high marks for their offering for breakfast in the lobby.  Towels were pretty skimpy and not enough, but this is a motel.  I have to be fair and admit we didn't try to get anymore, so we didn't give them a chance to help us out.  I think they would have.There was a super friendly gentleman who checked us in. We would stay here again for 1 night due to the location and price for a place to sleep before returning home.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>My husband and I spent the night here after a late night flight arrival at DFW.  We found the room to be be adequate for a 1 night stay.  The front desk was very friendly and the breakfast provided was amazing for a economy motel.  It is located in Arlington Heights with restaurants galore.  The motel could do with some sprucing up.  We did not have a drain stopper in our bathtub, but I am sure if I had called the front desk, they might have helped us out.  I just opted for a shower and left them a note.  No big deal.  I was very glad that they had coffee in the lobby, because the little coffee maker had horrible coffee in the room.  But again, I give high marks for their offering for breakfast in the lobby.  Towels were pretty skimpy and not enough, but this is a motel.  I have to be fair and admit we didn't try to get anymore, so we didn't give them a chance to help us out.  I think they would have.There was a super friendly gentleman who checked us in. We would stay here again for 1 night due to the location and price for a place to sleep before returning home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r35285004-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>35285004</t>
+  </si>
+  <si>
+    <t>07/20/2009</t>
+  </si>
+  <si>
+    <t>Dont' stay here</t>
+  </si>
+  <si>
+    <t>Our poor experience started at check-in...We were really looking forward to swimming in the pool only to be told it was closed due to failing the health inspection...yuck.  Room was clean but guest services directory notebook was empty, only decaf coffee was provided with the coffee maker.  The property also had unsightly yellow caution tape throughout...Not sure what the intention was here.  We were also wakened by anonymous hang up phone calls during the night...Woke up the next morning and went to breakfast only to find items such as cereal had not been replenished and the burners were out under the warmers to keep the sausage and biscuits warm..  On the plus side we could walk to a local restaurant for dinner.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>Our poor experience started at check-in...We were really looking forward to swimming in the pool only to be told it was closed due to failing the health inspection...yuck.  Room was clean but guest services directory notebook was empty, only decaf coffee was provided with the coffee maker.  The property also had unsightly yellow caution tape throughout...Not sure what the intention was here.  We were also wakened by anonymous hang up phone calls during the night...Woke up the next morning and went to breakfast only to find items such as cereal had not been replenished and the burners were out under the warmers to keep the sausage and biscuits warm..  On the plus side we could walk to a local restaurant for dinner.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r24089114-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>24089114</t>
+  </si>
+  <si>
+    <t>02/01/2009</t>
+  </si>
+  <si>
+    <t>Great price,same amenities...Some better!!!</t>
+  </si>
+  <si>
+    <t>I stay at this hotel frequently while traveling.  The staff is great!The rooms are clean and comfortable , the breakfast is good and it is affordable. Everything from malls, fine dining,fast food ,to movies are in walking distance.I would recommend this hotel for anyone who is stretching the dollar like me.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>I stay at this hotel frequently while traveling.  The staff is great!The rooms are clean and comfortable , the breakfast is good and it is affordable. Everything from malls, fine dining,fast food ,to movies are in walking distance.I would recommend this hotel for anyone who is stretching the dollar like me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r22930636-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>22930636</t>
+  </si>
+  <si>
+    <t>12/22/2008</t>
+  </si>
+  <si>
+    <t>Worst Motel Experience of All Time</t>
+  </si>
+  <si>
+    <t>I was driving from Atlanta, GA to Tuscon, AZ and needed a place to stay in central Texas. I pulled into the Quality Inn Highlands after 11pm, slept well after driving more than 12 hours earlier that day, and checked out before 8am the next morning. I returned the room keys and signed for the room. Pretty grubby motel but I had no real complaints... until I checked my credit card statement online and they charged me $220! I called and asked why, and they accused me of stealing a microwave and refrigerator. I told them I didn't and asked them to reverse the charge. They said there was "nothing they could do at this time."  I called repeatedly and after 2 weeks of not being able to get a manager or sales rep on the phone, I got a letter in the mail, saying that there was "nothing they could do at this time." I had to file a dispute with my credit card company for a fraudulent charge and now have to go through all this paperwork. This place is a total SCAM! I will never stay at a CHOICE HOTEL INTERNATIONAL again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2008</t>
+  </si>
+  <si>
+    <t>I was driving from Atlanta, GA to Tuscon, AZ and needed a place to stay in central Texas. I pulled into the Quality Inn Highlands after 11pm, slept well after driving more than 12 hours earlier that day, and checked out before 8am the next morning. I returned the room keys and signed for the room. Pretty grubby motel but I had no real complaints... until I checked my credit card statement online and they charged me $220! I called and asked why, and they accused me of stealing a microwave and refrigerator. I told them I didn't and asked them to reverse the charge. They said there was "nothing they could do at this time."  I called repeatedly and after 2 weeks of not being able to get a manager or sales rep on the phone, I got a letter in the mail, saying that there was "nothing they could do at this time." I had to file a dispute with my credit card company for a fraudulent charge and now have to go through all this paperwork. This place is a total SCAM! I will never stay at a CHOICE HOTEL INTERNATIONAL again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r21450640-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>21450640</t>
+  </si>
+  <si>
+    <t>11/01/2008</t>
+  </si>
+  <si>
+    <t>Good for a night's stay</t>
+  </si>
+  <si>
+    <t>We have just completed a one-night stay at this hotel and it has surpassed my expectations which, I must admit, were not too high.  Our newer room was large, clean and had the advertised amenities.  The furniture appeared to be recently updated.  The hot breakfast was more than adequate.  Since the room opens to an outdoor walkway, we did get a little noise as people walked by, but that was minimal.  We didn't use the fitness room, but it appeared to be good.Just a couple of drawbacks show that this is still a budget hotel.  There was a nice business desk and good wi-fi connection, but there is no power outlet anywhere near the desk.  (Hence, I am writing this review from my laptop while sitting on the other side of the room, where the only available power outlet is located.)  There is a typical 4 cup in-room coffee maker, but the thin styrofoam cups provided seemed very cheap.Still, for the price (we used our Sam's club discount, which was never verified at check-in), this was a good place to stay for the night.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2008</t>
+  </si>
+  <si>
+    <t>We have just completed a one-night stay at this hotel and it has surpassed my expectations which, I must admit, were not too high.  Our newer room was large, clean and had the advertised amenities.  The furniture appeared to be recently updated.  The hot breakfast was more than adequate.  Since the room opens to an outdoor walkway, we did get a little noise as people walked by, but that was minimal.  We didn't use the fitness room, but it appeared to be good.Just a couple of drawbacks show that this is still a budget hotel.  There was a nice business desk and good wi-fi connection, but there is no power outlet anywhere near the desk.  (Hence, I am writing this review from my laptop while sitting on the other side of the room, where the only available power outlet is located.)  There is a typical 4 cup in-room coffee maker, but the thin styrofoam cups provided seemed very cheap.Still, for the price (we used our Sam's club discount, which was never verified at check-in), this was a good place to stay for the night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r18353383-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>18353383</t>
+  </si>
+  <si>
+    <t>07/28/2008</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>We had a good experience at this Quality Inn.The room was clean, quiet and comfortable.We had a microwave and small refrigerator in ourroom. The bed was super comfortable.It was conveniently located right off of I-20.There were plenty of restaurants close by and theyhad maps in the lobby where you could choosedifferent restaurants to go to, not too far away fromthe hotel.If you didn’t have a computer with you, there were2 computers set up in the lobby for guests to use.They had a great continental breakfast with lots offood choices. This Quality Inn has waffles (shaped like the state of TX), sausages, biscuits with gravy, Danish, bagels,cereal, yogurt, fruits, etc. Plus a few different types ofjuices and the most delicious coffee !!! The staff were very friendly and accommodating .We enjoyed our stay there so much, that we booked a roomwith the hotel for our return trip home.We will definitely be staying here again whenwe travel back east again.MoreShow less</t>
+  </si>
+  <si>
+    <t>SQualityInn, Director of Sales at Quality Inn at Arlington Highlands, responded to this reviewResponded February 14, 2011</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2011</t>
+  </si>
+  <si>
+    <t>We had a good experience at this Quality Inn.The room was clean, quiet and comfortable.We had a microwave and small refrigerator in ourroom. The bed was super comfortable.It was conveniently located right off of I-20.There were plenty of restaurants close by and theyhad maps in the lobby where you could choosedifferent restaurants to go to, not too far away fromthe hotel.If you didn’t have a computer with you, there were2 computers set up in the lobby for guests to use.They had a great continental breakfast with lots offood choices. This Quality Inn has waffles (shaped like the state of TX), sausages, biscuits with gravy, Danish, bagels,cereal, yogurt, fruits, etc. Plus a few different types ofjuices and the most delicious coffee !!! The staff were very friendly and accommodating .We enjoyed our stay there so much, that we booked a roomwith the hotel for our return trip home.We will definitely be staying here again whenwe travel back east again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r17635319-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>17635319</t>
+  </si>
+  <si>
+    <t>07/07/2008</t>
+  </si>
+  <si>
+    <t>Great Price, Location, Excellent!</t>
+  </si>
+  <si>
+    <t>This hotel is located right in the new Highland Shopping, with everything at your fingertips.  Six Flags, Ranger Stadium, Christ for the Nations, everything just up the road. Our group was so happy we told others about this hotel.  We enjoyed it all, the rooms, the pool, and the breakfast.  We will be back soon.Come stay at this hotel, you will be happy you did.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is located right in the new Highland Shopping, with everything at your fingertips.  Six Flags, Ranger Stadium, Christ for the Nations, everything just up the road. Our group was so happy we told others about this hotel.  We enjoyed it all, the rooms, the pool, and the breakfast.  We will be back soon.Come stay at this hotel, you will be happy you did.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r14786258-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>14786258</t>
+  </si>
+  <si>
+    <t>04/04/2008</t>
+  </si>
+  <si>
+    <t>Decent</t>
+  </si>
+  <si>
+    <t>We stayed 3 nights. It was $54 a night which was right about on the money. When we arrived the room had issues. The place needs updating. The biggest thing for me was the mold in the shower. The smoke alarm was missing, the phone was broken and didn't work, there were liquids splashed on the wall above the garbage can and areas like the backs of doors and commonly touched places that weren't clean, just simply dirty.  I just wiped them down myself with clorox wipes. The day it was warm enough to swim the pool was closed for chemical treatment so can't comment on that other than it looked OK.ON THE UP SIDE;The outside was well kept. It was in a VERY convienent area close to great shopping and restraunts. The clerks were very nice and when approched about the smoke alarm, phone and mold the issues were serviced with in 2 hours. It was quiet even though it was busy due to weather layovers from the airport. The breakfast bar was nice with cereal, juices, coffee,and best of all Texas shaped make it yourself waffles (kids thought those were neat) . The internet provided in the lobby was acessable most of the time as there were 2 stations.  Over all it wasn't bad. The ammenities made up for the needed updating. But for he $54 we spent I was happy with our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>We stayed 3 nights. It was $54 a night which was right about on the money. When we arrived the room had issues. The place needs updating. The biggest thing for me was the mold in the shower. The smoke alarm was missing, the phone was broken and didn't work, there were liquids splashed on the wall above the garbage can and areas like the backs of doors and commonly touched places that weren't clean, just simply dirty.  I just wiped them down myself with clorox wipes. The day it was warm enough to swim the pool was closed for chemical treatment so can't comment on that other than it looked OK.ON THE UP SIDE;The outside was well kept. It was in a VERY convienent area close to great shopping and restraunts. The clerks were very nice and when approched about the smoke alarm, phone and mold the issues were serviced with in 2 hours. It was quiet even though it was busy due to weather layovers from the airport. The breakfast bar was nice with cereal, juices, coffee,and best of all Texas shaped make it yourself waffles (kids thought those were neat) . The internet provided in the lobby was acessable most of the time as there were 2 stations.  Over all it wasn't bad. The ammenities made up for the needed updating. But for he $54 we spent I was happy with our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r8218141-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>8218141</t>
+  </si>
+  <si>
+    <t>07/21/2007</t>
+  </si>
+  <si>
+    <t>You don't get what you pay for!!!!</t>
+  </si>
+  <si>
+    <t>We stayed at the I-20 Quality Inn in Arlington, Tx.  We were going for a weekend at six flags.  First of all we were booked in the wrong hotel (not the hotels fault).  When we went to the original hotel they tried to call the I-20 location to find out if they had a room for us.  We waited over 20 min for them to get ahold of the front desk.  They only had one clerk at the other hotel and she was very busy, but still to be put on hold for that long is unresonable.  We drove 15 min to the I-20 hotel and the desk clerk tried to joke by saying she didn't have a reservation for us (ha, ha) it wasn't funny at 10 o'clock at night!  The rooms were fair and resonably clean.  The cleaning staff did not clean the room well after the first night, left coffee in the pot from the morning, etc.  This is not what I expected for $90 per night.  Breakfast was hot but that was about the only good thing.  There were not enough tables either morning and I had to wait in line for 15-20 min for the waffle maker.  I forgot my pillow and contacted them about me paying to have it mailed to me but they stated they can't mail anything.  Overall this was a poor experience with a Quality Inn hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>We stayed at the I-20 Quality Inn in Arlington, Tx.  We were going for a weekend at six flags.  First of all we were booked in the wrong hotel (not the hotels fault).  When we went to the original hotel they tried to call the I-20 location to find out if they had a room for us.  We waited over 20 min for them to get ahold of the front desk.  They only had one clerk at the other hotel and she was very busy, but still to be put on hold for that long is unresonable.  We drove 15 min to the I-20 hotel and the desk clerk tried to joke by saying she didn't have a reservation for us (ha, ha) it wasn't funny at 10 o'clock at night!  The rooms were fair and resonably clean.  The cleaning staff did not clean the room well after the first night, left coffee in the pot from the morning, etc.  This is not what I expected for $90 per night.  Breakfast was hot but that was about the only good thing.  There were not enough tables either morning and I had to wait in line for 15-20 min for the waffle maker.  I forgot my pillow and contacted them about me paying to have it mailed to me but they stated they can't mail anything.  Overall this was a poor experience with a Quality Inn hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r5945657-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>5945657</t>
+  </si>
+  <si>
+    <t>10/11/2006</t>
+  </si>
+  <si>
+    <t>Excellent Service Recovery!!!!</t>
+  </si>
+  <si>
+    <t>I recently had a bad stay at the Whitten Inn of Arlington and had wrote a letter stating my bad stay and had posted it woth Travel Advisory. I would like to let everyone know that Excellent Customer Service Recovery was taken place by the General Manager and his Dept. Managers shortly after the fact, to see that all of my problems were resolved and assured me that the team members that were involved in my situation were attended to in the appropriate way and to see what they could do to make it right with me. The General Mamager assured me that if at anytime I stayed with any of his properties and had any type of situation that is not taken care immediately I was to be in contact with him immediately and the situation would be taken care.I have to say that I will stay at  the Hotel in Arlington Texas again in the future!!Thanks to all the staff and General Manager!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>I recently had a bad stay at the Whitten Inn of Arlington and had wrote a letter stating my bad stay and had posted it woth Travel Advisory. I would like to let everyone know that Excellent Customer Service Recovery was taken place by the General Manager and his Dept. Managers shortly after the fact, to see that all of my problems were resolved and assured me that the team members that were involved in my situation were attended to in the appropriate way and to see what they could do to make it right with me. The General Mamager assured me that if at anytime I stayed with any of his properties and had any type of situation that is not taken care immediately I was to be in contact with him immediately and the situation would be taken care.I have to say that I will stay at  the Hotel in Arlington Texas again in the future!!Thanks to all the staff and General Manager!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r5798712-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>5798712</t>
+  </si>
+  <si>
+    <t>09/12/2006</t>
+  </si>
+  <si>
+    <t>Enjoyable Stay at the Whitten Inn</t>
+  </si>
+  <si>
+    <t>I was in Arlington 8/25/06 - 9/3/06 attending a training class and hotel accommodations were at the Whitten Inn.  Being a female traveling alone, I was a little hesitant to stay in accommodations where the rooms had "exterior" doors - like a motel.  However, after checking out the room and the surrounding area, I felt more at ease.  The room was clean, the bed was comfortable and I had a microwave and mini-refrigerator - which was very convenient.  The daily breakfast was average and I found the hotel staff to be very accommodating.  Overall a very enjoyable stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2006</t>
+  </si>
+  <si>
+    <t>I was in Arlington 8/25/06 - 9/3/06 attending a training class and hotel accommodations were at the Whitten Inn.  Being a female traveling alone, I was a little hesitant to stay in accommodations where the rooms had "exterior" doors - like a motel.  However, after checking out the room and the surrounding area, I felt more at ease.  The room was clean, the bed was comfortable and I had a microwave and mini-refrigerator - which was very convenient.  The daily breakfast was average and I found the hotel staff to be very accommodating.  Overall a very enjoyable stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r3020366-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>3020366</t>
+  </si>
+  <si>
+    <t>01/19/2005</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>We stayed here while visiting relatives that live near the Parks Mall. It was very easy to hit the mall and Traders village from here and right next door to a great Mexican food Cafe. The staff was very friendly and seemed concerned with our needs.  This is a older but nicely remodled place and seemed very clean.I will probably stay here next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here while visiting relatives that live near the Parks Mall. It was very easy to hit the mall and Traders village from here and right next door to a great Mexican food Cafe. The staff was very friendly and seemed concerned with our needs.  This is a older but nicely remodled place and seemed very clean.I will probably stay here next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r1421272-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>1421272</t>
+  </si>
+  <si>
+    <t>10/23/2003</t>
+  </si>
+  <si>
+    <t>Great stay.</t>
+  </si>
+  <si>
+    <t>The location was convenient to both the Park Inn Mall, Traders Village, and of course Six Flags. We had courteous check-in and check-out. We had a problem with the room heating unit, called front desk and the manager found some plastic bullets some kids had put in to make it smell. He offered another room, but it aired out fine. The complimentary breakfasts were also plentiful and had a good variety of items. Everything was clean, the room had iron, board and hair dryer which was handy. I'd stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>The location was convenient to both the Park Inn Mall, Traders Village, and of course Six Flags. We had courteous check-in and check-out. We had a problem with the room heating unit, called front desk and the manager found some plastic bullets some kids had put in to make it smell. He offered another room, but it aired out fine. The complimentary breakfasts were also plentiful and had a good variety of items. Everything was clean, the room had iron, board and hair dryer which was handy. I'd stay there again.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2813,6448 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>62</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>84</v>
+      </c>
+      <c r="X6" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>84</v>
+      </c>
+      <c r="X7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>84</v>
+      </c>
+      <c r="X8" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O9" t="s">
+        <v>104</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>105</v>
+      </c>
+      <c r="X9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" t="s">
+        <v>104</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>105</v>
+      </c>
+      <c r="X10" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>105</v>
+      </c>
+      <c r="X11" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>126</v>
+      </c>
+      <c r="O12" t="s">
+        <v>104</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>105</v>
+      </c>
+      <c r="X12" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" t="s">
+        <v>132</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" t="s">
+        <v>134</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>135</v>
+      </c>
+      <c r="X13" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>143</v>
+      </c>
+      <c r="X14" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" t="s">
+        <v>148</v>
+      </c>
+      <c r="L15" t="s">
+        <v>149</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>150</v>
+      </c>
+      <c r="O15" t="s">
+        <v>62</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>143</v>
+      </c>
+      <c r="X15" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" t="s">
+        <v>156</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>120</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>143</v>
+      </c>
+      <c r="X16" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>159</v>
+      </c>
+      <c r="J17" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" t="s">
+        <v>161</v>
+      </c>
+      <c r="L17" t="s">
+        <v>162</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>163</v>
+      </c>
+      <c r="O17" t="s">
+        <v>104</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>164</v>
+      </c>
+      <c r="X17" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" t="s">
+        <v>170</v>
+      </c>
+      <c r="L18" t="s">
+        <v>171</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>172</v>
+      </c>
+      <c r="O18" t="s">
+        <v>62</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>164</v>
+      </c>
+      <c r="X18" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>175</v>
+      </c>
+      <c r="J19" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" t="s">
+        <v>177</v>
+      </c>
+      <c r="L19" t="s">
+        <v>178</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>179</v>
+      </c>
+      <c r="O19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>180</v>
+      </c>
+      <c r="X19" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>184</v>
+      </c>
+      <c r="J20" t="s">
+        <v>185</v>
+      </c>
+      <c r="K20" t="s">
+        <v>186</v>
+      </c>
+      <c r="L20" t="s">
+        <v>187</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>163</v>
+      </c>
+      <c r="O20" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>180</v>
+      </c>
+      <c r="X20" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>189</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>190</v>
+      </c>
+      <c r="J21" t="s">
+        <v>185</v>
+      </c>
+      <c r="K21" t="s">
+        <v>191</v>
+      </c>
+      <c r="L21" t="s">
+        <v>192</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>172</v>
+      </c>
+      <c r="O21" t="s">
+        <v>104</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>180</v>
+      </c>
+      <c r="X21" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>195</v>
+      </c>
+      <c r="J22" t="s">
+        <v>185</v>
+      </c>
+      <c r="K22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L22" t="s">
+        <v>197</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>198</v>
+      </c>
+      <c r="O22" t="s">
+        <v>199</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>180</v>
+      </c>
+      <c r="X22" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>202</v>
+      </c>
+      <c r="J23" t="s">
+        <v>203</v>
+      </c>
+      <c r="K23" t="s">
+        <v>204</v>
+      </c>
+      <c r="L23" t="s">
+        <v>205</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>206</v>
+      </c>
+      <c r="O23" t="s">
+        <v>199</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>207</v>
+      </c>
+      <c r="X23" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>211</v>
+      </c>
+      <c r="J24" t="s">
+        <v>212</v>
+      </c>
+      <c r="K24" t="s">
+        <v>213</v>
+      </c>
+      <c r="L24" t="s">
+        <v>214</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>206</v>
+      </c>
+      <c r="O24" t="s">
+        <v>62</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>207</v>
+      </c>
+      <c r="X24" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>216</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>217</v>
+      </c>
+      <c r="J25" t="s">
+        <v>218</v>
+      </c>
+      <c r="K25" t="s">
+        <v>219</v>
+      </c>
+      <c r="L25" t="s">
+        <v>220</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>163</v>
+      </c>
+      <c r="O25" t="s">
+        <v>199</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>207</v>
+      </c>
+      <c r="X25" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>222</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>223</v>
+      </c>
+      <c r="J26" t="s">
+        <v>224</v>
+      </c>
+      <c r="K26" t="s">
+        <v>225</v>
+      </c>
+      <c r="L26" t="s">
+        <v>226</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>227</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>228</v>
+      </c>
+      <c r="X26" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>231</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>232</v>
+      </c>
+      <c r="J27" t="s">
+        <v>233</v>
+      </c>
+      <c r="K27" t="s">
+        <v>234</v>
+      </c>
+      <c r="L27" t="s">
+        <v>235</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>227</v>
+      </c>
+      <c r="O27" t="s">
+        <v>104</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>207</v>
+      </c>
+      <c r="X27" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>237</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>238</v>
+      </c>
+      <c r="J28" t="s">
+        <v>239</v>
+      </c>
+      <c r="K28" t="s">
+        <v>240</v>
+      </c>
+      <c r="L28" t="s">
+        <v>241</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>242</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>207</v>
+      </c>
+      <c r="X28" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>244</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>245</v>
+      </c>
+      <c r="J29" t="s">
+        <v>246</v>
+      </c>
+      <c r="K29" t="s">
+        <v>247</v>
+      </c>
+      <c r="L29" t="s">
+        <v>248</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>249</v>
+      </c>
+      <c r="O29" t="s">
+        <v>199</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>250</v>
+      </c>
+      <c r="X29" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>253</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>254</v>
+      </c>
+      <c r="J30" t="s">
+        <v>255</v>
+      </c>
+      <c r="K30" t="s">
+        <v>256</v>
+      </c>
+      <c r="L30" t="s">
+        <v>257</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>249</v>
+      </c>
+      <c r="O30" t="s">
+        <v>104</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>250</v>
+      </c>
+      <c r="X30" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>259</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>260</v>
+      </c>
+      <c r="J31" t="s">
+        <v>261</v>
+      </c>
+      <c r="K31" t="s">
+        <v>262</v>
+      </c>
+      <c r="L31" t="s">
+        <v>263</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>242</v>
+      </c>
+      <c r="O31" t="s">
+        <v>62</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>250</v>
+      </c>
+      <c r="X31" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>265</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>266</v>
+      </c>
+      <c r="J32" t="s">
+        <v>267</v>
+      </c>
+      <c r="K32" t="s">
+        <v>268</v>
+      </c>
+      <c r="L32" t="s">
+        <v>269</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>179</v>
+      </c>
+      <c r="O32" t="s">
+        <v>104</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>270</v>
+      </c>
+      <c r="X32" t="s">
+        <v>271</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>273</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>274</v>
+      </c>
+      <c r="J33" t="s">
+        <v>275</v>
+      </c>
+      <c r="K33" t="s">
+        <v>276</v>
+      </c>
+      <c r="L33" t="s">
+        <v>277</v>
+      </c>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>278</v>
+      </c>
+      <c r="O33" t="s">
+        <v>199</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>279</v>
+      </c>
+      <c r="X33" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>282</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>283</v>
+      </c>
+      <c r="J34" t="s">
+        <v>284</v>
+      </c>
+      <c r="K34" t="s">
+        <v>285</v>
+      </c>
+      <c r="L34" t="s">
+        <v>286</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>278</v>
+      </c>
+      <c r="O34" t="s">
+        <v>62</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>279</v>
+      </c>
+      <c r="X34" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>288</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>289</v>
+      </c>
+      <c r="J35" t="s">
+        <v>290</v>
+      </c>
+      <c r="K35" t="s">
+        <v>291</v>
+      </c>
+      <c r="L35" t="s">
+        <v>292</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>293</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>279</v>
+      </c>
+      <c r="X35" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>295</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>296</v>
+      </c>
+      <c r="J36" t="s">
+        <v>297</v>
+      </c>
+      <c r="K36" t="s">
+        <v>298</v>
+      </c>
+      <c r="L36" t="s">
+        <v>299</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>293</v>
+      </c>
+      <c r="O36" t="s">
+        <v>134</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>279</v>
+      </c>
+      <c r="X36" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>301</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>302</v>
+      </c>
+      <c r="J37" t="s">
+        <v>303</v>
+      </c>
+      <c r="K37" t="s">
+        <v>304</v>
+      </c>
+      <c r="L37" t="s">
+        <v>305</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>293</v>
+      </c>
+      <c r="O37" t="s">
+        <v>199</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>279</v>
+      </c>
+      <c r="X37" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>307</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>308</v>
+      </c>
+      <c r="J38" t="s">
+        <v>309</v>
+      </c>
+      <c r="K38" t="s">
+        <v>310</v>
+      </c>
+      <c r="L38" t="s">
+        <v>311</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>312</v>
+      </c>
+      <c r="O38" t="s">
+        <v>104</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>279</v>
+      </c>
+      <c r="X38" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>314</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>315</v>
+      </c>
+      <c r="J39" t="s">
+        <v>316</v>
+      </c>
+      <c r="K39" t="s">
+        <v>317</v>
+      </c>
+      <c r="L39" t="s">
+        <v>318</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>319</v>
+      </c>
+      <c r="O39" t="s">
+        <v>134</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>320</v>
+      </c>
+      <c r="X39" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>323</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>324</v>
+      </c>
+      <c r="J40" t="s">
+        <v>325</v>
+      </c>
+      <c r="K40" t="s">
+        <v>326</v>
+      </c>
+      <c r="L40" t="s">
+        <v>327</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>328</v>
+      </c>
+      <c r="O40" t="s">
+        <v>62</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>2</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>329</v>
+      </c>
+      <c r="X40" t="s">
+        <v>330</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>332</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>333</v>
+      </c>
+      <c r="J41" t="s">
+        <v>334</v>
+      </c>
+      <c r="K41" t="s">
+        <v>335</v>
+      </c>
+      <c r="L41" t="s">
+        <v>336</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>337</v>
+      </c>
+      <c r="O41" t="s">
+        <v>134</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>207</v>
+      </c>
+      <c r="X41" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>339</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>340</v>
+      </c>
+      <c r="J42" t="s">
+        <v>341</v>
+      </c>
+      <c r="K42" t="s">
+        <v>342</v>
+      </c>
+      <c r="L42" t="s">
+        <v>343</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>344</v>
+      </c>
+      <c r="O42" t="s">
+        <v>104</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>207</v>
+      </c>
+      <c r="X42" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>346</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>347</v>
+      </c>
+      <c r="J43" t="s">
+        <v>348</v>
+      </c>
+      <c r="K43" t="s">
+        <v>349</v>
+      </c>
+      <c r="L43" t="s">
+        <v>350</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>344</v>
+      </c>
+      <c r="O43" t="s">
+        <v>62</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>207</v>
+      </c>
+      <c r="X43" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>352</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>353</v>
+      </c>
+      <c r="J44" t="s">
+        <v>354</v>
+      </c>
+      <c r="K44" t="s">
+        <v>355</v>
+      </c>
+      <c r="L44" t="s">
+        <v>356</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>357</v>
+      </c>
+      <c r="O44" t="s">
+        <v>104</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>358</v>
+      </c>
+      <c r="X44" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>361</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>362</v>
+      </c>
+      <c r="J45" t="s">
+        <v>363</v>
+      </c>
+      <c r="K45" t="s">
+        <v>364</v>
+      </c>
+      <c r="L45" t="s">
+        <v>365</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>366</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>367</v>
+      </c>
+      <c r="J46" t="s">
+        <v>368</v>
+      </c>
+      <c r="K46" t="s">
+        <v>369</v>
+      </c>
+      <c r="L46" t="s">
+        <v>370</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>357</v>
+      </c>
+      <c r="O46" t="s">
+        <v>62</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>371</v>
+      </c>
+      <c r="X46" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>374</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>375</v>
+      </c>
+      <c r="J47" t="s">
+        <v>376</v>
+      </c>
+      <c r="K47" t="s">
+        <v>377</v>
+      </c>
+      <c r="L47" t="s">
+        <v>378</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>379</v>
+      </c>
+      <c r="O47" t="s">
+        <v>104</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>380</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>381</v>
+      </c>
+      <c r="J48" t="s">
+        <v>382</v>
+      </c>
+      <c r="K48" t="s">
+        <v>383</v>
+      </c>
+      <c r="L48" t="s">
+        <v>384</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>379</v>
+      </c>
+      <c r="O48" t="s">
+        <v>134</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>386</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>387</v>
+      </c>
+      <c r="J49" t="s">
+        <v>388</v>
+      </c>
+      <c r="K49" t="s">
+        <v>389</v>
+      </c>
+      <c r="L49" t="s">
+        <v>390</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>391</v>
+      </c>
+      <c r="O49" t="s">
+        <v>134</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>393</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>394</v>
+      </c>
+      <c r="J50" t="s">
+        <v>395</v>
+      </c>
+      <c r="K50" t="s">
+        <v>396</v>
+      </c>
+      <c r="L50" t="s">
+        <v>397</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>398</v>
+      </c>
+      <c r="O50" t="s">
+        <v>62</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>399</v>
+      </c>
+      <c r="X50" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>402</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>403</v>
+      </c>
+      <c r="J51" t="s">
+        <v>404</v>
+      </c>
+      <c r="K51" t="s">
+        <v>405</v>
+      </c>
+      <c r="L51" t="s">
+        <v>406</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>407</v>
+      </c>
+      <c r="O51" t="s">
+        <v>104</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>399</v>
+      </c>
+      <c r="X51" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>409</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>410</v>
+      </c>
+      <c r="J52" t="s">
+        <v>411</v>
+      </c>
+      <c r="K52" t="s">
+        <v>412</v>
+      </c>
+      <c r="L52" t="s">
+        <v>413</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>414</v>
+      </c>
+      <c r="O52" t="s">
+        <v>199</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>2</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>415</v>
+      </c>
+      <c r="X52" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>418</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>419</v>
+      </c>
+      <c r="J53" t="s">
+        <v>420</v>
+      </c>
+      <c r="K53" t="s">
+        <v>421</v>
+      </c>
+      <c r="L53" t="s">
+        <v>422</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>423</v>
+      </c>
+      <c r="O53" t="s">
+        <v>199</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>424</v>
+      </c>
+      <c r="X53" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>427</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>428</v>
+      </c>
+      <c r="J54" t="s">
+        <v>429</v>
+      </c>
+      <c r="K54" t="s">
+        <v>430</v>
+      </c>
+      <c r="L54" t="s">
+        <v>431</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>432</v>
+      </c>
+      <c r="X54" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>435</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>436</v>
+      </c>
+      <c r="J55" t="s">
+        <v>437</v>
+      </c>
+      <c r="K55" t="s">
+        <v>438</v>
+      </c>
+      <c r="L55" t="s">
+        <v>439</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>440</v>
+      </c>
+      <c r="X55" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>443</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>444</v>
+      </c>
+      <c r="J56" t="s">
+        <v>445</v>
+      </c>
+      <c r="K56" t="s">
+        <v>446</v>
+      </c>
+      <c r="L56" t="s">
+        <v>447</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>423</v>
+      </c>
+      <c r="O56" t="s">
+        <v>104</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>448</v>
+      </c>
+      <c r="X56" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>451</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>452</v>
+      </c>
+      <c r="J57" t="s">
+        <v>453</v>
+      </c>
+      <c r="K57" t="s">
+        <v>454</v>
+      </c>
+      <c r="L57" t="s">
+        <v>455</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>456</v>
+      </c>
+      <c r="O57" t="s">
+        <v>134</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>448</v>
+      </c>
+      <c r="X57" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>458</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>459</v>
+      </c>
+      <c r="J58" t="s">
+        <v>460</v>
+      </c>
+      <c r="K58" t="s">
+        <v>461</v>
+      </c>
+      <c r="L58" t="s">
+        <v>462</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>423</v>
+      </c>
+      <c r="O58" t="s">
+        <v>104</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>448</v>
+      </c>
+      <c r="X58" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>464</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>465</v>
+      </c>
+      <c r="J59" t="s">
+        <v>466</v>
+      </c>
+      <c r="K59" t="s">
+        <v>467</v>
+      </c>
+      <c r="L59" t="s">
+        <v>468</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>456</v>
+      </c>
+      <c r="O59" t="s">
+        <v>62</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>469</v>
+      </c>
+      <c r="X59" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>472</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>473</v>
+      </c>
+      <c r="J60" t="s">
+        <v>474</v>
+      </c>
+      <c r="K60" t="s">
+        <v>475</v>
+      </c>
+      <c r="L60" t="s">
+        <v>476</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>469</v>
+      </c>
+      <c r="X60" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>478</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>479</v>
+      </c>
+      <c r="J61" t="s">
+        <v>480</v>
+      </c>
+      <c r="K61" t="s">
+        <v>481</v>
+      </c>
+      <c r="L61" t="s">
+        <v>482</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>456</v>
+      </c>
+      <c r="O61" t="s">
+        <v>62</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>2</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>2</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>469</v>
+      </c>
+      <c r="X61" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>484</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>485</v>
+      </c>
+      <c r="J62" t="s">
+        <v>486</v>
+      </c>
+      <c r="K62" t="s">
+        <v>487</v>
+      </c>
+      <c r="L62" t="s">
+        <v>488</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>456</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>490</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>491</v>
+      </c>
+      <c r="J63" t="s">
+        <v>492</v>
+      </c>
+      <c r="K63" t="s">
+        <v>493</v>
+      </c>
+      <c r="L63" t="s">
+        <v>494</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>495</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>496</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>497</v>
+      </c>
+      <c r="J64" t="s">
+        <v>498</v>
+      </c>
+      <c r="K64" t="s">
+        <v>499</v>
+      </c>
+      <c r="L64" t="s">
+        <v>500</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>501</v>
+      </c>
+      <c r="O64" t="s">
+        <v>199</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>503</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>504</v>
+      </c>
+      <c r="J65" t="s">
+        <v>505</v>
+      </c>
+      <c r="K65" t="s">
+        <v>506</v>
+      </c>
+      <c r="L65" t="s">
+        <v>507</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>508</v>
+      </c>
+      <c r="O65" t="s">
+        <v>62</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>509</v>
+      </c>
+      <c r="X65" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>512</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>513</v>
+      </c>
+      <c r="J66" t="s">
+        <v>514</v>
+      </c>
+      <c r="K66" t="s">
+        <v>515</v>
+      </c>
+      <c r="L66" t="s">
+        <v>516</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>508</v>
+      </c>
+      <c r="O66" t="s">
+        <v>62</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>517</v>
+      </c>
+      <c r="X66" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>519</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>520</v>
+      </c>
+      <c r="J67" t="s">
+        <v>521</v>
+      </c>
+      <c r="K67" t="s">
+        <v>522</v>
+      </c>
+      <c r="L67" t="s">
+        <v>523</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>524</v>
+      </c>
+      <c r="O67" t="s">
+        <v>134</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>525</v>
+      </c>
+      <c r="X67" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>528</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>529</v>
+      </c>
+      <c r="J68" t="s">
+        <v>530</v>
+      </c>
+      <c r="K68" t="s">
+        <v>531</v>
+      </c>
+      <c r="L68" t="s">
+        <v>532</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>525</v>
+      </c>
+      <c r="X68" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>534</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>535</v>
+      </c>
+      <c r="J69" t="s">
+        <v>536</v>
+      </c>
+      <c r="K69" t="s">
+        <v>537</v>
+      </c>
+      <c r="L69" t="s">
+        <v>538</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>525</v>
+      </c>
+      <c r="X69" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>540</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>541</v>
+      </c>
+      <c r="J70" t="s">
+        <v>542</v>
+      </c>
+      <c r="K70" t="s">
+        <v>543</v>
+      </c>
+      <c r="L70" t="s">
+        <v>544</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>545</v>
+      </c>
+      <c r="O70" t="s">
+        <v>62</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>546</v>
+      </c>
+      <c r="X70" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>549</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>550</v>
+      </c>
+      <c r="J71" t="s">
+        <v>551</v>
+      </c>
+      <c r="K71" t="s">
+        <v>552</v>
+      </c>
+      <c r="L71" t="s">
+        <v>553</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>546</v>
+      </c>
+      <c r="X71" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>555</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>556</v>
+      </c>
+      <c r="J72" t="s">
+        <v>557</v>
+      </c>
+      <c r="K72" t="s">
+        <v>558</v>
+      </c>
+      <c r="L72" t="s">
+        <v>559</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>545</v>
+      </c>
+      <c r="O72" t="s">
+        <v>134</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>560</v>
+      </c>
+      <c r="X72" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>563</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>564</v>
+      </c>
+      <c r="J73" t="s">
+        <v>565</v>
+      </c>
+      <c r="K73" t="s">
+        <v>566</v>
+      </c>
+      <c r="L73" t="s">
+        <v>567</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>568</v>
+      </c>
+      <c r="O73" t="s">
+        <v>62</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>569</v>
+      </c>
+      <c r="X73" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>572</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>573</v>
+      </c>
+      <c r="J74" t="s">
+        <v>574</v>
+      </c>
+      <c r="K74" t="s">
+        <v>575</v>
+      </c>
+      <c r="L74" t="s">
+        <v>576</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>577</v>
+      </c>
+      <c r="O74" t="s">
+        <v>104</v>
+      </c>
+      <c r="P74" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>2</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>578</v>
+      </c>
+      <c r="X74" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>581</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>582</v>
+      </c>
+      <c r="J75" t="s">
+        <v>583</v>
+      </c>
+      <c r="K75" t="s">
+        <v>584</v>
+      </c>
+      <c r="L75" t="s">
+        <v>585</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>577</v>
+      </c>
+      <c r="O75" t="s">
+        <v>62</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>578</v>
+      </c>
+      <c r="X75" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>587</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>588</v>
+      </c>
+      <c r="J76" t="s">
+        <v>589</v>
+      </c>
+      <c r="K76" t="s">
+        <v>590</v>
+      </c>
+      <c r="L76" t="s">
+        <v>591</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>592</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>578</v>
+      </c>
+      <c r="X76" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>594</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>595</v>
+      </c>
+      <c r="J77" t="s">
+        <v>596</v>
+      </c>
+      <c r="K77" t="s">
+        <v>597</v>
+      </c>
+      <c r="L77" t="s">
+        <v>598</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>599</v>
+      </c>
+      <c r="O77" t="s">
+        <v>104</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>600</v>
+      </c>
+      <c r="X77" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>603</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>604</v>
+      </c>
+      <c r="J78" t="s">
+        <v>605</v>
+      </c>
+      <c r="K78" t="s">
+        <v>606</v>
+      </c>
+      <c r="L78" t="s">
+        <v>607</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>608</v>
+      </c>
+      <c r="O78" t="s">
+        <v>134</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>610</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>611</v>
+      </c>
+      <c r="J79" t="s">
+        <v>612</v>
+      </c>
+      <c r="K79" t="s">
+        <v>613</v>
+      </c>
+      <c r="L79" t="s">
+        <v>614</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>615</v>
+      </c>
+      <c r="O79" t="s">
+        <v>62</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>600</v>
+      </c>
+      <c r="X79" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>617</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>618</v>
+      </c>
+      <c r="J80" t="s">
+        <v>619</v>
+      </c>
+      <c r="K80" t="s">
+        <v>620</v>
+      </c>
+      <c r="L80" t="s">
+        <v>621</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>622</v>
+      </c>
+      <c r="O80" t="s">
+        <v>62</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>623</v>
+      </c>
+      <c r="X80" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>626</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>627</v>
+      </c>
+      <c r="J81" t="s">
+        <v>628</v>
+      </c>
+      <c r="K81" t="s">
+        <v>629</v>
+      </c>
+      <c r="L81" t="s">
+        <v>630</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>631</v>
+      </c>
+      <c r="O81" t="s">
+        <v>104</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>623</v>
+      </c>
+      <c r="X81" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>633</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>634</v>
+      </c>
+      <c r="J82" t="s">
+        <v>635</v>
+      </c>
+      <c r="K82" t="s">
+        <v>636</v>
+      </c>
+      <c r="L82" t="s">
+        <v>637</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>631</v>
+      </c>
+      <c r="O82" t="s">
+        <v>62</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>623</v>
+      </c>
+      <c r="X82" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>639</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>640</v>
+      </c>
+      <c r="J83" t="s">
+        <v>641</v>
+      </c>
+      <c r="K83" t="s">
+        <v>642</v>
+      </c>
+      <c r="L83" t="s">
+        <v>643</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>631</v>
+      </c>
+      <c r="O83" t="s">
+        <v>62</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>623</v>
+      </c>
+      <c r="X83" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>645</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>646</v>
+      </c>
+      <c r="J84" t="s">
+        <v>647</v>
+      </c>
+      <c r="K84" t="s">
+        <v>648</v>
+      </c>
+      <c r="L84" t="s">
+        <v>649</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>631</v>
+      </c>
+      <c r="O84" t="s">
+        <v>62</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>623</v>
+      </c>
+      <c r="X84" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>651</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>652</v>
+      </c>
+      <c r="J85" t="s">
+        <v>653</v>
+      </c>
+      <c r="K85" t="s">
+        <v>654</v>
+      </c>
+      <c r="L85" t="s">
+        <v>655</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>656</v>
+      </c>
+      <c r="O85" t="s">
+        <v>62</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>623</v>
+      </c>
+      <c r="X85" t="s">
+        <v>624</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>658</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>659</v>
+      </c>
+      <c r="J86" t="s">
+        <v>660</v>
+      </c>
+      <c r="K86" t="s">
+        <v>661</v>
+      </c>
+      <c r="L86" t="s">
+        <v>662</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>663</v>
+      </c>
+      <c r="O86" t="s">
+        <v>199</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>664</v>
+      </c>
+      <c r="X86" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>667</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>668</v>
+      </c>
+      <c r="J87" t="s">
+        <v>669</v>
+      </c>
+      <c r="K87" t="s">
+        <v>670</v>
+      </c>
+      <c r="L87" t="s">
+        <v>671</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>672</v>
+      </c>
+      <c r="O87" t="s">
+        <v>199</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>664</v>
+      </c>
+      <c r="X87" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>674</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>675</v>
+      </c>
+      <c r="J88" t="s">
+        <v>676</v>
+      </c>
+      <c r="K88" t="s">
+        <v>677</v>
+      </c>
+      <c r="L88" t="s">
+        <v>678</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>679</v>
+      </c>
+      <c r="O88" t="s">
+        <v>199</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>664</v>
+      </c>
+      <c r="X88" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>681</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>682</v>
+      </c>
+      <c r="J89" t="s">
+        <v>683</v>
+      </c>
+      <c r="K89" t="s">
+        <v>684</v>
+      </c>
+      <c r="L89" t="s">
+        <v>685</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>686</v>
+      </c>
+      <c r="O89" t="s">
+        <v>104</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>664</v>
+      </c>
+      <c r="X89" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>688</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>689</v>
+      </c>
+      <c r="J90" t="s">
+        <v>690</v>
+      </c>
+      <c r="K90" t="s">
+        <v>691</v>
+      </c>
+      <c r="L90" t="s">
+        <v>692</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>693</v>
+      </c>
+      <c r="O90" t="s">
+        <v>104</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>1</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1</v>
+      </c>
+      <c r="S90" t="n">
+        <v>1</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>1</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>664</v>
+      </c>
+      <c r="X90" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>695</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>696</v>
+      </c>
+      <c r="J91" t="s">
+        <v>697</v>
+      </c>
+      <c r="K91" t="s">
+        <v>698</v>
+      </c>
+      <c r="L91" t="s">
+        <v>699</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>700</v>
+      </c>
+      <c r="O91" t="s">
+        <v>104</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>3</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>664</v>
+      </c>
+      <c r="X91" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>702</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>703</v>
+      </c>
+      <c r="J92" t="s">
+        <v>704</v>
+      </c>
+      <c r="K92" t="s">
+        <v>705</v>
+      </c>
+      <c r="L92" t="s">
+        <v>706</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="s"/>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>707</v>
+      </c>
+      <c r="X92" t="s">
+        <v>708</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>710</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>711</v>
+      </c>
+      <c r="J93" t="s">
+        <v>712</v>
+      </c>
+      <c r="K93" t="s">
+        <v>713</v>
+      </c>
+      <c r="L93" t="s">
+        <v>714</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s"/>
+      <c r="O93" t="s"/>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>707</v>
+      </c>
+      <c r="X93" t="s">
+        <v>708</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>716</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>717</v>
+      </c>
+      <c r="J94" t="s">
+        <v>718</v>
+      </c>
+      <c r="K94" t="s">
+        <v>719</v>
+      </c>
+      <c r="L94" t="s">
+        <v>720</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" t="s">
+        <v>721</v>
+      </c>
+      <c r="O94" t="s">
+        <v>104</v>
+      </c>
+      <c r="P94" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>2</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>2</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>707</v>
+      </c>
+      <c r="X94" t="s">
+        <v>708</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>723</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>724</v>
+      </c>
+      <c r="J95" t="s">
+        <v>725</v>
+      </c>
+      <c r="K95" t="s">
+        <v>726</v>
+      </c>
+      <c r="L95" t="s">
+        <v>727</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2</v>
+      </c>
+      <c r="N95" t="s">
+        <v>728</v>
+      </c>
+      <c r="O95" t="s">
+        <v>62</v>
+      </c>
+      <c r="P95" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>3</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>2</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>707</v>
+      </c>
+      <c r="X95" t="s">
+        <v>708</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>730</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>731</v>
+      </c>
+      <c r="J96" t="s">
+        <v>732</v>
+      </c>
+      <c r="K96" t="s">
+        <v>733</v>
+      </c>
+      <c r="L96" t="s">
+        <v>734</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s"/>
+      <c r="O96" t="s"/>
+      <c r="P96" t="s"/>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="s"/>
+      <c r="T96" t="s"/>
+      <c r="U96" t="s"/>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>707</v>
+      </c>
+      <c r="X96" t="s">
+        <v>708</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>736</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>737</v>
+      </c>
+      <c r="J97" t="s">
+        <v>738</v>
+      </c>
+      <c r="K97" t="s">
+        <v>739</v>
+      </c>
+      <c r="L97" t="s">
+        <v>740</v>
+      </c>
+      <c r="M97" t="n">
+        <v>3</v>
+      </c>
+      <c r="N97" t="s">
+        <v>741</v>
+      </c>
+      <c r="O97" t="s">
+        <v>104</v>
+      </c>
+      <c r="P97" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>3</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>3</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>3</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>707</v>
+      </c>
+      <c r="X97" t="s">
+        <v>708</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>743</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>744</v>
+      </c>
+      <c r="J98" t="s">
+        <v>745</v>
+      </c>
+      <c r="K98" t="s">
+        <v>746</v>
+      </c>
+      <c r="L98" t="s">
+        <v>747</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s"/>
+      <c r="O98" t="s"/>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="s"/>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>707</v>
+      </c>
+      <c r="X98" t="s">
+        <v>708</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>11032</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>749</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>750</v>
+      </c>
+      <c r="J99" t="s">
+        <v>751</v>
+      </c>
+      <c r="K99" t="s">
+        <v>752</v>
+      </c>
+      <c r="L99" t="s">
+        <v>753</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="s"/>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="s"/>
+      <c r="T99" t="s"/>
+      <c r="U99" t="s"/>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>707</v>
+      </c>
+      <c r="X99" t="s">
+        <v>708</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>754</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_623.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_623.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="850">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>541geraldineg</t>
+  </si>
+  <si>
     <t>06/16/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Room location was next to the lobby and I was able to park in front of my door. Perfect condition due to the fact I was traveling along. Everyone was extremely friendly. I only needed to call for one thing (hangers) and they were right there to bring them.More</t>
   </si>
   <si>
+    <t>V1137LZjaneb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r583758660-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>This property provides an adequate place to rest and an adequate breakfast.  I have stayed at the same place several times 7 or 8 years ago.  The service was generally good, but there is a need for some maintenance.  It appeared there is some exterior painting being done, but there was no work going on during the 4 days I was there. The WiFi was undependable in my room.  The maid who knocked at my door 2 days spoke no English and could not understand me when I asked her to come back later, so one day no one cleaned my room. On the second day she called someone on a radio to translate.More</t>
   </si>
   <si>
+    <t>tubastew</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r581763533-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>Stayed a week here in May 2018 while visiting family.  Rates are great.  This is our second time to stay at this establishment.  The staff/management seem to go out of their way to help in any way they can.  Our king room was clean.  It was at one end of the building, so there was not a lot of foot traffic going by.  Room doors all open to the outside.  There is ample parking.  It is a great location with a lot of things very close and many other venues not too far.  Breakfast is standard fare; some sort of meat (we did not get bacon for any breakfast meal), SOS, sausage, or ham seemed to be the standard.  The juice machine was not working, but they had orange juice available.  Wish they had diabetic friendly choices such as syrup and plain cereal, not a bunch of sugar coated cereal like Honey Nut Cheerios.  Community coffee was served in the lobby, room coffee was from a one serving at a time mini coffee maker.  The room was clean and the bed was comfy.   The bathroom fixtures were properly maintained; i.e.  I didn’t get any unexpected showers from leaking fixtures, plenty of hot water.More</t>
   </si>
   <si>
+    <t>Joan B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r579513435-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -252,6 +264,9 @@
     <t>Came in for graduation at UTA and needed someplace close to school and with a variety of close by eating options.  This.place fit the bill and had a great complimentary breakfast! Staff was incredible in service and smiles. Very welcoming! Currently going through some upgrades so some parts looked a bit sketchy from the road, and no elevator to 2nd floor. But our rooms were just fine. Pricing was wonderful. Nearby WIDE selection of eating establishments,  many open late for accommodating late diners after graduation. I'd stay here again!More</t>
   </si>
   <si>
+    <t>Penny L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r578118613-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -279,6 +294,9 @@
     <t>Nice hotel in the absolute perfect location for our needs. The beds in our 2 bed room, while comfortable, were more along full sized instead of queen sized. The rooms could use a bit of updating throughout. The only issue we had was the size of the beds. Nice, hot shower and plenty of room for our 2 night stay. Had a refrigerator and a microwave that worked great. Easy in and out off the freeway. Front desk attendant who checked us in was extremely polite. Breakfast was excellent and had lots of options available for us to enjoy.More</t>
   </si>
   <si>
+    <t>Heather N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r576982837-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -295,6 +313,9 @@
   </si>
   <si>
     <t>Positives: the location is great, the bed was super comfy and the breakfast was excellent.  Bonus, everyone was super friendly. We went to breakfast near closing time and the clerk was very nice to come and let everyone know in case they wanted to get something else. The only issue we had was the water flow in the shower, but it was hot and I expect some new shower heads would resolve the issue.More</t>
+  </si>
+  <si>
+    <t>Derrick M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r575804823-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
@@ -327,6 +348,9 @@
 When I come back to this area I would definitely look to staying in this hotel again, but much closer to...I only stayed overnight at this hotel for a family function.  Front desk personnel were always present and very helpful, attentive and engaging. I needed a 3AM wakeup, and it was right on time. Spanish is spoken if needed.The biggest problem I had was that the internet did not work in my room.  I was in a back room distant from the front desk.  I had to go to the front desk area to utilize the internet.The room was clean, although the carpet was a little worn.  Refrigerator was small.  Room was spacious for me. Queen-sized bed was firm, not hard, and I slept well. If you prefer a soft bed, this is not for you.  All linen and towels, etc. were clean and not worn.  Closet space was quite adequate.I only looked at the television briefly for the news, so cannot comment much about selection quality.  I do not even remember what size it was now.Heating/AC worked well.  Noise was about average for a hotel in this rank.  I was able to sleep without a problem.Hotel is located right next to I-20, easy on, easy off. It is also next door to a large shopping center.  I did not see any big box stores, though.  Shopping center is quite modern, safe and clean.When I come back to this area I would definitely look to staying in this hotel again, but much closer to the front desk for the internet.Two notes: 1) the hotel is applying for a liquor license, in case that makes a difference to you; 2) I left so early that I did not have a chance to try the free breakfast, so I cannot comment on it.More</t>
   </si>
   <si>
+    <t>007scallywag S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r573595570-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -354,6 +378,9 @@
     <t>Amy was the desk clerk when I stayed there on Friday 4-13-18.  She was extremely helpful, friendly, competent and fun, always smiling and took care of my few needs.  Quality Inn is very lucky to have her.  The room was neat and clean and comfortable. I only needed a quick 5 hour nap then back on the road home to a 18 inch snowfall in Wisconsin.I would recommend the Quality Inn here for your stay.More</t>
   </si>
   <si>
+    <t>Rodney D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r573374711-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -375,6 +402,9 @@
     <t>Very good customer service. When the light wasn't working over the sink area, I was upgraded to another room without additional charge. I thought that was exceptional customer service. Thank you so much for generous hospitality.More</t>
   </si>
   <si>
+    <t>rayjay721</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r551633866-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -396,6 +426,9 @@
     <t>The hotel itself was average, two story detached buildings and no elevators. The staff that I had interaction with weren't very attentive or friendly. the breakfast was so-so, best part was the hot waffles. i was never able to find an ice machine. The absolute worst part was a $20 dollar charge that I found on my credit card statement the following months.After three calls to the hotel I could not get the manager on the phone or to return my call. I was told by the desk clerk the charge was for damaged or missing items. I know for a fact Nothing was damaged or taken by me. I will never stay at this location again! I tried to file a complaint with customer service but they contacted the hotel and they would not refund the charge, I was told it had been too long to file a complaint.More</t>
   </si>
   <si>
+    <t>Sam D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r548409307-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -414,6 +447,9 @@
     <t>Very good value for the money.  No real complaints.  Was comfortable, well maintained, and friendly and helpful staff.  Have stayed here on three separate occasions, experience has been consistent. Location was ideal for our needs.More</t>
   </si>
   <si>
+    <t>faunyac72</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r547215627-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -444,6 +480,9 @@
     <t>I was in town for a Cowboys Game at AT&amp;T stadium. This was my first stay at this property. The room was clean and comfy. The staff at front desk was friendly, courteous, and professional. Location was conveinant. More</t>
   </si>
   <si>
+    <t>Connie D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r526394277-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -468,6 +507,9 @@
     <t>The only good thing about this Quality Inn was the breakfast.  Glad that I had made reservations as the place was full.  When we went into the room EVERY LIGHT PLUS THE TV was on.  I had to call the front desk as the smoke alarm was constantly beeping, when she got there she checked the alarm and found that there wasn't a battery in it, so we had no smoke alarm.  The room was on the end but that wasn't a problem, we just weren't comfortable in the room at all.  Would you ask me if I'd recommend this inn my answer would be, NO.More</t>
   </si>
   <si>
+    <t>edwardgN7762YF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r526325068-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -486,6 +528,9 @@
     <t>We had a great stay at this hotel, the staff was great and handled everything we had a problem with. The only problems I felt bad about is, out of the three( (3) days we were there, the pool was only open the first day and was close the two days after. I also feel the wi-fi to the room was not good, I always had to go to the office for using the wi-fi.More</t>
   </si>
   <si>
+    <t>awalkerinfo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r526150730-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -504,6 +549,9 @@
     <t>The facilities were the least scenic and the service especially in terms of morning breakfast was quite satisfactory. Aside from all of that. my stay was considered "simply standardized." Nonetheless, I've sincerely enjoyed the stays at this particular hotel.More</t>
   </si>
   <si>
+    <t>Brad M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r488051805-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -531,6 +579,9 @@
     <t>We've enjoyed staying at this Quality Inn for 3 years! Great staff and a very good breakfast. Maids are careful and always willing to help out. Each year they remember us and try their best to accommodate all our needs.More</t>
   </si>
   <si>
+    <t>tracywilliams215</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r487374566-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -552,6 +603,9 @@
     <t>The trip was great! The breakfast was good and I loved the Texas shaped waffle maker. The room was always clean and the bed was always made when we returned each evening. The staff at the front counter was very helpful and friendly.More</t>
   </si>
   <si>
+    <t>catherinersd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r485292256-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -579,6 +633,9 @@
     <t>We have stayed at Quality Inn at Arlington Highlands multiple times over the pastseveral years. It is easy to access from the 20 and the location has good for access to nearby eateries. There are lots of sit down and fast food restaurants very close by. Our  rooms have always been clean and cozy. We have always felt safe here. The beds have always slept well. Also it is dog friendly which is very Important to us b/c we don’t travel without our fur-kid. The staff there has always been friendly and professional.This is always our hotel of choice when we travel back east. They have an awesome breakfast with a wide variety to suit most tastes. More</t>
   </si>
   <si>
+    <t>trkjr1967</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r485152009-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -597,6 +654,9 @@
     <t>I have stayed here several times and while the Rooms need an update, and I understand it is in the Process Currently, the staff is always friendly and polite. I would stay here each and every time I am in the DFW area, More</t>
   </si>
   <si>
+    <t>Jay M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r485138873-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -612,6 +672,9 @@
     <t>Starkville, Ms to Ft Stockton TexasFrom Miss to Dallas there seemed to be solid road repair, creating slowdowns and congestion I had hoped to get further than Arlington but better safe than sorryFront desk staff was superb and I will certainly stay there on my next occasion More</t>
   </si>
   <si>
+    <t>Sharon S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r485134319-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -633,6 +696,9 @@
     <t>I frequently stay at your hotel. I only had 1 bad experience and the manager was very apologetic.  It is closer to all I need. It would be nice if I rec. a complementary room for the amount of times I have stayed there. More</t>
   </si>
   <si>
+    <t>tgriffin82</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r458715621-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -660,6 +726,9 @@
     <t>Wonderful staff. All friendly and helpful. Jamie at front desk was professional and helpful made us feel right at home very, presentable agent . The breakfast food was good with decent choices. Rooms could use a bit of modernization, location is great with many restaurants and shopping storesMore</t>
   </si>
   <si>
+    <t>Tracy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r457473077-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -678,6 +747,9 @@
     <t>We stayed in room 202.  It took multiple tries to get the door open on arrival.  Same issue when leaving the room.  The whole assembly was coming apart.  After being gone most of the day and evening, our door was open.  I notified the clerk at the front desk, he was very attentive to the issue, but of course the door knob could not be replaced at that hour.  Hopefully management will replace the door knob &amp; lock before booking anyone else in that room.  It is a fire and safety hazard, I could not open the door at all, my husband had to use a lot of force to get it open.More</t>
   </si>
   <si>
+    <t>Wismickchick</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r449347325-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -696,6 +768,9 @@
     <t>If you want a cheap room that is near a lot of restaurants, this is the hotel for you.  If you want a nice, quiet room with a comfortable bed, this is not the hotel for you.  I will say that the young man checking us in was very polite and knowledgable about the area.  He also was very accommodating when we requested to change rooms because of a horrible odor.  He also was the same one who came to bring us a plunger when our toilet would not flush.  The plunger barely solved the problem and our toilet took 2 minutes to flush each time.  The beds were hard and uncomfortable and the shower had barely any water pressure.  The light in the bathroom flickered and my husband sometimes had to tap it to even get it to turn on!  Thank goodness he was there because I wouldn't have been able to reach it!  The walls are paper thin and we could hear our neighbor's television for most of our stay. We also had a 2 night stay and our room was not cleaned at all during the second day!Although all the staff we encountered were wonderful, I would definitely spend a little more money to stay at a nicer quality hotel.More</t>
   </si>
   <si>
+    <t>galavanterAust</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r433347771-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -723,6 +798,9 @@
     <t>I was shuttled out here in the middle of the night as a result of a flight delay and missed connection. My experience of this hotel wasn't at all pretty, it felt like the hotel was located in the middle of no where and stuck in a 1970s time warp. The room was extremely large with two double beds and a sitting area, but that's about all it had going for it. It felt grotty, bathroom was old and water pressure was interesting. Room was musty and smelt like it had been previously occupied by a heavy smoker as the smell of smoke lingered. I was greaful my stay was very brief.More</t>
   </si>
   <si>
+    <t>Patricia W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r427180473-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -741,6 +819,9 @@
     <t>Cons. No water pressure. Spotty cell reception in the room. Stained and torn shower curtain. Carpet was very old and felt dirty. Pros.  Location. Cheap. Sheets were okay. Wish I had stayed somewhere else. More</t>
   </si>
   <si>
+    <t>Daniel V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r425374757-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -762,6 +843,9 @@
     <t>The main improvement was the replacement of the snooty young woman desk clerk I dealt with last year.  My room was clean and came equipped with a luggage rack.  Hand towels were back on the rack rather than just wash clothes, and there no reefer truck left running all night, unlike last time.  Location is very convenient just off I20, easy on and off but without any road noise.More</t>
   </si>
   <si>
+    <t>glennandtis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r418402361-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -789,6 +873,9 @@
     <t>We stayed at the Quality Inn at Arlington Highlands on our way to square dances in Texas.  Everything was great.  We encountered no problems while there.  Our room was clean and the breakfasts were adequate  to get us going in the mornings.More</t>
   </si>
   <si>
+    <t>attlyharris</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r417558652-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -807,6 +894,9 @@
     <t>I had the opportunity to stay the property recently. I notified "Trent" the morning of my check out that my vehicle had been broken into. I asked him to inform the Hotel General Manager to contact me and he stated there was nothing that could be done because it was private property. I called the next day to follow up with the General Manager Shannon and he told me she was not on property and he hung the phone up in my face. I am questioning this hotels professionalism and if "Trent" had something to do with the break in to my vehicle. There was nothing taken out of my vehicle because I left no merchandise visible. Before someone speaks on behalf of the General Manager they need to give the manager an opportunity to speak for themselves. Truly unhappy with this hotel and will NEVER stay here again.More</t>
   </si>
   <si>
+    <t>Virginia B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r415811059-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -825,6 +915,9 @@
     <t>The staff was wonderful.  They went out of their way to make sure everything was fine. If there was any problems with anything they tried to make it right.  This is the second time I have stayed there and the service was great both times.More</t>
   </si>
   <si>
+    <t>Carlos P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r397023173-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -849,6 +942,9 @@
     <t>Came here for a conference at ATT Stadium which was easily accessible from the hotel. The front desk was very friendly and even printed some documents for me. They were able to adjust receipts without any hassle. The room was pretty standard, but you can't find a better location in Arlington if your looking for access to dining and shopping. They also have free continental breakfast if you don't feel like leaving in the morning.More</t>
   </si>
   <si>
+    <t>rpattonlowe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r383304179-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -876,6 +972,9 @@
     <t>The location is great, tons of of restaurants, shops, but the hotel is very outdated. We were in town for a funeral. We stayed 5 nights and our room was cleaned only once. The grounds itself is not maintained. The landscaping is not well kept as a matter fact, grass looks a mess. Cigarette butts everywhere, not swept. My husband and I was so surprised at the condition of this facility because it is in a very nice location. After one night stay we lnquired at other hotels in the area but unfortunately they were all booked. However, there was a young white male that worked at the front desk that was very friendly, it his friendly service is the only nice thing I can say about this place. They say you pay for what you get. Personally, this hotel is overpriced based on the overall facilities. Please re-model in the near future and in the interim, hire a landscaper, a maintenance crew, and install pop and ice vending machines. Would not stay here again!More</t>
   </si>
   <si>
+    <t>Kathy L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r382935205-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -894,6 +993,9 @@
     <t>The location is close to our family and is an easy to commute to our family's home. Reasonable rate. There were not enough towels in room. No place to put suitcase except floor.The breakfast leaves a lot to be desired! Lots of room for improvement re: the breakfast.More</t>
   </si>
   <si>
+    <t>mvann4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r365654045-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -913,6 +1015,9 @@
   </si>
   <si>
     <t>I booked this hotel as I was travelling with my dog. I had a comfortable room with a descent breakfast. The outdoor pool had a nasty film on the water. Room was quiet and had a microwave and refrigerator.More</t>
+  </si>
+  <si>
+    <t>martyfarty69</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r362809639-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
@@ -943,6 +1048,9 @@
 Again, if I had paid more for this room then I would be critical and I'm not going to give it glowing reviews. It's average rating fits in with a distinctly...When you stay at a Quality Inn off a highway in Texas at this kind of room rate you pretty much get what you pay for.My expectations were low and as such I didn't feel disappointed or "ripped off" if you're expecting great service, "Disney esque" customer service from the Desk staff and state of the art room amenities and soft plush towels then maybe you should expand your budget.A friend and I had booked this hotel because we were in town for WrestleMania weekend and it's fairly conveniently placed to get to Dallas and ATT Stadium ( although Dallas traffic Is always terrible so there is never a good time to get into Dallas ) it's also cheap and we weren't planning on spending much time in the room..it really was a place to rest our heads and that's exactly what it was.Check-in was easy and parking was decent for the amount of rooms they have. We were on the second floor and the room was clean but certainly dated with some of the thinnest towels I've seen in a hotel in quite some time. Everything worked though, TV was good with easy access to Cable and the Heat and AC unites worked as expected.Again, if I had paid more for this room then I would be critical and I'm not going to give it glowing reviews. It's average rating fits in with a distinctly average place to stay. If you want more...then pay more !More</t>
   </si>
   <si>
+    <t>Lee M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r362030833-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -961,6 +1069,9 @@
     <t>I personally liked this hotel. Yeah it's dated but it's a decent price. Breakfast is incredible and its bang in the middle of the business park. I would stop here again. But I could see why people wouldn't. I wouldn't swim in the pool though. That's for sure. That looked pretty grim. More</t>
   </si>
   <si>
+    <t>Chance W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r340331801-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -982,6 +1093,9 @@
     <t>I was here this past week for work. Rooms were clean, free breakfast was a nice feature. Staff is Excellent!! I had no issues with my room and the manager seemed genuinely interested about my opinion of my stay.More</t>
   </si>
   <si>
+    <t>Marsha A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r336952623-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1009,6 +1123,9 @@
     <t>The check in was fast and friendly. The manager called down to check to see if we were satisfied with the our stay. The room was clean, and Danny made breakfast a great experience. I will definitely be back : )More</t>
   </si>
   <si>
+    <t>Carol C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r332077992-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1057,6 +1174,9 @@
     <t>Management must have changed.  1.  Motel no longer provides suitcase rests.  2.  Hand towels at basin have been replaced by extra wash cloths.  3.  In spite of my telling the desk clerk about a missing coffee carafe, it was not replaced during my stay.  4.  At check-in the desk clerk told me the smoking room I'd reserved and paid in advance was not available.More</t>
   </si>
   <si>
+    <t>WorldwideTee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r290561366-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1078,6 +1198,9 @@
     <t>I stayed at this property June 28-July 4 2015.  Right off I-20.  Room 150, poolside.  Check in was effortless, a gentleman named Rydiah was very courteous.  Room was a bit dated, but sufficient for my stay.  This property ranks very, very, high for me as far as proximity to shopping and restaurants, I mean crawling distance and variety!  I had an issue with my door key and I think Tammy (PM front desk) did all she could do to help up until the problem was solved.  Decent breakfast each AM.More</t>
   </si>
   <si>
+    <t>vicki a</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r278630391-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1123,6 +1246,9 @@
     <t>This property has the nicest hotel staff. We appreciate the quality breakfast, good parking, and location to restaurants and shopping. We were here for business but because we had to stay through the weekend it was terrific to be within walking distance of excellent food and entertainment..More</t>
   </si>
   <si>
+    <t>ibtweety78</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r255284403-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1138,6 +1264,9 @@
     <t>We enjoyed our stay very nice older property we will be going back . Bed was comfy nice 24 hour coffee bar nice breakfast very friendly front desk staff management was very friendly . Was a great stay thank you</t>
   </si>
   <si>
+    <t>Unique D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r253366845-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1162,6 +1291,9 @@
     <t>The hotel offers a 24 hour coffee bar and also fruit infused water in the lobby. Our room also had a single serve coffee maker, a microwave and a small fridge.The wi-fi was pretty sketchy, but we were in the back so it was expected. We tried to use the laundry room our first night, but nobody at the front desk knew if there new machines had been installed or how much they were...it was kinda cold so we didn't bother with walking around to find out. It wasn't a huge deal though.This hotel is located within spitting distance of all kinds of restaurant, shopping and activities and that was helpful because we didn't need to go far for anything and could walk.More</t>
   </si>
   <si>
+    <t>KURTBGK15</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r240979989-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1180,6 +1312,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>scott b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r240133781-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1198,6 +1333,9 @@
     <t>My wife and  I stayed here this past weekend visiting some friends. We came in around 10.30 Friday night and at first we were both very skeptical but from the time we walked in, the place was really nice for a Quality Inn. The guy checking us in was really nice, the room was really clean to our surprise. Breakfast was not bad but it was really crowded with kids the next morning.There is so much to eat in the area that we really didn't care much.The girl who gave the receipt this morning was also very pleasant. Overall, we will return to this place in January when we come back to Arlington. Hope we can get the same great rate!More</t>
   </si>
   <si>
+    <t>JWC75604</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r233824969-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1219,6 +1357,9 @@
     <t>I will admit that I booked this room through a third-party booking service and, therefore, did not pay the full price listed on the Quality Inn site.That being said, I was well received when I arrived a bit early in the afternoon. I found the room clean, although it smelled of disinfectant (at least I knew it had been cleaned) and the smell went away after a few hours. All of the appliances worked and the water was extremely hot. The tv had an abundance of channels and the mattress was very comfortable, even though I have a bad back. The only complaint about the room was the noise from the air conditioner compressor, which I reported, but the unit did keep the room as cold as I wanted. A hot breakfast was provided in the morning and was plentiful, although the warming trays did not keep it very hot, but the waffle machine did work very well and was simple to use. The pool, which I used after my arrival, was clean and well maintained. I have read several negative reviews of this property and it is older, but freshly painted and my room appeared to have new carpeting. I would stay here again for a reasonable rate as the location is convenient to all kinds of attractions and shopping.More</t>
   </si>
   <si>
+    <t>shhparents</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r219387081-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1246,6 +1387,9 @@
     <t>Decided on a spur of the moment to go to Arlington. Room was clean plenty of food choices. Big complaint seriously time to update the bathroom area. Grout was a little nasty. An the refrigerator was practically stuck to the floor because the microwave was so heavy. Nice room for the cost. Did not check out the pool or breakfast.More</t>
   </si>
   <si>
+    <t>Paul J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r213672538-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1267,6 +1411,9 @@
     <t>I stayed here four nights.  This is really a motel that has been refurbed into a Quality Inn with all exterior facing rooms.  The rooms were fine, with enough room for a desk, king bed, and chair/ottoman.  I wasn't expecting the small fridge &amp; microwave in my room, they were added bonuses.  The carpet and furnishings could use an upgrade, but I had no complaints, especially given the price I was paying.  The free breakfast was little more than a continental breakfast, although they did have a waffle making station, but I stuck to cereals and pre-packaged items.  The biggest thing this hotel has going for it is its location.  It is very conveniently located next to I-20 and the hospital, as well as the Arlington Highlands area next door with dozens of restaurants, shopping and entertainment locations, many of which were within walking distance.  Overall, it was a good stay.More</t>
   </si>
   <si>
+    <t>April M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r212223082-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1294,6 +1441,9 @@
     <t>Our AC went out at home and couldn't be fixed until Monday, so my husband &amp; I needed a room for a couple of nights. All of the hotels in Mansfield were booked due to soccer and softball tournaments. We decided on this "hotel" because of the location and I had a discount code (that the guy at the front desk would not allow me to use for some reason). It was not what we expected for the Arlington Highlands area and is more of a motel than a hotel and it is WAY overpriced. The bed was as hard as a table - we would have been better off sleeping on the floor. We were going to stay 2 nights, but decided against the 2nd night after our 1st night and reserved another room  in Mansfield at a real hotel (which was $40 less than here). The girl at the front desk the following morning was really rude - probably because we interrupted her conversation with the girl in the grey shirt (housekeeping perhaps?) on the guest side of the desk. Not my first choice and won't be my last choice either. Should anything happen like this again, we will choose my ex-husbands house over this place.More</t>
   </si>
   <si>
+    <t>LCandSC</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r197028815-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1321,6 +1471,9 @@
     <t>We stayed here last September for three nights. The hotel is in an excellent location between two Malls.  The Parks Mall for shopping but the Arlington Highlands Mall that the hotel is in was great for shopping and an excellent night life.  Amazing restaurants and bars within walking distance.  The place to be at night and right on the hotel’s doorstep!!  We had the best nights out here throughout our month’s tour.Whilst we were staying the hotel was being refurbished and we had a lovely refurbished room.  However, there was no safe in the room despite it saying there was one on the hotel’s website.  The air conditioning in the room was nowhere near cold enough!The hot breakfast was good with a big choice and 24 hour coffee.  Outside swimming pool and area needed a bit of attention.  It was situated near to the non refurbished rooms so maybe this will be cleaned up in time.  We had a good time in Arlington. The hotel was not too far away from the Texas Rangers Stadium and Six Flags over Texas.We were very disappointed with Fort Worth Stock Yards. Ok for a quick visit - extremely tacky.  Instead go to the Texas Civil War Museum for a very interesting perspective on the Civil War!  We would definitely stay here again.More</t>
   </si>
   <si>
+    <t>Colleen814</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r196069917-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1345,6 +1498,9 @@
     <t>I made reservation in January for March stay. Arrived at 4:00pm, check out was at 11:00am, room was ready at 9:00pm, gave front desk cell number twice to let us know when room was ready, NEVER got a call. Then had toilet problem @ 4:00am &amp; NO to help. Front desk clerk was going to let toilet run over. My husband had to go to Walmart at 4:30am in freezing weather for a plunger because no one could open the maintenance closet. I will say we stayed for 2 nights &amp; was given 1 night free. We will NOT be staying there again. More</t>
   </si>
   <si>
+    <t>Jroc6</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r195430095-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1369,6 +1525,9 @@
     <t>Had a nice stay at the Quality Inn in Arlington Texas. It is right by the mall and has alot of shopping areas. A couple of nice places to eat at also. Love the location. We come there alot when we visit the Improv comedy shows.More</t>
   </si>
   <si>
+    <t>TXTwoStep</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r180507788-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1391,6 +1550,9 @@
   </si>
   <si>
     <t>Looks like they are near the end of remodeling this hotel so the updates make it almost like new.Staff had some good recommendations for drinks and dinner. ( there are literally 100 places to go in this area) Nice clean room, parking area well lit and hotel pretty easy to get to. One of the nicer Quality Inns I have stayed at.More</t>
+  </si>
+  <si>
+    <t>JoeSchlambe</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r178985754-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
@@ -1424,6 +1586,9 @@
 I called motel,...They are remodeling this hotel--new carpet and paint.  In terms of a place to stay, it is not bad.  Lots of restaurants nearby, a mall just beside it.  However, when you check in, you will be asked to sign for the room, then they ask to run your credit card again for $100 for "incidentals."  The promise is that amount will be refunded if the room is left undamaged.This was a first for me in all my years of traveling.  Our room was an average room (still old carpet and kinda dingy) and the breakfast was average.When I got my credit card statement, I found they kept the $100 incidentals fee they made me sign when I checked in.  To my surprise, the hotel kept the $100 fee because a family member who lives nearby came over as we were checking out.  She brought her small dog with her and the dog did come into the room a moment.  When we checked out, they charged me the $76 for the room (not worth that much, I surmise) but that was all at that time.  AFTER I left, they added in the $100.    This review is a follow up to my earlier review, in light of that development.  Now that I see what they have done, I am revising my review.I have to wonder how often this is done...,how many others are billed after departure..I called motel, was told, in essence, "Too bad."  I had credit card company call on my behalf, and the person on duty hung up on us.I am in the Choice Hotels club and this is the first and only time there has been an experience this disappointing.  Now that this has happened, my review can be condensed to three words:  Don't stay here.More</t>
   </si>
   <si>
+    <t>Tom  L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r178699393-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1442,6 +1607,9 @@
     <t>I have to come to Arlington about twice a month for work and keep bouncing through different hotels to switch things up and find one I like that fits within my budget. I had never stayed at the Quality Inn before but being a rewards member, figured I should try it out. Needless to say, I was pleasantly surprised. It is not the newest hotel around but it is a great price, very clean, the staff was very quick and efficient and a literally perfect location. After driving all day to Arlington it is nice not to have to drive to find somewhere to eat or do something. The hotel is literally walking distance from a bunch of cool shops, restaurants and bars. I love it. I will definitely be returning.More</t>
   </si>
   <si>
+    <t>Flogirl3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r166988569-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1466,6 +1634,9 @@
     <t>The location is fantastic. It is located within walking distance of the Highland Mall. There are a lot of stores and restaurants to choose from. Now to the hotel, the room was okay and the breakfast was edible. You have to pay a 100 dollar cash deposit for incidentals. The only complaint is we could not get any soap to bathe and they did not have enough towels and blankets. I ask to different housekeeping ladies with no response. So I called the front desk and was told it was some soap on order. I must say the hotel was full so that may have been the reason. Overall for the price it was okay.More</t>
   </si>
   <si>
+    <t>VinGins</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r166553267-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1484,6 +1655,9 @@
     <t>Colton at the Front Desk was the best thing about this "motel". The kid was totally overwhelmed at check in as he was the only person on duty. It went downhill from there. The room we were assigned, Room 167, not only had a party going on next door, but it also had a defective door lock. After having to trek back and forth to the front desk with two separate keys (to no avail), we were moved to room 230. There were definite signs of wear and tear throughout the property. I counted at least 20 car haulers parked about the building, putting parking at a premium. So, as soon as we finally get into Room 230 we are met by pounding and drilling next door where construction was obviously taking place. (This thankfully stopped a short time after we loaded in.) The room itself was a mish-mash of a variety of furniture styles (no "wow" factor) and there was a hundred feet of coaxial cable rolled up behind the door (?). AC worked okay, but never got really cold. Wifi was virtually non-existent. Bed was firmer than most (not a plus), linens were okay. When we finally laid down for a quick nap, somebody from housekeeping (?) knocked then entered the room before realizing it was occupied. There are signs that they are trying to bring this place up to modern standards, but it's still a little on...Colton at the Front Desk was the best thing about this "motel". The kid was totally overwhelmed at check in as he was the only person on duty. It went downhill from there. The room we were assigned, Room 167, not only had a party going on next door, but it also had a defective door lock. After having to trek back and forth to the front desk with two separate keys (to no avail), we were moved to room 230. There were definite signs of wear and tear throughout the property. I counted at least 20 car haulers parked about the building, putting parking at a premium. So, as soon as we finally get into Room 230 we are met by pounding and drilling next door where construction was obviously taking place. (This thankfully stopped a short time after we loaded in.) The room itself was a mish-mash of a variety of furniture styles (no "wow" factor) and there was a hundred feet of coaxial cable rolled up behind the door (?). AC worked okay, but never got really cold. Wifi was virtually non-existent. Bed was firmer than most (not a plus), linens were okay. When we finally laid down for a quick nap, somebody from housekeeping (?) knocked then entered the room before realizing it was occupied. There are signs that they are trying to bring this place up to modern standards, but it's still a little on the trashy side. I guess that's what a $80 will get you in DFW as we've had little luck finding anything respectable under $100 in the area. More</t>
   </si>
   <si>
+    <t>pappatoad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r165906369-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1502,6 +1676,9 @@
     <t>I waited until the last minute to book and that won't happen again as this is what you get.This is really a truckers motel (there is nothing wrong with that)  as there were at least 4 auto transports parked there.Had two rooms, we were going to an event very close. Even my 10 year old granddaughter knew this was not good. Not very clean.A/C did not really cool the place until well after we went to bed.The room my daughter was in had no soap.  She went to the desk and the girl simply said they were out but had some on order. The young man was much more helpful and at least gave her a few bottles of shampoo.The exterior was a mess.  Many dead roaches.Lots of cigarette butts.The faucet handle came off as there was no screw in the top.There was daylight coming under the door. (Probably let insects in also.)I cant really say enough bad things about this place.More</t>
   </si>
   <si>
+    <t>Mary D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r163621338-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1538,6 +1715,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>Helen63215</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r158798265-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1559,6 +1739,9 @@
     <t>First off we had to wait 2 1/2 hours past check in time for our room to be ready. We we first arrived they told us an hour, we came back after 1 1/2 hours and it still wasn't ready. So we waited in the lobby. We were given a $10.00 discount. When we got to the room instead of it smelling clean it smelled musty and moldy. The wi-fi didn't work in the lobby or in the room. We were given a password for it, but it would NEVER even give us the option of wi fi. The bed was very hard so needless to say we didn't get much sleep. The breakfast the next morning wasn't all that good. The sausage was awful and the gravy was very thin...so we just had fruit and danish.We will not be staying there again or recommending it to anyone else.More</t>
   </si>
   <si>
+    <t>Clint494</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r155758621-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1586,6 +1769,9 @@
     <t>For the price and location, this hotel is a great deal. We were there in March, so the pool was not filled, but other than that it was exactly as advertised. It is right next to a huge number of stores and restaurants along Curtis Mathes way, and right off I-20, so location is great. Rooms were average - no issues with cleanliness and beds were comfortable. Having a fridge and microwave was a plus. My only issue with the rooms was that the TV didn't get many channels and it seemed very dark, but no big issue. Nice breakfast with eggs, sausage, biscuits and gravy, cereals, fruits, coffee and juices. Being able to check out as late as noon was also a bonus. I would definitely stay here again.More</t>
   </si>
   <si>
+    <t>SCJohn1036</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r153652389-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1607,6 +1793,9 @@
     <t>A motel with hotel perks. It's located just of I-20, so it's surronded by good restaurants, shopping, and various venues. The free, full hot breakfast was great, especially since I didn't have to spent extra money driving to a restaurant. The staff was very friendly and answered all my questions with a smile. Our room was clean, in good condition and priced right. My only suggestion would be to add more kid friendly channels to the cable line-up. Thank you to the staff at Quality Inn...keep up the good work!More</t>
   </si>
   <si>
+    <t>Vin A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r143785449-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1634,6 +1823,9 @@
     <t>I stayed at this quality inn for 3 nights. I was very pleased with their services. I like food and I never skip breakfast, I was very pleased with choices I had at the breakfast in the morning. It was delicious of course free. I felt like I am having hot served breakfast at restaurant. Front desk lady was friendly too. If you are food lover you will enjoy breakfast for sure. As far as other services goes. Room was clean and it is very close to all variety of restaurants where I can just walk. I would recommend this place for anyone who is visiting Arlington, TX. I will definitely be here next time.More</t>
   </si>
   <si>
+    <t>JennDog</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r143070686-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1652,6 +1844,9 @@
     <t>Not the greatest rooms, but well worth the price. They have a reception in the lobby with free beer, wine, and pizza from some local restaurant. A lot of fun and great staff service! Definitely will be back soon. Thanks!More</t>
   </si>
   <si>
+    <t>PrincessWhit</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r142435642-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1670,6 +1865,9 @@
     <t>Front desk service was fantastic. So welcoming and very helpful. Answered all questipns, guided us about the town. Managers reception was the best part. Free food and free alcohol drinks. Would always stay here.More</t>
   </si>
   <si>
+    <t>Dennis W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r142215713-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1697,6 +1895,9 @@
     <t>Excellent rates and easy access to the rooms, you can still park close to your door and no having to wag your bags through a lobby and then wait for the elevator!  We will be back next year for more Ranger baseball.More</t>
   </si>
   <si>
+    <t>FootballFunyun</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r140602683-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1715,6 +1916,9 @@
     <t>Friendly staff and delicious breakfast! Rooms may not be the best, but for the price they are great. There were a lot of places to eat within walking distance, but I didn't try any of them because I was too busy with work. :(. Will definitely come back soon!More</t>
   </si>
   <si>
+    <t>Tom B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r139374908-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1739,6 +1943,9 @@
     <t>We stayed here for one night while attending a funeral.  The room was comfortable (though my wife felt the bed was a little hard).  My wife said that the room suffered slightly from what she considers to be a common problem with most motel/hotel rooms -- too much light outside with light blocking curtains which don't fit window opening quite well enough to keep room totally dark at night.  We both actually slept reasonably well though.  Although we did not eat the complimentary breakfast because of a breakfast appointment with friends, it appeared, from a distance, that what was there was minimal and the eating area was kind of small.  Probably the biggest gripe that I would make is the fact that the office staff insisted on making a photo copy of my driver's license.  This makes me uncomfortable and would probably be my biggest reason for not staying here again.  I have stayed at other Quality Inn Motels and don't remember ever being asked for a photo copy of my DL before.  In this era of identify theft, this is a practice that should be terminated!  Check the DL for ID but don't copy it!!!  I understand from one other review of this motel that they have also taken copies of credit cards from some customers.  This is rediculous!!! I am glad they did not try this with me.  There is another Quality Inn in Taos, NM at which...We stayed here for one night while attending a funeral.  The room was comfortable (though my wife felt the bed was a little hard).  My wife said that the room suffered slightly from what she considers to be a common problem with most motel/hotel rooms -- too much light outside with light blocking curtains which don't fit window opening quite well enough to keep room totally dark at night.  We both actually slept reasonably well though.  Although we did not eat the complimentary breakfast because of a breakfast appointment with friends, it appeared, from a distance, that what was there was minimal and the eating area was kind of small.  Probably the biggest gripe that I would make is the fact that the office staff insisted on making a photo copy of my driver's license.  This makes me uncomfortable and would probably be my biggest reason for not staying here again.  I have stayed at other Quality Inn Motels and don't remember ever being asked for a photo copy of my DL before.  In this era of identify theft, this is a practice that should be terminated!  Check the DL for ID but don't copy it!!!  I understand from one other review of this motel that they have also taken copies of credit cards from some customers.  This is rediculous!!! I am glad they did not try this with me.  There is another Quality Inn in Taos, NM at which we have stayed repeatedly.  That one earned a rating of 5 from me.  This one in Arilington is O.K. but not nearly up to the Taos Quality Inn.  Our experiences at the Taos Quality Inn are probably the main reason we stayed at this one in Arlington.More</t>
   </si>
   <si>
+    <t>Dot N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r136903169-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1766,6 +1973,9 @@
     <t>Very pleasantly surprised, did not expect microwave and frigde in the room, we brought a cooler with hotdogs and lunchmeat for the 3 days, so had a great time for snacks at night after swimming in the wonderful TEXAS WEATHER heated pool =)))LOVED the shower, had such great pressure, could have stayed in it all day, clean and professional service on towels and sheets, drained a little slow, but what do you expect in a place with so many people ^^Enjoyed the first, second and third breakfast, way MORE than we expected, loved the healthy fruit and yoghurt options next to hot sausage links, bisquits and gravy, prettiest thing for our kids was the BIG TEXAS WAFFLE maker, fun AND yummy =)Hotel.com showed pictures of a fitness center and an inside pool + whirlpool, didnt see none of that, but we were gone on tours all day anyway. . would have been curious if they had it?We enjoyed our stay very much, payed a dream price for a fam vacation and a safe goodnight sleep, were thankful for the pretty and well made beds every night we came in from our daytrip, trash was taken out, we felt spoiled rotten, hotel staff was very nice everywhere we met them on the property THANK YOU THANK YOU THANK YOU =)More</t>
   </si>
   <si>
+    <t>Gator4eva</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r133803536-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1793,6 +2003,9 @@
     <t>If you like stale smoke infested rooms &amp; AC wall units that are so loud when they kick in you have to more than double the volume of the television, then you would give this place four stars.  I used extra strength Febreeze with several treatments to try to diffuse the odor in my non-smoking room to no avail.  Not only was the AC unit loud enough to wake you each time it turned on, the room was muggy and never really actually cooled the room.  I had to use the freezer section of the refrigerator just to keep my drinks almost cold.  Basically, the room was about $60, so I guess you get what you pay for.  Just know that when I unpacked all of the clothes that I did not wear smelled so much of smoke, they had to go straight back into the laundry.Next time I decide to stay in town to work a weekend, I will fork over the additional cash for a place with "QUALITY" in something more than it's name.More</t>
   </si>
   <si>
+    <t>SkinnyDDS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r133553424-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1811,6 +2024,9 @@
     <t>Reservation on web site. All correct, just sign the form. Outside doors and close parking. Clogged bathroom sink, worn &amp; torn carpet,  and refrig freezer almost solid with ice.  Otherwise everything worked.  Bathroom a little beat up. Good wifi. Above average breakfast, full strength coffee and OJ. Friendly, engaging staff.  Next to outdoor mall, easy interstate access.  Would stay here again.More</t>
   </si>
   <si>
+    <t>cinda w</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r132581042-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1832,6 +2048,9 @@
     <t>I love this hotel, my room was nice and clean the staff was excellant and they had free wifi and a continental breakfast, i will definately stay here again:)More</t>
   </si>
   <si>
+    <t>LizzieMac553</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r129491170-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1859,6 +2078,9 @@
     <t>We checked in on 5/4/12 to attend the Texas Scottish Festival as vendors. The bathtub is so slippery that I fell while taking a shower, injuring my left leg and right foot. The worst things were the live cockroaches that crawled out of both beds, and the dead ones we saw on the floor. The attitude of the staff was that they couldn't care less. They only said that they would notify maintenance. Stay away from this roach-infested, nasty motel!More</t>
   </si>
   <si>
+    <t>Intha W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r128496148-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1880,6 +2102,9 @@
     <t>I have stayed here off and on for an extended stay on business.  The staff is great and the rooms are clean and cleaned daily.  I have stayed in four star hotels but for the age of this hotel, the rooms are great and the surrounding shopping areas are a plus for this property.  Never have had an issue with security and I like that the police are always cruising through property as part of their patrol of the surrounding shopping center.The property is ideally located for alot of activities with easy access to Interstate 20 and the service roads offer quick and easy access to several major roads in Arlington.  All types of restaurants and entertainment are literally within minutes of this hotel.More</t>
   </si>
   <si>
+    <t>Greg126</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r124339257-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1901,6 +2126,9 @@
     <t>There are some very good rates offered here. The place is older so it has outside entries which I happen to prefer if I can get lower level to put the car in front of so that works for me. Inside the rooms are spacious with all the usual items (frig, micro, coffee pot etc). Also clean but again the place shows its age in things like few and poorly placed electrical outlets (that also don't hold a plug too well). Very minor quibble - the coffee envelopes seem scientifically designed so you can open them without tearing the filter.More</t>
   </si>
   <si>
+    <t>jen070471</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r117462387-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1928,6 +2156,9 @@
     <t>we stayed here because it was not to close to the amusment clutter but still close. it was also right by a mall and lots of resturants. it was clean friendly and quiet. great customer service.More</t>
   </si>
   <si>
+    <t>Ronald S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r116466539-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1949,6 +2180,9 @@
     <t>Right of of I20 and right beside Arlington Highlands, great shopping. 2 miles to shopping mall. Easy access to area attractions.More</t>
   </si>
   <si>
+    <t>armadillotexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r116189208-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1967,6 +2201,9 @@
     <t>We stayed here for 3 nights during the USATF Regionals. The rooms were clean and there was a fridge. Overall a good experience. Restaurants and stores are within walking distance if you can stand the 100+F.More</t>
   </si>
   <si>
+    <t>JonesGirl2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r115298147-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1985,6 +2222,9 @@
     <t>We were looking for something close to the Arlington Tennis Center. This Hotel was right around the corner. This hotel is very clean and the staff were very professional. The best part of the hotel was the breakfast. It was the best continental breakfast we've ever had. Fresh hot waffles, hot fluffy biscuits, gravy, sausage, boiled eggs, fruit, cereal, pastries, juice, and coffee. We were so impressed with the ammenities that we opted to return to the same hotel for the following night after advancing in the tennis tournament. The only downside was the wifi reception was not very good unless you were in a room located near the lobby.More</t>
   </si>
   <si>
+    <t>SenBlack</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r115253190-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2003,6 +2243,9 @@
     <t>My overall stay was ok.  Had an incident with a gecko &amp; a cricket, but nothing to get upset about.  Seems housekeeping was short on towels on day #2 and the face towels and the floor mat were not replaced in my room on that day.  The front desk staff was very helpful in getting me some though.  My room was near the pool, that could get a bit loud.  The breakfast was pretty good.  Shopping &amp; restaraunts close by as well as a mall.More</t>
   </si>
   <si>
+    <t>Cris409</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r114871203-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2024,6 +2267,9 @@
     <t>My family and I stayed there for the price so we didnt expect much, but, then wow were in for a pleasent suprise. the room was very clean. the staff was very helpful and pleasent. and the location makes this motel the whole package there is a bunch resturants. shops within walking distance. If im in Arlington again this is going to be the place I rest my head........ Thanks Guys...More</t>
   </si>
   <si>
+    <t>Dlcharles</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r83368653-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2051,6 +2297,9 @@
     <t>This place is old, but clean.  The staff was excellent and extremely friendly.  There is also a hot breakfast each morning.  Late checkout was a plus.  We stayed here for the Cowboy Titan game.  The hotel was crowded and there were lots of parties going on.  The staff recommended dinner and helped us get a taxi to and from the game.More</t>
   </si>
   <si>
+    <t>Happyhosts</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r40220207-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2072,6 +2321,9 @@
     <t>My husband and I spent the night here after a late night flight arrival at DFW.  We found the room to be be adequate for a 1 night stay.  The front desk was very friendly and the breakfast provided was amazing for a economy motel.  It is located in Arlington Heights with restaurants galore.  The motel could do with some sprucing up.  We did not have a drain stopper in our bathtub, but I am sure if I had called the front desk, they might have helped us out.  I just opted for a shower and left them a note.  No big deal.  I was very glad that they had coffee in the lobby, because the little coffee maker had horrible coffee in the room.  But again, I give high marks for their offering for breakfast in the lobby.  Towels were pretty skimpy and not enough, but this is a motel.  I have to be fair and admit we didn't try to get anymore, so we didn't give them a chance to help us out.  I think they would have.There was a super friendly gentleman who checked us in. We would stay here again for 1 night due to the location and price for a place to sleep before returning home.More</t>
   </si>
   <si>
+    <t>awh825</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r35285004-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2093,6 +2345,9 @@
     <t>Our poor experience started at check-in...We were really looking forward to swimming in the pool only to be told it was closed due to failing the health inspection...yuck.  Room was clean but guest services directory notebook was empty, only decaf coffee was provided with the coffee maker.  The property also had unsightly yellow caution tape throughout...Not sure what the intention was here.  We were also wakened by anonymous hang up phone calls during the night...Woke up the next morning and went to breakfast only to find items such as cereal had not been replenished and the burners were out under the warmers to keep the sausage and biscuits warm..  On the plus side we could walk to a local restaurant for dinner.More</t>
   </si>
   <si>
+    <t>dfwworker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r24089114-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2114,6 +2369,9 @@
     <t>I stay at this hotel frequently while traveling.  The staff is great!The rooms are clean and comfortable , the breakfast is good and it is affordable. Everything from malls, fine dining,fast food ,to movies are in walking distance.I would recommend this hotel for anyone who is stretching the dollar like me.More</t>
   </si>
   <si>
+    <t>chrisspalatin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r22930636-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2135,6 +2393,9 @@
     <t>I was driving from Atlanta, GA to Tuscon, AZ and needed a place to stay in central Texas. I pulled into the Quality Inn Highlands after 11pm, slept well after driving more than 12 hours earlier that day, and checked out before 8am the next morning. I returned the room keys and signed for the room. Pretty grubby motel but I had no real complaints... until I checked my credit card statement online and they charged me $220! I called and asked why, and they accused me of stealing a microwave and refrigerator. I told them I didn't and asked them to reverse the charge. They said there was "nothing they could do at this time."  I called repeatedly and after 2 weeks of not being able to get a manager or sales rep on the phone, I got a letter in the mail, saying that there was "nothing they could do at this time." I had to file a dispute with my credit card company for a fraudulent charge and now have to go through all this paperwork. This place is a total SCAM! I will never stay at a CHOICE HOTEL INTERNATIONAL again.More</t>
   </si>
   <si>
+    <t>Godsman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r21450640-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2156,6 +2417,9 @@
     <t>We have just completed a one-night stay at this hotel and it has surpassed my expectations which, I must admit, were not too high.  Our newer room was large, clean and had the advertised amenities.  The furniture appeared to be recently updated.  The hot breakfast was more than adequate.  Since the room opens to an outdoor walkway, we did get a little noise as people walked by, but that was minimal.  We didn't use the fitness room, but it appeared to be good.Just a couple of drawbacks show that this is still a budget hotel.  There was a nice business desk and good wi-fi connection, but there is no power outlet anywhere near the desk.  (Hence, I am writing this review from my laptop while sitting on the other side of the room, where the only available power outlet is located.)  There is a typical 4 cup in-room coffee maker, but the thin styrofoam cups provided seemed very cheap.Still, for the price (we used our Sam's club discount, which was never verified at check-in), this was a good place to stay for the night.More</t>
   </si>
   <si>
+    <t>cocoabella</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r18353383-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2180,6 +2444,9 @@
     <t>We had a good experience at this Quality Inn.The room was clean, quiet and comfortable.We had a microwave and small refrigerator in ourroom. The bed was super comfortable.It was conveniently located right off of I-20.There were plenty of restaurants close by and theyhad maps in the lobby where you could choosedifferent restaurants to go to, not too far away fromthe hotel.If you didn’t have a computer with you, there were2 computers set up in the lobby for guests to use.They had a great continental breakfast with lots offood choices. This Quality Inn has waffles (shaped like the state of TX), sausages, biscuits with gravy, Danish, bagels,cereal, yogurt, fruits, etc. Plus a few different types ofjuices and the most delicious coffee !!! The staff were very friendly and accommodating .We enjoyed our stay there so much, that we booked a roomwith the hotel for our return trip home.We will definitely be staying here again whenwe travel back east again.More</t>
   </si>
   <si>
+    <t>JRK1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r17635319-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2198,6 +2465,9 @@
     <t>This hotel is located right in the new Highland Shopping, with everything at your fingertips.  Six Flags, Ranger Stadium, Christ for the Nations, everything just up the road. Our group was so happy we told others about this hotel.  We enjoyed it all, the rooms, the pool, and the breakfast.  We will be back soon.Come stay at this hotel, you will be happy you did.More</t>
   </si>
   <si>
+    <t>goinplacestoo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r14786258-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2219,6 +2489,9 @@
     <t>We stayed 3 nights. It was $54 a night which was right about on the money. When we arrived the room had issues. The place needs updating. The biggest thing for me was the mold in the shower. The smoke alarm was missing, the phone was broken and didn't work, there were liquids splashed on the wall above the garbage can and areas like the backs of doors and commonly touched places that weren't clean, just simply dirty.  I just wiped them down myself with clorox wipes. The day it was warm enough to swim the pool was closed for chemical treatment so can't comment on that other than it looked OK.ON THE UP SIDE;The outside was well kept. It was in a VERY convienent area close to great shopping and restraunts. The clerks were very nice and when approched about the smoke alarm, phone and mold the issues were serviced with in 2 hours. It was quiet even though it was busy due to weather layovers from the airport. The breakfast bar was nice with cereal, juices, coffee,and best of all Texas shaped make it yourself waffles (kids thought those were neat) . The internet provided in the lobby was acessable most of the time as there were 2 stations.  Over all it wasn't bad. The ammenities made up for the needed updating. But for he $54 we spent I was happy with our stay.More</t>
   </si>
   <si>
+    <t>OTsnow</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r8218141-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2240,6 +2513,9 @@
     <t>We stayed at the I-20 Quality Inn in Arlington, Tx.  We were going for a weekend at six flags.  First of all we were booked in the wrong hotel (not the hotels fault).  When we went to the original hotel they tried to call the I-20 location to find out if they had a room for us.  We waited over 20 min for them to get ahold of the front desk.  They only had one clerk at the other hotel and she was very busy, but still to be put on hold for that long is unresonable.  We drove 15 min to the I-20 hotel and the desk clerk tried to joke by saying she didn't have a reservation for us (ha, ha) it wasn't funny at 10 o'clock at night!  The rooms were fair and resonably clean.  The cleaning staff did not clean the room well after the first night, left coffee in the pot from the morning, etc.  This is not what I expected for $90 per night.  Breakfast was hot but that was about the only good thing.  There were not enough tables either morning and I had to wait in line for 15-20 min for the waffle maker.  I forgot my pillow and contacted them about me paying to have it mailed to me but they stated they can't mail anything.  Overall this was a poor experience with a Quality Inn hotel.More</t>
   </si>
   <si>
+    <t>sheyenne</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r5945657-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2258,6 +2534,9 @@
     <t>I recently had a bad stay at the Whitten Inn of Arlington and had wrote a letter stating my bad stay and had posted it woth Travel Advisory. I would like to let everyone know that Excellent Customer Service Recovery was taken place by the General Manager and his Dept. Managers shortly after the fact, to see that all of my problems were resolved and assured me that the team members that were involved in my situation were attended to in the appropriate way and to see what they could do to make it right with me. The General Mamager assured me that if at anytime I stayed with any of his properties and had any type of situation that is not taken care immediately I was to be in contact with him immediately and the situation would be taken care.I have to say that I will stay at  the Hotel in Arlington Texas again in the future!!Thanks to all the staff and General Manager!!!!More</t>
   </si>
   <si>
+    <t>NIQUE2000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r5798712-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2279,6 +2558,9 @@
     <t>I was in Arlington 8/25/06 - 9/3/06 attending a training class and hotel accommodations were at the Whitten Inn.  Being a female traveling alone, I was a little hesitant to stay in accommodations where the rooms had "exterior" doors - like a motel.  However, after checking out the room and the surrounding area, I felt more at ease.  The room was clean, the bed was comfortable and I had a microwave and mini-refrigerator - which was very convenient.  The daily breakfast was average and I found the hotel staff to be very accommodating.  Overall a very enjoyable stay.More</t>
   </si>
   <si>
+    <t>RGP86</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r3020366-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
   </si>
   <si>
@@ -2295,6 +2577,9 @@
   </si>
   <si>
     <t>We stayed here while visiting relatives that live near the Parks Mall. It was very easy to hit the mall and Traders village from here and right next door to a great Mexican food Cafe. The staff was very friendly and seemed concerned with our needs.  This is a older but nicely remodled place and seemed very clean.I will probably stay here next time.More</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d98389-r1421272-Quality_Inn_at_Arlington_Highlands-Arlington_Texas.html</t>
@@ -2817,43 +3102,47 @@
       <c r="A2" t="n">
         <v>11032</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>174067</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -2871,56 +3160,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>11032</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>174068</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2932,47 +3225,51 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>11032</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>6590</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
@@ -2989,56 +3286,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>11032</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>964</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3050,56 +3351,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>11032</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>15839</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -3115,56 +3420,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>11032</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>109580</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
         <v>88</v>
       </c>
-      <c r="J7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>83</v>
-      </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -3182,56 +3491,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X7" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>11032</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>174069</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -3249,56 +3562,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="X8" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>11032</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>174070</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -3316,56 +3633,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="X9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="Y9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>11032</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>45199</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>122</v>
+      </c>
+      <c r="O10" t="s">
         <v>112</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>113</v>
-      </c>
-      <c r="O10" t="s">
-        <v>104</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3377,56 +3698,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="X10" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>11032</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>174071</v>
+      </c>
+      <c r="C11" t="s">
+        <v>124</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3442,56 +3767,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="X11" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>11032</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>36198</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s">
         <v>12</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="O12" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3503,56 +3832,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="X12" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="Y12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>11032</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>174072</v>
+      </c>
+      <c r="C13" t="s">
+        <v>139</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="K13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="L13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="O13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3564,47 +3897,51 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="X13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="Y13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>11032</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>66925</v>
+      </c>
+      <c r="C14" t="s">
+        <v>150</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="K14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="L14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
@@ -3621,56 +3958,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="X14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="Y14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>11032</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>174073</v>
+      </c>
+      <c r="C15" t="s">
+        <v>159</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="J15" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="K15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="O15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3682,56 +4023,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="X15" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="Y15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>11032</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>174074</v>
+      </c>
+      <c r="C16" t="s">
+        <v>166</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="J16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="K16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3743,56 +4088,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="X16" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="Y16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>11032</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>19025</v>
+      </c>
+      <c r="C17" t="s">
+        <v>173</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="J17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="O17" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3804,56 +4153,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="X17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="Y17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>11032</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>174075</v>
+      </c>
+      <c r="C18" t="s">
+        <v>183</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="J18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="K18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="O18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3865,56 +4218,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="X18" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="Y18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>11032</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>174076</v>
+      </c>
+      <c r="C19" t="s">
+        <v>191</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="J19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="K19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="O19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3926,56 +4283,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="X19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="Y19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>11032</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>174077</v>
+      </c>
+      <c r="C20" t="s">
+        <v>201</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="J20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="K20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="O20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3987,56 +4348,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="X20" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="Y20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>11032</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>12428</v>
+      </c>
+      <c r="C21" t="s">
+        <v>208</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
+        <v>209</v>
+      </c>
+      <c r="G21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I21" t="s">
+        <v>210</v>
+      </c>
+      <c r="J21" t="s">
+        <v>204</v>
+      </c>
+      <c r="K21" t="s">
+        <v>211</v>
+      </c>
+      <c r="L21" t="s">
+        <v>212</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
         <v>189</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
-        <v>190</v>
-      </c>
-      <c r="J21" t="s">
-        <v>185</v>
-      </c>
-      <c r="K21" t="s">
-        <v>191</v>
-      </c>
-      <c r="L21" t="s">
-        <v>192</v>
-      </c>
-      <c r="M21" t="n">
-        <v>5</v>
-      </c>
-      <c r="N21" t="s">
-        <v>172</v>
-      </c>
       <c r="O21" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4048,56 +4413,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="X21" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="Y21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>11032</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>10951</v>
+      </c>
+      <c r="C22" t="s">
+        <v>214</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="J22" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="K22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="O22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4109,56 +4478,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="X22" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="Y22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>11032</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>174078</v>
+      </c>
+      <c r="C23" t="s">
+        <v>222</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="J23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="O23" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4174,56 +4547,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="X23" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="Y23" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>11032</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>10901</v>
+      </c>
+      <c r="C24" t="s">
+        <v>232</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="J24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="K24" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="L24" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="O24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4235,56 +4612,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="X24" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="Y24" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>11032</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>174079</v>
+      </c>
+      <c r="C25" t="s">
+        <v>239</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="J25" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="K25" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="O25" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -4300,56 +4681,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="X25" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="Y25" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>11032</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>174080</v>
+      </c>
+      <c r="C26" t="s">
+        <v>246</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="J26" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="K26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="L26" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4361,56 +4746,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="X26" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="Y26" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>11032</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>5388</v>
+      </c>
+      <c r="C27" t="s">
+        <v>256</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="J27" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="K27" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="L27" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="O27" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4422,56 +4811,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="X27" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="Y27" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>11032</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>3160</v>
+      </c>
+      <c r="C28" t="s">
+        <v>263</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="J28" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="K28" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4487,56 +4880,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="X28" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="Y28" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>11032</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>174081</v>
+      </c>
+      <c r="C29" t="s">
+        <v>271</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>245</v>
+        <v>273</v>
       </c>
       <c r="J29" t="s">
-        <v>246</v>
+        <v>274</v>
       </c>
       <c r="K29" t="s">
-        <v>247</v>
+        <v>275</v>
       </c>
       <c r="L29" t="s">
-        <v>248</v>
+        <v>276</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="O29" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4548,56 +4945,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="X29" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="Y29" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>11032</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>174082</v>
+      </c>
+      <c r="C30" t="s">
+        <v>281</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="J30" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="K30" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="L30" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="O30" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4615,56 +5016,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="X30" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="Y30" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>11032</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>30938</v>
+      </c>
+      <c r="C31" t="s">
+        <v>288</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="J31" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="K31" t="s">
-        <v>262</v>
+        <v>292</v>
       </c>
       <c r="L31" t="s">
-        <v>263</v>
+        <v>293</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="O31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4676,56 +5081,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="X31" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="Y31" t="s">
-        <v>264</v>
+        <v>294</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>11032</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>39681</v>
+      </c>
+      <c r="C32" t="s">
+        <v>295</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>266</v>
+        <v>297</v>
       </c>
       <c r="J32" t="s">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="K32" t="s">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="L32" t="s">
-        <v>269</v>
+        <v>300</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="O32" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4737,56 +5146,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>270</v>
+        <v>301</v>
       </c>
       <c r="X32" t="s">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="Y32" t="s">
-        <v>272</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>11032</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>174083</v>
+      </c>
+      <c r="C33" t="s">
+        <v>304</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>273</v>
+        <v>305</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="J33" t="s">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="K33" t="s">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="L33" t="s">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="O33" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -4804,56 +5217,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="X33" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="Y33" t="s">
-        <v>281</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>11032</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>20839</v>
+      </c>
+      <c r="C34" t="s">
+        <v>314</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="J34" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="K34" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="L34" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="O34" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4869,56 +5286,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="X34" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="Y34" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>11032</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>174084</v>
+      </c>
+      <c r="C35" t="s">
+        <v>321</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="J35" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="K35" t="s">
-        <v>291</v>
+        <v>325</v>
       </c>
       <c r="L35" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4934,56 +5355,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="X35" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="Y35" t="s">
-        <v>294</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>11032</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>174085</v>
+      </c>
+      <c r="C36" t="s">
+        <v>329</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="J36" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="K36" t="s">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="L36" t="s">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="O36" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -5001,56 +5426,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="X36" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="Y36" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>11032</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>7440</v>
+      </c>
+      <c r="C37" t="s">
+        <v>336</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="J37" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="K37" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="L37" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="O37" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5062,56 +5491,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="X37" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="Y37" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>11032</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>174086</v>
+      </c>
+      <c r="C38" t="s">
+        <v>343</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="J38" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="K38" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="L38" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="O38" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -5129,56 +5562,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="X38" t="s">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="Y38" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>11032</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>174087</v>
+      </c>
+      <c r="C39" t="s">
+        <v>351</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="J39" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="K39" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="L39" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="O39" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -5196,56 +5633,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="X39" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
       <c r="Y39" t="s">
-        <v>322</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>11032</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>7140</v>
+      </c>
+      <c r="C40" t="s">
+        <v>361</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="J40" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="K40" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="L40" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="O40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -5263,56 +5704,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="X40" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="Y40" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>11032</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>3160</v>
+      </c>
+      <c r="C41" t="s">
+        <v>263</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="J41" t="s">
-        <v>334</v>
+        <v>373</v>
       </c>
       <c r="K41" t="s">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="L41" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="O41" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5328,56 +5773,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="X41" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="Y41" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>11032</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>65416</v>
+      </c>
+      <c r="C42" t="s">
+        <v>378</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="J42" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="K42" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="L42" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="O42" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -5395,56 +5844,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="X42" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="Y42" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>11032</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>174088</v>
+      </c>
+      <c r="C43" t="s">
+        <v>386</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="J43" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="K43" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="L43" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="O43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -5462,56 +5915,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="X43" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="Y43" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>11032</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>19025</v>
+      </c>
+      <c r="C44" t="s">
+        <v>173</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="J44" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="K44" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="L44" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="O44" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
@@ -5529,47 +5986,51 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="X44" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="Y44" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>11032</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>174089</v>
+      </c>
+      <c r="C45" t="s">
+        <v>402</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>362</v>
+        <v>404</v>
       </c>
       <c r="J45" t="s">
-        <v>363</v>
+        <v>405</v>
       </c>
       <c r="K45" t="s">
-        <v>364</v>
+        <v>406</v>
       </c>
       <c r="L45" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
@@ -5598,50 +6059,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>365</v>
+        <v>407</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>11032</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>174090</v>
+      </c>
+      <c r="C46" t="s">
+        <v>408</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="J46" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="K46" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
       <c r="L46" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="O46" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -5659,56 +6124,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="X46" t="s">
-        <v>372</v>
+        <v>415</v>
       </c>
       <c r="Y46" t="s">
-        <v>373</v>
+        <v>416</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>11032</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>174091</v>
+      </c>
+      <c r="C47" t="s">
+        <v>417</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>374</v>
+        <v>418</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="J47" t="s">
-        <v>376</v>
+        <v>420</v>
       </c>
       <c r="K47" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="L47" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="O47" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5726,50 +6195,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>11032</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>5250</v>
+      </c>
+      <c r="C48" t="s">
+        <v>424</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
       <c r="J48" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="K48" t="s">
-        <v>383</v>
+        <v>428</v>
       </c>
       <c r="L48" t="s">
-        <v>384</v>
+        <v>429</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>379</v>
+        <v>423</v>
       </c>
       <c r="O48" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5793,50 +6266,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>385</v>
+        <v>430</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>11032</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>174092</v>
+      </c>
+      <c r="C49" t="s">
+        <v>431</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="J49" t="s">
-        <v>388</v>
+        <v>434</v>
       </c>
       <c r="K49" t="s">
-        <v>389</v>
+        <v>435</v>
       </c>
       <c r="L49" t="s">
-        <v>390</v>
+        <v>436</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="O49" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5856,50 +6333,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>392</v>
+        <v>438</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>11032</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>132363</v>
+      </c>
+      <c r="C50" t="s">
+        <v>439</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>393</v>
+        <v>440</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="J50" t="s">
-        <v>395</v>
+        <v>442</v>
       </c>
       <c r="K50" t="s">
-        <v>396</v>
+        <v>443</v>
       </c>
       <c r="L50" t="s">
-        <v>397</v>
+        <v>444</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
       <c r="O50" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5911,56 +6392,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="X50" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="Y50" t="s">
-        <v>401</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>11032</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>40235</v>
+      </c>
+      <c r="C51" t="s">
+        <v>449</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>402</v>
+        <v>450</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>403</v>
+        <v>451</v>
       </c>
       <c r="J51" t="s">
-        <v>404</v>
+        <v>452</v>
       </c>
       <c r="K51" t="s">
-        <v>405</v>
+        <v>453</v>
       </c>
       <c r="L51" t="s">
-        <v>406</v>
+        <v>454</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>407</v>
+        <v>455</v>
       </c>
       <c r="O51" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5972,56 +6457,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>399</v>
+        <v>446</v>
       </c>
       <c r="X51" t="s">
-        <v>400</v>
+        <v>447</v>
       </c>
       <c r="Y51" t="s">
-        <v>408</v>
+        <v>456</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>11032</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>35064</v>
+      </c>
+      <c r="C52" t="s">
+        <v>457</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="J52" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="K52" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
       <c r="L52" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>414</v>
+        <v>463</v>
       </c>
       <c r="O52" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="P52" t="n">
         <v>1</v>
@@ -6043,56 +6532,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>415</v>
+        <v>464</v>
       </c>
       <c r="X52" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="Y52" t="s">
-        <v>417</v>
+        <v>466</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>11032</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>174093</v>
+      </c>
+      <c r="C53" t="s">
+        <v>467</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>418</v>
+        <v>468</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>419</v>
+        <v>469</v>
       </c>
       <c r="J53" t="s">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="K53" t="s">
-        <v>421</v>
+        <v>471</v>
       </c>
       <c r="L53" t="s">
-        <v>422</v>
+        <v>472</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>423</v>
+        <v>473</v>
       </c>
       <c r="O53" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -6114,47 +6607,51 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
       <c r="X53" t="s">
-        <v>425</v>
+        <v>475</v>
       </c>
       <c r="Y53" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>11032</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>174094</v>
+      </c>
+      <c r="C54" t="s">
+        <v>477</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="J54" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="K54" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="L54" t="s">
-        <v>431</v>
+        <v>482</v>
       </c>
       <c r="M54" t="n">
         <v>2</v>
@@ -6181,47 +6678,51 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>432</v>
+        <v>483</v>
       </c>
       <c r="X54" t="s">
-        <v>433</v>
+        <v>484</v>
       </c>
       <c r="Y54" t="s">
-        <v>434</v>
+        <v>485</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>11032</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>174095</v>
+      </c>
+      <c r="C55" t="s">
+        <v>486</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>436</v>
+        <v>488</v>
       </c>
       <c r="J55" t="s">
-        <v>437</v>
+        <v>489</v>
       </c>
       <c r="K55" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="L55" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
@@ -6248,56 +6749,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="X55" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
       <c r="Y55" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>11032</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>174096</v>
+      </c>
+      <c r="C56" t="s">
+        <v>495</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
       <c r="J56" t="s">
-        <v>445</v>
+        <v>498</v>
       </c>
       <c r="K56" t="s">
-        <v>446</v>
+        <v>499</v>
       </c>
       <c r="L56" t="s">
-        <v>447</v>
+        <v>500</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>423</v>
+        <v>473</v>
       </c>
       <c r="O56" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6319,56 +6824,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
       <c r="X56" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="Y56" t="s">
-        <v>450</v>
+        <v>503</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>11032</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>174097</v>
+      </c>
+      <c r="C57" t="s">
+        <v>504</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>451</v>
+        <v>505</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>452</v>
+        <v>506</v>
       </c>
       <c r="J57" t="s">
-        <v>453</v>
+        <v>507</v>
       </c>
       <c r="K57" t="s">
-        <v>454</v>
+        <v>508</v>
       </c>
       <c r="L57" t="s">
-        <v>455</v>
+        <v>509</v>
       </c>
       <c r="M57" t="n">
         <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>456</v>
+        <v>510</v>
       </c>
       <c r="O57" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="P57" t="n">
         <v>2</v>
@@ -6390,56 +6899,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
       <c r="X57" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="Y57" t="s">
-        <v>457</v>
+        <v>511</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>11032</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>174098</v>
+      </c>
+      <c r="C58" t="s">
+        <v>512</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
       <c r="J58" t="s">
-        <v>460</v>
+        <v>515</v>
       </c>
       <c r="K58" t="s">
-        <v>461</v>
+        <v>516</v>
       </c>
       <c r="L58" t="s">
-        <v>462</v>
+        <v>517</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>423</v>
+        <v>473</v>
       </c>
       <c r="O58" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -6461,56 +6974,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>448</v>
+        <v>501</v>
       </c>
       <c r="X58" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="Y58" t="s">
-        <v>463</v>
+        <v>518</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>11032</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>174099</v>
+      </c>
+      <c r="C59" t="s">
+        <v>519</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>465</v>
+        <v>521</v>
       </c>
       <c r="J59" t="s">
-        <v>466</v>
+        <v>522</v>
       </c>
       <c r="K59" t="s">
-        <v>467</v>
+        <v>523</v>
       </c>
       <c r="L59" t="s">
-        <v>468</v>
+        <v>524</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>456</v>
+        <v>510</v>
       </c>
       <c r="O59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P59" t="n">
         <v>3</v>
@@ -6532,47 +7049,51 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>469</v>
+        <v>525</v>
       </c>
       <c r="X59" t="s">
-        <v>470</v>
+        <v>526</v>
       </c>
       <c r="Y59" t="s">
-        <v>471</v>
+        <v>527</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>11032</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>174100</v>
+      </c>
+      <c r="C60" t="s">
+        <v>528</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="J60" t="s">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="K60" t="s">
-        <v>475</v>
+        <v>532</v>
       </c>
       <c r="L60" t="s">
-        <v>476</v>
+        <v>533</v>
       </c>
       <c r="M60" t="n">
         <v>2</v>
@@ -6599,56 +7120,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>469</v>
+        <v>525</v>
       </c>
       <c r="X60" t="s">
-        <v>470</v>
+        <v>526</v>
       </c>
       <c r="Y60" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>11032</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>174101</v>
+      </c>
+      <c r="C61" t="s">
+        <v>535</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>478</v>
+        <v>536</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>479</v>
+        <v>537</v>
       </c>
       <c r="J61" t="s">
-        <v>480</v>
+        <v>538</v>
       </c>
       <c r="K61" t="s">
-        <v>481</v>
+        <v>539</v>
       </c>
       <c r="L61" t="s">
-        <v>482</v>
+        <v>540</v>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
       <c r="N61" t="s">
-        <v>456</v>
+        <v>510</v>
       </c>
       <c r="O61" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P61" t="n">
         <v>1</v>
@@ -6670,56 +7195,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>469</v>
+        <v>525</v>
       </c>
       <c r="X61" t="s">
-        <v>470</v>
+        <v>526</v>
       </c>
       <c r="Y61" t="s">
-        <v>483</v>
+        <v>541</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>11032</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>3712</v>
+      </c>
+      <c r="C62" t="s">
+        <v>542</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>484</v>
+        <v>543</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="J62" t="s">
-        <v>486</v>
+        <v>545</v>
       </c>
       <c r="K62" t="s">
-        <v>487</v>
+        <v>546</v>
       </c>
       <c r="L62" t="s">
-        <v>488</v>
+        <v>547</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>456</v>
+        <v>510</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6743,50 +7272,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>489</v>
+        <v>548</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>11032</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>3160</v>
+      </c>
+      <c r="C63" t="s">
+        <v>263</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>490</v>
+        <v>549</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>491</v>
+        <v>550</v>
       </c>
       <c r="J63" t="s">
-        <v>492</v>
+        <v>551</v>
       </c>
       <c r="K63" t="s">
-        <v>493</v>
+        <v>552</v>
       </c>
       <c r="L63" t="s">
-        <v>494</v>
+        <v>553</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>495</v>
+        <v>554</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6810,50 +7343,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>494</v>
+        <v>553</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>11032</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>174102</v>
+      </c>
+      <c r="C64" t="s">
+        <v>555</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>497</v>
+        <v>557</v>
       </c>
       <c r="J64" t="s">
-        <v>498</v>
+        <v>558</v>
       </c>
       <c r="K64" t="s">
-        <v>499</v>
+        <v>559</v>
       </c>
       <c r="L64" t="s">
-        <v>500</v>
+        <v>560</v>
       </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>501</v>
+        <v>561</v>
       </c>
       <c r="O64" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="P64" t="n">
         <v>2</v>
@@ -6877,50 +7414,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>502</v>
+        <v>562</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>11032</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>174103</v>
+      </c>
+      <c r="C65" t="s">
+        <v>563</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>503</v>
+        <v>564</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>504</v>
+        <v>565</v>
       </c>
       <c r="J65" t="s">
-        <v>505</v>
+        <v>566</v>
       </c>
       <c r="K65" t="s">
-        <v>506</v>
+        <v>567</v>
       </c>
       <c r="L65" t="s">
-        <v>507</v>
+        <v>568</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>508</v>
+        <v>569</v>
       </c>
       <c r="O65" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6942,56 +7483,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>509</v>
+        <v>570</v>
       </c>
       <c r="X65" t="s">
-        <v>510</v>
+        <v>571</v>
       </c>
       <c r="Y65" t="s">
-        <v>511</v>
+        <v>572</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>11032</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>174104</v>
+      </c>
+      <c r="C66" t="s">
+        <v>573</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>512</v>
+        <v>574</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>513</v>
+        <v>575</v>
       </c>
       <c r="J66" t="s">
-        <v>514</v>
+        <v>576</v>
       </c>
       <c r="K66" t="s">
-        <v>515</v>
+        <v>577</v>
       </c>
       <c r="L66" t="s">
-        <v>516</v>
+        <v>578</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>508</v>
+        <v>569</v>
       </c>
       <c r="O66" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -7013,56 +7558,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>517</v>
+        <v>579</v>
       </c>
       <c r="X66" t="s">
-        <v>510</v>
+        <v>571</v>
       </c>
       <c r="Y66" t="s">
-        <v>518</v>
+        <v>580</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>11032</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>174105</v>
+      </c>
+      <c r="C67" t="s">
+        <v>581</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>519</v>
+        <v>582</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>520</v>
+        <v>583</v>
       </c>
       <c r="J67" t="s">
-        <v>521</v>
+        <v>584</v>
       </c>
       <c r="K67" t="s">
-        <v>522</v>
+        <v>585</v>
       </c>
       <c r="L67" t="s">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
       </c>
       <c r="N67" t="s">
-        <v>524</v>
+        <v>587</v>
       </c>
       <c r="O67" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="P67" t="n">
         <v>5</v>
@@ -7084,47 +7633,51 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>525</v>
+        <v>588</v>
       </c>
       <c r="X67" t="s">
-        <v>526</v>
+        <v>589</v>
       </c>
       <c r="Y67" t="s">
-        <v>527</v>
+        <v>590</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>11032</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>174106</v>
+      </c>
+      <c r="C68" t="s">
+        <v>591</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>528</v>
+        <v>592</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>529</v>
+        <v>593</v>
       </c>
       <c r="J68" t="s">
-        <v>530</v>
+        <v>594</v>
       </c>
       <c r="K68" t="s">
-        <v>531</v>
+        <v>595</v>
       </c>
       <c r="L68" t="s">
-        <v>532</v>
+        <v>596</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
@@ -7151,47 +7704,51 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>525</v>
+        <v>588</v>
       </c>
       <c r="X68" t="s">
-        <v>526</v>
+        <v>589</v>
       </c>
       <c r="Y68" t="s">
-        <v>533</v>
+        <v>597</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>11032</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>174107</v>
+      </c>
+      <c r="C69" t="s">
+        <v>598</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>534</v>
+        <v>599</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>535</v>
+        <v>600</v>
       </c>
       <c r="J69" t="s">
-        <v>536</v>
+        <v>601</v>
       </c>
       <c r="K69" t="s">
-        <v>537</v>
+        <v>602</v>
       </c>
       <c r="L69" t="s">
-        <v>538</v>
+        <v>603</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
@@ -7218,56 +7775,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>525</v>
+        <v>588</v>
       </c>
       <c r="X69" t="s">
-        <v>526</v>
+        <v>589</v>
       </c>
       <c r="Y69" t="s">
-        <v>539</v>
+        <v>604</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>11032</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>2117</v>
+      </c>
+      <c r="C70" t="s">
+        <v>605</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>540</v>
+        <v>606</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>541</v>
+        <v>607</v>
       </c>
       <c r="J70" t="s">
-        <v>542</v>
+        <v>608</v>
       </c>
       <c r="K70" t="s">
-        <v>543</v>
+        <v>609</v>
       </c>
       <c r="L70" t="s">
-        <v>544</v>
+        <v>610</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>545</v>
+        <v>611</v>
       </c>
       <c r="O70" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7289,47 +7850,51 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>546</v>
+        <v>612</v>
       </c>
       <c r="X70" t="s">
-        <v>547</v>
+        <v>613</v>
       </c>
       <c r="Y70" t="s">
-        <v>548</v>
+        <v>614</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>11032</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>174108</v>
+      </c>
+      <c r="C71" t="s">
+        <v>615</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>549</v>
+        <v>616</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>550</v>
+        <v>617</v>
       </c>
       <c r="J71" t="s">
-        <v>551</v>
+        <v>618</v>
       </c>
       <c r="K71" t="s">
-        <v>552</v>
+        <v>619</v>
       </c>
       <c r="L71" t="s">
-        <v>553</v>
+        <v>620</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
@@ -7356,56 +7921,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>546</v>
+        <v>612</v>
       </c>
       <c r="X71" t="s">
-        <v>547</v>
+        <v>613</v>
       </c>
       <c r="Y71" t="s">
-        <v>554</v>
+        <v>621</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>11032</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>3147</v>
+      </c>
+      <c r="C72" t="s">
+        <v>622</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>555</v>
+        <v>623</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>556</v>
+        <v>624</v>
       </c>
       <c r="J72" t="s">
-        <v>557</v>
+        <v>625</v>
       </c>
       <c r="K72" t="s">
-        <v>558</v>
+        <v>626</v>
       </c>
       <c r="L72" t="s">
-        <v>559</v>
+        <v>627</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>545</v>
+        <v>611</v>
       </c>
       <c r="O72" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7427,56 +7996,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>560</v>
+        <v>628</v>
       </c>
       <c r="X72" t="s">
-        <v>561</v>
+        <v>629</v>
       </c>
       <c r="Y72" t="s">
-        <v>562</v>
+        <v>630</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>11032</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>174109</v>
+      </c>
+      <c r="C73" t="s">
+        <v>631</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>563</v>
+        <v>632</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>564</v>
+        <v>633</v>
       </c>
       <c r="J73" t="s">
-        <v>565</v>
+        <v>634</v>
       </c>
       <c r="K73" t="s">
-        <v>566</v>
+        <v>635</v>
       </c>
       <c r="L73" t="s">
-        <v>567</v>
+        <v>636</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>568</v>
+        <v>637</v>
       </c>
       <c r="O73" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7498,56 +8071,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>569</v>
+        <v>638</v>
       </c>
       <c r="X73" t="s">
-        <v>570</v>
+        <v>639</v>
       </c>
       <c r="Y73" t="s">
-        <v>571</v>
+        <v>640</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>11032</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>174110</v>
+      </c>
+      <c r="C74" t="s">
+        <v>641</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>572</v>
+        <v>642</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>573</v>
+        <v>643</v>
       </c>
       <c r="J74" t="s">
-        <v>574</v>
+        <v>644</v>
       </c>
       <c r="K74" t="s">
-        <v>575</v>
+        <v>645</v>
       </c>
       <c r="L74" t="s">
-        <v>576</v>
+        <v>646</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>577</v>
+        <v>647</v>
       </c>
       <c r="O74" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P74" t="n">
         <v>1</v>
@@ -7569,56 +8146,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>578</v>
+        <v>648</v>
       </c>
       <c r="X74" t="s">
-        <v>579</v>
+        <v>649</v>
       </c>
       <c r="Y74" t="s">
-        <v>580</v>
+        <v>650</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>11032</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>10500</v>
+      </c>
+      <c r="C75" t="s">
+        <v>651</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>581</v>
+        <v>652</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>582</v>
+        <v>653</v>
       </c>
       <c r="J75" t="s">
-        <v>583</v>
+        <v>654</v>
       </c>
       <c r="K75" t="s">
-        <v>584</v>
+        <v>655</v>
       </c>
       <c r="L75" t="s">
-        <v>585</v>
+        <v>656</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>577</v>
+        <v>647</v>
       </c>
       <c r="O75" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7640,56 +8221,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>578</v>
+        <v>648</v>
       </c>
       <c r="X75" t="s">
-        <v>579</v>
+        <v>649</v>
       </c>
       <c r="Y75" t="s">
-        <v>586</v>
+        <v>657</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>11032</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>174111</v>
+      </c>
+      <c r="C76" t="s">
+        <v>658</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>587</v>
+        <v>659</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>588</v>
+        <v>660</v>
       </c>
       <c r="J76" t="s">
-        <v>589</v>
+        <v>661</v>
       </c>
       <c r="K76" t="s">
-        <v>590</v>
+        <v>662</v>
       </c>
       <c r="L76" t="s">
-        <v>591</v>
+        <v>663</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>592</v>
+        <v>664</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7711,56 +8296,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>578</v>
+        <v>648</v>
       </c>
       <c r="X76" t="s">
-        <v>579</v>
+        <v>649</v>
       </c>
       <c r="Y76" t="s">
-        <v>593</v>
+        <v>665</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>11032</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>174112</v>
+      </c>
+      <c r="C77" t="s">
+        <v>666</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>594</v>
+        <v>667</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>595</v>
+        <v>668</v>
       </c>
       <c r="J77" t="s">
-        <v>596</v>
+        <v>669</v>
       </c>
       <c r="K77" t="s">
-        <v>597</v>
+        <v>670</v>
       </c>
       <c r="L77" t="s">
-        <v>598</v>
+        <v>671</v>
       </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>599</v>
+        <v>672</v>
       </c>
       <c r="O77" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P77" t="n">
         <v>1</v>
@@ -7782,56 +8371,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>600</v>
+        <v>673</v>
       </c>
       <c r="X77" t="s">
-        <v>601</v>
+        <v>674</v>
       </c>
       <c r="Y77" t="s">
-        <v>602</v>
+        <v>675</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>11032</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>174113</v>
+      </c>
+      <c r="C78" t="s">
+        <v>676</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>603</v>
+        <v>677</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>604</v>
+        <v>678</v>
       </c>
       <c r="J78" t="s">
-        <v>605</v>
+        <v>679</v>
       </c>
       <c r="K78" t="s">
-        <v>606</v>
+        <v>680</v>
       </c>
       <c r="L78" t="s">
-        <v>607</v>
+        <v>681</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>608</v>
+        <v>682</v>
       </c>
       <c r="O78" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7855,50 +8448,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>609</v>
+        <v>683</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>11032</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>174114</v>
+      </c>
+      <c r="C79" t="s">
+        <v>684</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>610</v>
+        <v>685</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>611</v>
+        <v>686</v>
       </c>
       <c r="J79" t="s">
-        <v>612</v>
+        <v>687</v>
       </c>
       <c r="K79" t="s">
-        <v>613</v>
+        <v>688</v>
       </c>
       <c r="L79" t="s">
-        <v>614</v>
+        <v>689</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>615</v>
+        <v>690</v>
       </c>
       <c r="O79" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -7920,56 +8517,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>600</v>
+        <v>673</v>
       </c>
       <c r="X79" t="s">
-        <v>601</v>
+        <v>674</v>
       </c>
       <c r="Y79" t="s">
-        <v>616</v>
+        <v>691</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>11032</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>174115</v>
+      </c>
+      <c r="C80" t="s">
+        <v>692</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>617</v>
+        <v>693</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>618</v>
+        <v>694</v>
       </c>
       <c r="J80" t="s">
-        <v>619</v>
+        <v>695</v>
       </c>
       <c r="K80" t="s">
-        <v>620</v>
+        <v>696</v>
       </c>
       <c r="L80" t="s">
-        <v>621</v>
+        <v>697</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>622</v>
+        <v>698</v>
       </c>
       <c r="O80" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7987,56 +8588,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>623</v>
+        <v>699</v>
       </c>
       <c r="X80" t="s">
-        <v>624</v>
+        <v>700</v>
       </c>
       <c r="Y80" t="s">
-        <v>625</v>
+        <v>701</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>11032</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>1283</v>
+      </c>
+      <c r="C81" t="s">
+        <v>702</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>626</v>
+        <v>703</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>627</v>
+        <v>704</v>
       </c>
       <c r="J81" t="s">
-        <v>628</v>
+        <v>705</v>
       </c>
       <c r="K81" t="s">
-        <v>629</v>
+        <v>706</v>
       </c>
       <c r="L81" t="s">
-        <v>630</v>
+        <v>707</v>
       </c>
       <c r="M81" t="n">
         <v>3</v>
       </c>
       <c r="N81" t="s">
-        <v>631</v>
+        <v>708</v>
       </c>
       <c r="O81" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -8054,56 +8659,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>623</v>
+        <v>699</v>
       </c>
       <c r="X81" t="s">
-        <v>624</v>
+        <v>700</v>
       </c>
       <c r="Y81" t="s">
-        <v>632</v>
+        <v>709</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>11032</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>174116</v>
+      </c>
+      <c r="C82" t="s">
+        <v>710</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>633</v>
+        <v>711</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>634</v>
+        <v>712</v>
       </c>
       <c r="J82" t="s">
-        <v>635</v>
+        <v>713</v>
       </c>
       <c r="K82" t="s">
-        <v>636</v>
+        <v>714</v>
       </c>
       <c r="L82" t="s">
-        <v>637</v>
+        <v>715</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>631</v>
+        <v>708</v>
       </c>
       <c r="O82" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8121,56 +8730,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>623</v>
+        <v>699</v>
       </c>
       <c r="X82" t="s">
-        <v>624</v>
+        <v>700</v>
       </c>
       <c r="Y82" t="s">
-        <v>638</v>
+        <v>716</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>11032</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>174117</v>
+      </c>
+      <c r="C83" t="s">
+        <v>717</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>639</v>
+        <v>718</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>640</v>
+        <v>719</v>
       </c>
       <c r="J83" t="s">
-        <v>641</v>
+        <v>720</v>
       </c>
       <c r="K83" t="s">
-        <v>642</v>
+        <v>721</v>
       </c>
       <c r="L83" t="s">
-        <v>643</v>
+        <v>722</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>631</v>
+        <v>708</v>
       </c>
       <c r="O83" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8188,56 +8801,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>623</v>
+        <v>699</v>
       </c>
       <c r="X83" t="s">
-        <v>624</v>
+        <v>700</v>
       </c>
       <c r="Y83" t="s">
-        <v>644</v>
+        <v>723</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>11032</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>38921</v>
+      </c>
+      <c r="C84" t="s">
+        <v>724</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>645</v>
+        <v>725</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>646</v>
+        <v>726</v>
       </c>
       <c r="J84" t="s">
-        <v>647</v>
+        <v>727</v>
       </c>
       <c r="K84" t="s">
-        <v>648</v>
+        <v>728</v>
       </c>
       <c r="L84" t="s">
-        <v>649</v>
+        <v>729</v>
       </c>
       <c r="M84" t="n">
         <v>3</v>
       </c>
       <c r="N84" t="s">
-        <v>631</v>
+        <v>708</v>
       </c>
       <c r="O84" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -8255,56 +8872,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>623</v>
+        <v>699</v>
       </c>
       <c r="X84" t="s">
-        <v>624</v>
+        <v>700</v>
       </c>
       <c r="Y84" t="s">
-        <v>650</v>
+        <v>730</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>11032</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>174118</v>
+      </c>
+      <c r="C85" t="s">
+        <v>731</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>651</v>
+        <v>732</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>652</v>
+        <v>733</v>
       </c>
       <c r="J85" t="s">
-        <v>653</v>
+        <v>734</v>
       </c>
       <c r="K85" t="s">
-        <v>654</v>
+        <v>735</v>
       </c>
       <c r="L85" t="s">
-        <v>655</v>
+        <v>736</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>656</v>
+        <v>737</v>
       </c>
       <c r="O85" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8322,56 +8943,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>623</v>
+        <v>699</v>
       </c>
       <c r="X85" t="s">
-        <v>624</v>
+        <v>700</v>
       </c>
       <c r="Y85" t="s">
-        <v>657</v>
+        <v>738</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>11032</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>174119</v>
+      </c>
+      <c r="C86" t="s">
+        <v>739</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>658</v>
+        <v>740</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>659</v>
+        <v>741</v>
       </c>
       <c r="J86" t="s">
-        <v>660</v>
+        <v>742</v>
       </c>
       <c r="K86" t="s">
-        <v>661</v>
+        <v>743</v>
       </c>
       <c r="L86" t="s">
-        <v>662</v>
+        <v>744</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
       </c>
       <c r="N86" t="s">
-        <v>663</v>
+        <v>745</v>
       </c>
       <c r="O86" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="P86" t="n">
         <v>3</v>
@@ -8393,56 +9018,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>664</v>
+        <v>746</v>
       </c>
       <c r="X86" t="s">
-        <v>665</v>
+        <v>747</v>
       </c>
       <c r="Y86" t="s">
-        <v>666</v>
+        <v>748</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>11032</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>174120</v>
+      </c>
+      <c r="C87" t="s">
+        <v>749</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>667</v>
+        <v>750</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>668</v>
+        <v>751</v>
       </c>
       <c r="J87" t="s">
-        <v>669</v>
+        <v>752</v>
       </c>
       <c r="K87" t="s">
-        <v>670</v>
+        <v>753</v>
       </c>
       <c r="L87" t="s">
-        <v>671</v>
+        <v>754</v>
       </c>
       <c r="M87" t="n">
         <v>3</v>
       </c>
       <c r="N87" t="s">
-        <v>672</v>
+        <v>755</v>
       </c>
       <c r="O87" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="P87" t="n">
         <v>4</v>
@@ -8464,56 +9093,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>664</v>
+        <v>746</v>
       </c>
       <c r="X87" t="s">
-        <v>665</v>
+        <v>747</v>
       </c>
       <c r="Y87" t="s">
-        <v>673</v>
+        <v>756</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>11032</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>174121</v>
+      </c>
+      <c r="C88" t="s">
+        <v>757</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>674</v>
+        <v>758</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>675</v>
+        <v>759</v>
       </c>
       <c r="J88" t="s">
-        <v>676</v>
+        <v>760</v>
       </c>
       <c r="K88" t="s">
-        <v>677</v>
+        <v>761</v>
       </c>
       <c r="L88" t="s">
-        <v>678</v>
+        <v>762</v>
       </c>
       <c r="M88" t="n">
         <v>2</v>
       </c>
       <c r="N88" t="s">
-        <v>679</v>
+        <v>763</v>
       </c>
       <c r="O88" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="P88" t="s"/>
       <c r="Q88" t="s"/>
@@ -8525,56 +9158,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>664</v>
+        <v>746</v>
       </c>
       <c r="X88" t="s">
-        <v>665</v>
+        <v>747</v>
       </c>
       <c r="Y88" t="s">
-        <v>680</v>
+        <v>764</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>11032</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>174122</v>
+      </c>
+      <c r="C89" t="s">
+        <v>765</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>681</v>
+        <v>766</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>682</v>
+        <v>767</v>
       </c>
       <c r="J89" t="s">
-        <v>683</v>
+        <v>768</v>
       </c>
       <c r="K89" t="s">
-        <v>684</v>
+        <v>769</v>
       </c>
       <c r="L89" t="s">
-        <v>685</v>
+        <v>770</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>686</v>
+        <v>771</v>
       </c>
       <c r="O89" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8596,56 +9233,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>664</v>
+        <v>746</v>
       </c>
       <c r="X89" t="s">
-        <v>665</v>
+        <v>747</v>
       </c>
       <c r="Y89" t="s">
-        <v>687</v>
+        <v>772</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>11032</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>174123</v>
+      </c>
+      <c r="C90" t="s">
+        <v>773</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>688</v>
+        <v>774</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>689</v>
+        <v>775</v>
       </c>
       <c r="J90" t="s">
-        <v>690</v>
+        <v>776</v>
       </c>
       <c r="K90" t="s">
-        <v>691</v>
+        <v>777</v>
       </c>
       <c r="L90" t="s">
-        <v>692</v>
+        <v>778</v>
       </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
       <c r="N90" t="s">
-        <v>693</v>
+        <v>779</v>
       </c>
       <c r="O90" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P90" t="n">
         <v>1</v>
@@ -8667,56 +9308,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>664</v>
+        <v>746</v>
       </c>
       <c r="X90" t="s">
-        <v>665</v>
+        <v>747</v>
       </c>
       <c r="Y90" t="s">
-        <v>694</v>
+        <v>780</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>11032</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>174124</v>
+      </c>
+      <c r="C91" t="s">
+        <v>781</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>695</v>
+        <v>782</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>696</v>
+        <v>783</v>
       </c>
       <c r="J91" t="s">
-        <v>697</v>
+        <v>784</v>
       </c>
       <c r="K91" t="s">
-        <v>698</v>
+        <v>785</v>
       </c>
       <c r="L91" t="s">
-        <v>699</v>
+        <v>786</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>700</v>
+        <v>787</v>
       </c>
       <c r="O91" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P91" t="n">
         <v>4</v>
@@ -8738,47 +9383,51 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>664</v>
+        <v>746</v>
       </c>
       <c r="X91" t="s">
-        <v>665</v>
+        <v>747</v>
       </c>
       <c r="Y91" t="s">
-        <v>701</v>
+        <v>788</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>11032</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>174125</v>
+      </c>
+      <c r="C92" t="s">
+        <v>789</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>702</v>
+        <v>790</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>703</v>
+        <v>791</v>
       </c>
       <c r="J92" t="s">
-        <v>704</v>
+        <v>792</v>
       </c>
       <c r="K92" t="s">
-        <v>705</v>
+        <v>793</v>
       </c>
       <c r="L92" t="s">
-        <v>706</v>
+        <v>794</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
@@ -8795,47 +9444,51 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>707</v>
+        <v>795</v>
       </c>
       <c r="X92" t="s">
-        <v>708</v>
+        <v>796</v>
       </c>
       <c r="Y92" t="s">
-        <v>709</v>
+        <v>797</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>11032</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>174126</v>
+      </c>
+      <c r="C93" t="s">
+        <v>798</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>710</v>
+        <v>799</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>711</v>
+        <v>800</v>
       </c>
       <c r="J93" t="s">
-        <v>712</v>
+        <v>801</v>
       </c>
       <c r="K93" t="s">
-        <v>713</v>
+        <v>802</v>
       </c>
       <c r="L93" t="s">
-        <v>714</v>
+        <v>803</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
@@ -8862,56 +9515,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>707</v>
+        <v>795</v>
       </c>
       <c r="X93" t="s">
-        <v>708</v>
+        <v>796</v>
       </c>
       <c r="Y93" t="s">
-        <v>715</v>
+        <v>804</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>11032</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>174127</v>
+      </c>
+      <c r="C94" t="s">
+        <v>805</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>716</v>
+        <v>806</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>717</v>
+        <v>807</v>
       </c>
       <c r="J94" t="s">
-        <v>718</v>
+        <v>808</v>
       </c>
       <c r="K94" t="s">
-        <v>719</v>
+        <v>809</v>
       </c>
       <c r="L94" t="s">
-        <v>720</v>
+        <v>810</v>
       </c>
       <c r="M94" t="n">
         <v>3</v>
       </c>
       <c r="N94" t="s">
-        <v>721</v>
+        <v>811</v>
       </c>
       <c r="O94" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P94" t="n">
         <v>3</v>
@@ -8933,56 +9590,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>707</v>
+        <v>795</v>
       </c>
       <c r="X94" t="s">
-        <v>708</v>
+        <v>796</v>
       </c>
       <c r="Y94" t="s">
-        <v>722</v>
+        <v>812</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>11032</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>174128</v>
+      </c>
+      <c r="C95" t="s">
+        <v>813</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>723</v>
+        <v>814</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>724</v>
+        <v>815</v>
       </c>
       <c r="J95" t="s">
-        <v>725</v>
+        <v>816</v>
       </c>
       <c r="K95" t="s">
-        <v>726</v>
+        <v>817</v>
       </c>
       <c r="L95" t="s">
-        <v>727</v>
+        <v>818</v>
       </c>
       <c r="M95" t="n">
         <v>2</v>
       </c>
       <c r="N95" t="s">
-        <v>728</v>
+        <v>819</v>
       </c>
       <c r="O95" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P95" t="n">
         <v>2</v>
@@ -9004,47 +9665,51 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>707</v>
+        <v>795</v>
       </c>
       <c r="X95" t="s">
-        <v>708</v>
+        <v>796</v>
       </c>
       <c r="Y95" t="s">
-        <v>729</v>
+        <v>820</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>11032</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>174129</v>
+      </c>
+      <c r="C96" t="s">
+        <v>821</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>730</v>
+        <v>822</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>731</v>
+        <v>823</v>
       </c>
       <c r="J96" t="s">
-        <v>732</v>
+        <v>824</v>
       </c>
       <c r="K96" t="s">
-        <v>733</v>
+        <v>825</v>
       </c>
       <c r="L96" t="s">
-        <v>734</v>
+        <v>826</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
@@ -9061,56 +9726,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>707</v>
+        <v>795</v>
       </c>
       <c r="X96" t="s">
-        <v>708</v>
+        <v>796</v>
       </c>
       <c r="Y96" t="s">
-        <v>735</v>
+        <v>827</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>11032</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>174130</v>
+      </c>
+      <c r="C97" t="s">
+        <v>828</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>736</v>
+        <v>829</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>737</v>
+        <v>830</v>
       </c>
       <c r="J97" t="s">
-        <v>738</v>
+        <v>831</v>
       </c>
       <c r="K97" t="s">
-        <v>739</v>
+        <v>832</v>
       </c>
       <c r="L97" t="s">
-        <v>740</v>
+        <v>833</v>
       </c>
       <c r="M97" t="n">
         <v>3</v>
       </c>
       <c r="N97" t="s">
-        <v>741</v>
+        <v>834</v>
       </c>
       <c r="O97" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="P97" t="n">
         <v>3</v>
@@ -9132,47 +9801,51 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>707</v>
+        <v>795</v>
       </c>
       <c r="X97" t="s">
-        <v>708</v>
+        <v>796</v>
       </c>
       <c r="Y97" t="s">
-        <v>742</v>
+        <v>835</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>11032</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>174131</v>
+      </c>
+      <c r="C98" t="s">
+        <v>836</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>743</v>
+        <v>837</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>744</v>
+        <v>838</v>
       </c>
       <c r="J98" t="s">
-        <v>745</v>
+        <v>839</v>
       </c>
       <c r="K98" t="s">
-        <v>746</v>
+        <v>840</v>
       </c>
       <c r="L98" t="s">
-        <v>747</v>
+        <v>841</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
@@ -9189,47 +9862,51 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>707</v>
+        <v>795</v>
       </c>
       <c r="X98" t="s">
-        <v>708</v>
+        <v>796</v>
       </c>
       <c r="Y98" t="s">
-        <v>748</v>
+        <v>842</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>11032</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>7</v>
+      </c>
+      <c r="C99" t="s">
+        <v>843</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>749</v>
+        <v>844</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>750</v>
+        <v>845</v>
       </c>
       <c r="J99" t="s">
-        <v>751</v>
+        <v>846</v>
       </c>
       <c r="K99" t="s">
-        <v>752</v>
+        <v>847</v>
       </c>
       <c r="L99" t="s">
-        <v>753</v>
+        <v>848</v>
       </c>
       <c r="M99" t="n">
         <v>4</v>
@@ -9246,13 +9923,13 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>707</v>
+        <v>795</v>
       </c>
       <c r="X99" t="s">
-        <v>708</v>
+        <v>796</v>
       </c>
       <c r="Y99" t="s">
-        <v>754</v>
+        <v>849</v>
       </c>
     </row>
   </sheetData>
